--- a/data/researchfish_results.xlsx
+++ b/data/researchfish_results.xlsx
@@ -6,10 +6,10 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Licences" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Universities" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Repo domains" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Year of return" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="opensource" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="universities" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="rootdomain" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="returnyear" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,11 +17,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="489">
   <si>
     <t>Open Source?</t>
   </si>
   <si>
+    <t>No response</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -52,12 +55,12 @@
     <t>University of Aberdeen</t>
   </si>
   <si>
+    <t>University of Manchester</t>
+  </si>
+  <si>
     <t>University of Bristol</t>
   </si>
   <si>
-    <t>University of Manchester</t>
-  </si>
-  <si>
     <t>University of Sheffield</t>
   </si>
   <si>
@@ -91,21 +94,21 @@
     <t>University of Salford</t>
   </si>
   <si>
+    <t>Newcastle University</t>
+  </si>
+  <si>
     <t>STFC Laboratories</t>
   </si>
   <si>
-    <t>Newcastle University</t>
-  </si>
-  <si>
     <t>Durham University</t>
   </si>
   <si>
+    <t>Queen's University of Belfast</t>
+  </si>
+  <si>
     <t>University of St Andrews</t>
   </si>
   <si>
-    <t>Queen's University of Belfast</t>
-  </si>
-  <si>
     <t>Brunel University</t>
   </si>
   <si>
@@ -115,54 +118,54 @@
     <t>King's College London (KCL)</t>
   </si>
   <si>
+    <t>Cranfield University</t>
+  </si>
+  <si>
     <t>Swansea University</t>
   </si>
   <si>
-    <t>Cranfield University</t>
+    <t>University of Glasgow</t>
   </si>
   <si>
     <t>University of Liverpool</t>
   </si>
   <si>
-    <t>University of Glasgow</t>
-  </si>
-  <si>
     <t>University of Bath</t>
   </si>
   <si>
     <t>University of Dundee</t>
   </si>
   <si>
+    <t>Cardiff University</t>
+  </si>
+  <si>
     <t>University of Leicester</t>
   </si>
   <si>
-    <t>Cardiff University</t>
+    <t>University of Sussex</t>
+  </si>
+  <si>
+    <t>University of Huddersfield</t>
   </si>
   <si>
     <t>University of Plymouth</t>
   </si>
   <si>
-    <t>University of Sussex</t>
-  </si>
-  <si>
-    <t>University of Huddersfield</t>
-  </si>
-  <si>
     <t>University of Strathclyde</t>
   </si>
   <si>
+    <t>Royal Holloway, University of London</t>
+  </si>
+  <si>
     <t>City University London</t>
   </si>
   <si>
+    <t>University of Kent</t>
+  </si>
+  <si>
     <t>De Montfort University</t>
   </si>
   <si>
-    <t>Royal Holloway, University of London</t>
-  </si>
-  <si>
-    <t>University of Kent</t>
-  </si>
-  <si>
     <t>School of Pharmacy</t>
   </si>
   <si>
@@ -172,111 +175,111 @@
     <t>University of Exeter</t>
   </si>
   <si>
+    <t>Open University</t>
+  </si>
+  <si>
     <t>University of Central Lancashire</t>
   </si>
   <si>
-    <t>Open University</t>
+    <t>University of Brighton</t>
   </si>
   <si>
     <t>University of Bradford</t>
   </si>
   <si>
+    <t>Edinburgh Napier University</t>
+  </si>
+  <si>
+    <t>London School of Economics and Political Science (University of London)</t>
+  </si>
+  <si>
     <t>University of Portsmouth</t>
   </si>
   <si>
-    <t>London School of Economics and Political Science (University of London)</t>
-  </si>
-  <si>
-    <t>Edinburgh Napier University</t>
-  </si>
-  <si>
-    <t>University of Brighton</t>
-  </si>
-  <si>
     <t>University of Greenwich</t>
   </si>
   <si>
+    <t>Goldsmiths, University of London</t>
+  </si>
+  <si>
     <t>University of Lincoln</t>
   </si>
   <si>
     <t>Edinburgh College of Art (ECA)</t>
   </si>
   <si>
+    <t>Coventry University</t>
+  </si>
+  <si>
+    <t>University of Ulster</t>
+  </si>
+  <si>
     <t>Institute of Education</t>
   </si>
   <si>
-    <t>Goldsmiths, University of London</t>
-  </si>
-  <si>
-    <t>University of Ulster</t>
-  </si>
-  <si>
-    <t>Coventry University</t>
+    <t>Royal College of Art</t>
+  </si>
+  <si>
+    <t>Institute of Cancer Research UK (ICR)</t>
   </si>
   <si>
     <t>University of Northumbria</t>
   </si>
   <si>
+    <t>Sheffield Hallam University</t>
+  </si>
+  <si>
+    <t>University of the West of Scotland</t>
+  </si>
+  <si>
+    <t>Birkbeck College</t>
+  </si>
+  <si>
+    <t>University of Reading</t>
+  </si>
+  <si>
     <t>University of Hull</t>
   </si>
   <si>
-    <t>Royal College of Art</t>
-  </si>
-  <si>
-    <t>University of the West of Scotland</t>
-  </si>
-  <si>
-    <t>University of Reading</t>
-  </si>
-  <si>
-    <t>Birkbeck College</t>
-  </si>
-  <si>
     <t>University of East Anglia</t>
   </si>
   <si>
-    <t>Institute of Cancer Research UK (ICR)</t>
-  </si>
-  <si>
-    <t>Sheffield Hallam University</t>
+    <t>University of the West of England</t>
+  </si>
+  <si>
+    <t>Nottingham Trent University</t>
   </si>
   <si>
     <t>Birmingham City University</t>
   </si>
   <si>
+    <t>Oxford Brookes University</t>
+  </si>
+  <si>
+    <t>University of Stirling</t>
+  </si>
+  <si>
+    <t>Bangor University</t>
+  </si>
+  <si>
+    <t>University of Glamorgan</t>
+  </si>
+  <si>
+    <t>Teesside University</t>
+  </si>
+  <si>
+    <t>DIAMOND Light Source Ltd</t>
+  </si>
+  <si>
+    <t>University of Bedfordshire</t>
+  </si>
+  <si>
+    <t>University of Westminster</t>
+  </si>
+  <si>
     <t>University of the Arts London</t>
   </si>
   <si>
-    <t>University of Stirling</t>
-  </si>
-  <si>
-    <t>University of the West of England</t>
-  </si>
-  <si>
-    <t>Nottingham Trent University</t>
-  </si>
-  <si>
-    <t>Teesside University</t>
-  </si>
-  <si>
-    <t>Bangor University</t>
-  </si>
-  <si>
-    <t>University of Westminster</t>
-  </si>
-  <si>
-    <t>University of Bedfordshire</t>
-  </si>
-  <si>
-    <t>DIAMOND Light Source Ltd</t>
-  </si>
-  <si>
-    <t>University of Glamorgan</t>
-  </si>
-  <si>
-    <t>Oxford Brookes University</t>
-  </si>
-  <si>
     <t>rootdomains</t>
   </si>
   <si>
@@ -295,39 +298,39 @@
     <t>ccpforge.cse.rl.ac.uk</t>
   </si>
   <si>
+    <t>bitbucket.org</t>
+  </si>
+  <si>
     <t>ico2s.org</t>
   </si>
   <si>
-    <t>bitbucket.org</t>
-  </si>
-  <si>
     <t>code.google.com</t>
   </si>
   <si>
+    <t>sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.castep.org</t>
+  </si>
+  <si>
     <t>www.hecbiosim.ac.uk</t>
   </si>
   <si>
-    <t>sourceforge.net</t>
-  </si>
-  <si>
-    <t>www.castep.org</t>
-  </si>
-  <si>
     <t>www.tech.dmu.ac.uk</t>
   </si>
   <si>
+    <t>dx.doi.org</t>
+  </si>
+  <si>
+    <t>www.hsl.rl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.cs.ox.ac.uk</t>
+  </si>
+  <si>
     <t>depic.eecs.qmul.ac.uk</t>
   </si>
   <si>
-    <t>www.cs.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>dx.doi.org</t>
-  </si>
-  <si>
-    <t>www.hsl.rl.ac.uk</t>
-  </si>
-  <si>
     <t>itunes.apple.com</t>
   </si>
   <si>
@@ -337,1150 +340,1150 @@
     <t>www.nektar.info</t>
   </si>
   <si>
+    <t>staff.computing.dundee.ac.uk</t>
+  </si>
+  <si>
     <t>accelrys.com</t>
   </si>
   <si>
-    <t>staff.computing.dundee.ac.uk</t>
-  </si>
-  <si>
     <t>www-wales.ch.cam.ac.uk</t>
   </si>
   <si>
     <t>www.dnald.org</t>
   </si>
   <si>
+    <t>www2.warwick.ac.uk</t>
+  </si>
+  <si>
+    <t>sites.google.com</t>
+  </si>
+  <si>
+    <t>www.youtube.com</t>
+  </si>
+  <si>
     <t>srg.doc.ic.ac.uk</t>
   </si>
   <si>
-    <t>www2.warwick.ac.uk</t>
-  </si>
-  <si>
-    <t>www.youtube.com</t>
-  </si>
-  <si>
-    <t>sites.google.com</t>
+    <t>play.google.com</t>
+  </si>
+  <si>
+    <t>mi.eng.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>code.soundsoftware.ac.uk</t>
+  </si>
+  <si>
+    <t>www.taverna.org.uk</t>
   </si>
   <si>
     <t>www.sixthsensetransport.com</t>
   </si>
   <si>
-    <t>mi.eng.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>www.taverna.org.uk</t>
-  </si>
-  <si>
-    <t>code.soundsoftware.ac.uk</t>
-  </si>
-  <si>
-    <t>play.google.com</t>
-  </si>
-  <si>
     <t>gate.ac.uk</t>
   </si>
   <si>
+    <t>hridigital.shef.ac.uk</t>
+  </si>
+  <si>
+    <t>pypi.python.org</t>
+  </si>
+  <si>
+    <t>constraintmodelling.org</t>
+  </si>
+  <si>
+    <t>www.acousticsensing.co.uk</t>
+  </si>
+  <si>
     <t>www.prismmodelchecker.org</t>
   </si>
   <si>
+    <t>langsrv.astro.cf.ac.uk</t>
+  </si>
+  <si>
+    <t>www.cl.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>www.robots.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>vallico.net</t>
+  </si>
+  <si>
+    <t>greendoors.cs.bris.ac.uk</t>
+  </si>
+  <si>
     <t>spindynamics.org</t>
   </si>
   <si>
-    <t>www.acousticsensing.co.uk</t>
-  </si>
-  <si>
-    <t>www.cl.cam.ac.uk</t>
+    <t>www.cposs.org.uk</t>
   </si>
   <si>
     <t>homepages.cs.ncl.ac.uk</t>
   </si>
   <si>
-    <t>hridigital.shef.ac.uk</t>
-  </si>
-  <si>
-    <t>langsrv.astro.cf.ac.uk</t>
-  </si>
-  <si>
     <t>www.bruker.com</t>
   </si>
   <si>
     <t>www.siremol.org</t>
   </si>
   <si>
-    <t>www.cposs.org.uk</t>
-  </si>
-  <si>
-    <t>www.robots.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>vallico.net</t>
-  </si>
-  <si>
-    <t>pypi.python.org</t>
-  </si>
-  <si>
-    <t>greendoors.cs.bris.ac.uk</t>
-  </si>
-  <si>
-    <t>constraintmodelling.org</t>
+    <t>maptraits.wordpress.com</t>
+  </si>
+  <si>
+    <t>www.github.com</t>
   </si>
   <si>
     <t>hermit-reasoner.com</t>
   </si>
   <si>
+    <t>www.firedrakeproject.org</t>
+  </si>
+  <si>
+    <t>www-smartinfrastructure.eng.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>www.imperial.ac.uk</t>
+  </si>
+  <si>
     <t>www.csrf.ac.uk</t>
   </si>
   <si>
     <t>myexperiment.org</t>
   </si>
   <si>
+    <t>goo.gl</t>
+  </si>
+  <si>
+    <t>www.eecs.qmul.ac.uk</t>
+  </si>
+  <si>
+    <t>www.tom-ridge.com</t>
+  </si>
+  <si>
+    <t>cmic.cs.ucl.ac.uk</t>
+  </si>
+  <si>
     <t>statechum.sourceforge.net</t>
   </si>
   <si>
+    <t>pure.abdn.ac.uk:8080</t>
+  </si>
+  <si>
     <t>www-edc.eng.cam.ac.uk</t>
   </si>
   <si>
-    <t>www.firedrakeproject.org</t>
-  </si>
-  <si>
-    <t>pure.abdn.ac.uk:8080</t>
-  </si>
-  <si>
-    <t>cmic.cs.ucl.ac.uk</t>
+    <t>pele-python.github.io</t>
+  </si>
+  <si>
+    <t>www.cardiff.ac.uk</t>
+  </si>
+  <si>
+    <t>visual.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.shef.ac.uk</t>
+  </si>
+  <si>
+    <t>users.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>mloss.org</t>
+  </si>
+  <si>
+    <t>www0.cs.ucl.ac.uk</t>
   </si>
   <si>
     <t>www.cstr.ed.ac.uk</t>
   </si>
   <si>
-    <t>mloss.org</t>
-  </si>
-  <si>
-    <t>goo.gl</t>
-  </si>
-  <si>
-    <t>www.imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>maptraits.wordpress.com</t>
-  </si>
-  <si>
-    <t>www0.cs.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>visual.cs.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>www.github.com</t>
-  </si>
-  <si>
-    <t>pele-python.github.io</t>
-  </si>
-  <si>
-    <t>www.shef.ac.uk</t>
-  </si>
-  <si>
-    <t>www-smartinfrastructure.eng.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>www.cardiff.ac.uk</t>
-  </si>
-  <si>
-    <t>www.eecs.qmul.ac.uk</t>
+    <t>staff.cs.manchester.ac.uk</t>
   </si>
   <si>
     <t>www.abdn.ac.uk</t>
   </si>
   <si>
-    <t>users.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>www.tom-ridge.com</t>
-  </si>
-  <si>
     <t>www.gap-system.org</t>
   </si>
   <si>
-    <t>staff.cs.manchester.ac.uk</t>
+    <t>www.limitstate.com</t>
+  </si>
+  <si>
+    <t>eiis.co.uk</t>
+  </si>
+  <si>
+    <t>www.manageplaces.com</t>
+  </si>
+  <si>
+    <t>vprover.org</t>
+  </si>
+  <si>
+    <t>cmictig.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>gitlab.com</t>
+  </si>
+  <si>
+    <t>www.cs.swan.ac.uk</t>
+  </si>
+  <si>
+    <t>empslocal.ex.ac.uk</t>
+  </si>
+  <si>
+    <t>www.veritygos.org</t>
+  </si>
+  <si>
+    <t>cgi.csc.liv.ac.uk</t>
+  </si>
+  <si>
+    <t>qtfm.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.bempp.org</t>
+  </si>
+  <si>
+    <t>www.maths.dur.ac.uk</t>
+  </si>
+  <si>
+    <t>soft-dev.org</t>
+  </si>
+  <si>
+    <t>users.ecs.soton.ac.uk</t>
+  </si>
+  <si>
+    <t>link.springer.com</t>
+  </si>
+  <si>
+    <t>eprints.hud.ac.uk</t>
+  </si>
+  <si>
+    <t>www.onetep.org</t>
+  </si>
+  <si>
+    <t>www.ee.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>crcns.org</t>
+  </si>
+  <si>
+    <t>cruncher.ncl.ac.uk</t>
+  </si>
+  <si>
+    <t>www2.gre.ac.uk</t>
+  </si>
+  <si>
+    <t>homepages.warwick.ac.uk</t>
+  </si>
+  <si>
+    <t>www.esru.strath.ac.uk</t>
+  </si>
+  <si>
+    <t>www.menpo.org</t>
+  </si>
+  <si>
+    <t>bela.io</t>
+  </si>
+  <si>
+    <t>groups.physics.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>stir.sourceforge.net</t>
+  </si>
+  <si>
+    <t>powkist.abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>www.epcc.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>www.ccp5.ac.uk</t>
+  </si>
+  <si>
+    <t>hannahfry.co.uk</t>
+  </si>
+  <si>
+    <t>hts.sp.nitech.ac.jp</t>
+  </si>
+  <si>
+    <t>lat.inf.tu-dresden.de</t>
+  </si>
+  <si>
+    <t>www.essexgroup.soton.ac.uk</t>
+  </si>
+  <si>
+    <t>www.adsenv.com</t>
+  </si>
+  <si>
+    <t>www.ccpsas.org</t>
+  </si>
+  <si>
+    <t>lqstfm.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.galahad.rl.ac.uk</t>
+  </si>
+  <si>
+    <t>chaste.cs.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>193.61.148.237</t>
+  </si>
+  <si>
+    <t>vas.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>kidney.optimalmatching.com</t>
+  </si>
+  <si>
+    <t>browseraudit.com</t>
+  </si>
+  <si>
+    <t>www.cs.kent.ac.uk</t>
+  </si>
+  <si>
+    <t>www.edx.org</t>
+  </si>
+  <si>
+    <t>thesharcproject.wordpress.com</t>
+  </si>
+  <si>
+    <t>www.lboro.ac.uk</t>
+  </si>
+  <si>
+    <t>www.mettel-prover.org</t>
+  </si>
+  <si>
+    <t>journals.plos.org</t>
+  </si>
+  <si>
+    <t>gui-hdmr.de</t>
+  </si>
+  <si>
+    <t>www.scd.stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>www.csc.liv.ac.uk</t>
+  </si>
+  <si>
+    <t>www.click2go.umip.com</t>
+  </si>
+  <si>
+    <t>www.biopepa.org</t>
+  </si>
+  <si>
+    <t>www.louisaslett.com</t>
+  </si>
+  <si>
+    <t>hackage.haskell.org</t>
+  </si>
+  <si>
+    <t>www.openpermis.info</t>
+  </si>
+  <si>
+    <t>reaction-networks.net</t>
+  </si>
+  <si>
+    <t>www.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>www.sheffield.ac.uk</t>
+  </si>
+  <si>
+    <t>lsds.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>sleepful.me</t>
+  </si>
+  <si>
+    <t>www.ccpnc.ac.uk</t>
+  </si>
+  <si>
+    <t>savilerow.cs.st-andrews.ac.uk</t>
+  </si>
+  <si>
+    <t>www.confichair.org</t>
+  </si>
+  <si>
+    <t>www.lifemirror.org</t>
+  </si>
+  <si>
+    <t>www.dual.sphysics.org</t>
+  </si>
+  <si>
+    <t>directtrace.org</t>
+  </si>
+  <si>
+    <t>ssi-amrmmhd.epcc.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>www.mathworks.com</t>
+  </si>
+  <si>
+    <t>www.cs.bham.ac.uk</t>
+  </si>
+  <si>
+    <t>astro-informatics.github.io</t>
+  </si>
+  <si>
+    <t>www.dnvgl.com</t>
   </si>
   <si>
     <t>www.ndtatbristol.com</t>
   </si>
   <si>
-    <t>astro-informatics.github.io</t>
-  </si>
-  <si>
-    <t>www.csc.liv.ac.uk</t>
-  </si>
-  <si>
-    <t>homepages.warwick.ac.uk</t>
-  </si>
-  <si>
-    <t>www.limitstate.com</t>
-  </si>
-  <si>
-    <t>www.galahad.rl.ac.uk</t>
-  </si>
-  <si>
-    <t>empslocal.ex.ac.uk</t>
-  </si>
-  <si>
-    <t>lat.inf.tu-dresden.de</t>
-  </si>
-  <si>
-    <t>kidney.optimalmatching.com</t>
+    <t>www.comp.lancs.ac.uk</t>
+  </si>
+  <si>
+    <t>utopiadocs.com</t>
+  </si>
+  <si>
+    <t>catalystproject.co.uk</t>
   </si>
   <si>
     <t>www.aiai.ed.ac.uk</t>
   </si>
   <si>
-    <t>www.openpermis.info</t>
-  </si>
-  <si>
-    <t>www.louisaslett.com</t>
-  </si>
-  <si>
-    <t>www.epcc.ed.ac.uk</t>
-  </si>
-  <si>
-    <t>www.bempp.org</t>
-  </si>
-  <si>
-    <t>www.essexgroup.soton.ac.uk</t>
-  </si>
-  <si>
-    <t>browseraudit.com</t>
-  </si>
-  <si>
-    <t>reaction-networks.net</t>
-  </si>
-  <si>
-    <t>chaste.cs.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>www.confichair.org</t>
-  </si>
-  <si>
-    <t>www.maths.dur.ac.uk</t>
-  </si>
-  <si>
-    <t>www.ccpnc.ac.uk</t>
-  </si>
-  <si>
-    <t>www.lifemirror.org</t>
-  </si>
-  <si>
-    <t>bela.io</t>
-  </si>
-  <si>
-    <t>eiis.co.uk</t>
-  </si>
-  <si>
-    <t>journals.plos.org</t>
-  </si>
-  <si>
-    <t>www.click2go.umip.com</t>
-  </si>
-  <si>
-    <t>savilerow.cs.st-andrews.ac.uk</t>
-  </si>
-  <si>
-    <t>www.ee.ic.ac.uk</t>
-  </si>
-  <si>
-    <t>sleepful.me</t>
-  </si>
-  <si>
-    <t>www.mettel-prover.org</t>
-  </si>
-  <si>
-    <t>crcns.org</t>
-  </si>
-  <si>
-    <t>ssi-amrmmhd.epcc.ed.ac.uk</t>
-  </si>
-  <si>
-    <t>www.esru.strath.ac.uk</t>
-  </si>
-  <si>
-    <t>gui-hdmr.de</t>
-  </si>
-  <si>
-    <t>www.ccpsas.org</t>
-  </si>
-  <si>
-    <t>hts.sp.nitech.ac.jp</t>
-  </si>
-  <si>
-    <t>cgi.csc.liv.ac.uk</t>
-  </si>
-  <si>
-    <t>hannahfry.co.uk</t>
-  </si>
-  <si>
-    <t>www.cs.kent.ac.uk</t>
-  </si>
-  <si>
-    <t>www.dual.sphysics.org</t>
-  </si>
-  <si>
-    <t>www.mathworks.com</t>
-  </si>
-  <si>
-    <t>utopiadocs.com</t>
-  </si>
-  <si>
-    <t>www.edx.org</t>
-  </si>
-  <si>
-    <t>www.ccp5.ac.uk</t>
-  </si>
-  <si>
-    <t>gitlab.com</t>
-  </si>
-  <si>
-    <t>groups.physics.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>www.biopepa.org</t>
-  </si>
-  <si>
-    <t>www.comp.lancs.ac.uk</t>
-  </si>
-  <si>
-    <t>hackage.haskell.org</t>
-  </si>
-  <si>
-    <t>www.lboro.ac.uk</t>
-  </si>
-  <si>
-    <t>catalystproject.co.uk</t>
-  </si>
-  <si>
-    <t>www.veritygos.org</t>
-  </si>
-  <si>
     <t>www.comob.org.uk</t>
   </si>
   <si>
-    <t>cruncher.ncl.ac.uk</t>
-  </si>
-  <si>
-    <t>www.cs.swan.ac.uk</t>
-  </si>
-  <si>
-    <t>lqstfm.sourceforge.net</t>
-  </si>
-  <si>
-    <t>www2.gre.ac.uk</t>
-  </si>
-  <si>
-    <t>eprints.hud.ac.uk</t>
-  </si>
-  <si>
-    <t>thesharcproject.wordpress.com</t>
-  </si>
-  <si>
-    <t>www.dnvgl.com</t>
-  </si>
-  <si>
-    <t>link.springer.com</t>
-  </si>
-  <si>
-    <t>www.scd.stfc.ac.uk</t>
-  </si>
-  <si>
-    <t>193.61.148.237</t>
-  </si>
-  <si>
-    <t>qtfm.sourceforge.net</t>
-  </si>
-  <si>
-    <t>soft-dev.org</t>
-  </si>
-  <si>
-    <t>powkist.abdn.ac.uk</t>
-  </si>
-  <si>
-    <t>www.menpo.org</t>
-  </si>
-  <si>
-    <t>www.sheffield.ac.uk</t>
-  </si>
-  <si>
-    <t>www.adsenv.com</t>
-  </si>
-  <si>
-    <t>www.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>stir.sourceforge.net</t>
-  </si>
-  <si>
-    <t>lsds.doc.ic.ac.uk</t>
-  </si>
-  <si>
-    <t>www.manageplaces.com</t>
-  </si>
-  <si>
-    <t>www.onetep.org</t>
-  </si>
-  <si>
-    <t>vprover.org</t>
-  </si>
-  <si>
-    <t>vas.doc.ic.ac.uk</t>
-  </si>
-  <si>
-    <t>directtrace.org</t>
-  </si>
-  <si>
-    <t>users.ecs.soton.ac.uk</t>
-  </si>
-  <si>
-    <t>cmictig.cs.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>www.cs.bham.ac.uk</t>
+    <t>reality.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>www2.eng.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>www.birmingham.ac.uk</t>
+  </si>
+  <si>
+    <t>www.deft-whois.org</t>
+  </si>
+  <si>
+    <t>www.openpipeflow.org</t>
+  </si>
+  <si>
+    <t>cp2k.org</t>
+  </si>
+  <si>
+    <t>www.nltg.brighton.ac.uk</t>
+  </si>
+  <si>
+    <t>www.biral.com</t>
+  </si>
+  <si>
+    <t>www.arraymining.net</t>
+  </si>
+  <si>
+    <t>www.arg-tech.org</t>
+  </si>
+  <si>
+    <t>tulip.lenhardt.co.uk</t>
+  </si>
+  <si>
+    <t>theswo.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.cp2k.org</t>
+  </si>
+  <si>
+    <t>www.defensivejs.com</t>
+  </si>
+  <si>
+    <t>sentinet.abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>www.ccpbiosim.ac.uk</t>
+  </si>
+  <si>
+    <t>www.wikilinkify.com</t>
+  </si>
+  <si>
+    <t>www.warwick.ac.uk</t>
+  </si>
+  <si>
+    <t>www.bgs.ac.uk</t>
+  </si>
+  <si>
+    <t>haselofflab.github.io</t>
+  </si>
+  <si>
+    <t>bugseng.com</t>
+  </si>
+  <si>
+    <t>www2.tcm.phy.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>eavi.goldsmithsdigital.com</t>
+  </si>
+  <si>
+    <t>www.incompact3d.com</t>
+  </si>
+  <si>
+    <t>kahlan.eps.surrey.ac.uk</t>
+  </si>
+  <si>
+    <t>www.spass-prover.org</t>
+  </si>
+  <si>
+    <t>www.articulateinstruments.com</t>
+  </si>
+  <si>
+    <t>imagination.lancs.ac.uk</t>
+  </si>
+  <si>
+    <t>www.webcitation.org</t>
+  </si>
+  <si>
+    <t>app-movement.com</t>
+  </si>
+  <si>
+    <t>keyfort.co.uk</t>
+  </si>
+  <si>
+    <t>stchem.bham.ac.uk</t>
+  </si>
+  <si>
+    <t>www.agents.cs.nott.ac.uk</t>
+  </si>
+  <si>
+    <t>www.handyurbansolutions.com</t>
+  </si>
+  <si>
+    <t>line-solver.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.eclipse.org</t>
+  </si>
+  <si>
+    <t>eis.comp.lancs.ac.uk</t>
+  </si>
+  <si>
+    <t>www.procksi.org</t>
+  </si>
+  <si>
+    <t>talesofthings.com</t>
+  </si>
+  <si>
+    <t>www.solar.sheffield.ac.uk</t>
+  </si>
+  <si>
+    <t>www.hydraplatform.org</t>
+  </si>
+  <si>
+    <t>www.mad4nrg.org</t>
+  </si>
+  <si>
+    <t>www.lets-explore.com</t>
+  </si>
+  <si>
+    <t>emotionsense.org</t>
+  </si>
+  <si>
+    <t>r-forge.r-project.org</t>
+  </si>
+  <si>
+    <t>eecs.qmul.ac.uk</t>
+  </si>
+  <si>
+    <t>www.optados.org</t>
+  </si>
+  <si>
+    <t>workcraft.org</t>
+  </si>
+  <si>
+    <t>www.surrey.ac.uk</t>
+  </si>
+  <si>
+    <t>revizto.com</t>
+  </si>
+  <si>
+    <t>www.webasr.org</t>
+  </si>
+  <si>
+    <t>www.quantmedia.org</t>
+  </si>
+  <si>
+    <t>www.springsustainability.org</t>
+  </si>
+  <si>
+    <t>www.camino.org.uk</t>
+  </si>
+  <si>
+    <t>platform.carbonculture.net</t>
+  </si>
+  <si>
+    <t>www.homepages.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>biorefinerydesign.webs.com</t>
+  </si>
+  <si>
+    <t>www.ngenics.com</t>
+  </si>
+  <si>
+    <t>www.jqc.org.uk</t>
+  </si>
+  <si>
+    <t>www.flame.ac.uk</t>
+  </si>
+  <si>
+    <t>www.informatics.sussex.ac.uk</t>
+  </si>
+  <si>
+    <t>www.dwrc.surrey.ac.uk</t>
+  </si>
+  <si>
+    <t>www.scolan.eu</t>
+  </si>
+  <si>
+    <t>qub.ac.uk</t>
+  </si>
+  <si>
+    <t>www.justimed.com</t>
+  </si>
+  <si>
+    <t>www.ihs.com</t>
+  </si>
+  <si>
+    <t>ssmodels.sourceforge.net</t>
+  </si>
+  <si>
+    <t>VGeST.net</t>
+  </si>
+  <si>
+    <t>www.urban-futures.org</t>
+  </si>
+  <si>
+    <t>www.well-sorted.org</t>
+  </si>
+  <si>
+    <t>www.taxvis.org.uk</t>
+  </si>
+  <si>
+    <t>cowl.ws</t>
+  </si>
+  <si>
+    <t>ukclimateprojections.metoffice.gov.uk</t>
+  </si>
+  <si>
+    <t>cs.bham.ac.uk</t>
+  </si>
+  <si>
+    <t>gitlab.dune-project.org</t>
+  </si>
+  <si>
+    <t>digitalintermediarytoolkit.wordpress.com</t>
+  </si>
+  <si>
+    <t>www.macs.hw.ac.uk</t>
+  </si>
+  <si>
+    <t>oss.deltares.nl</t>
+  </si>
+  <si>
+    <t>cpc.cs.qub.ac.uk</t>
+  </si>
+  <si>
+    <t>nmag.soton.ac.uk</t>
+  </si>
+  <si>
+    <t>dna.physics.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>smartelectricity.io</t>
+  </si>
+  <si>
+    <t>rmox.net</t>
+  </si>
+  <si>
+    <t>www.openbsd.org</t>
+  </si>
+  <si>
+    <t>139.133.232.16</t>
+  </si>
+  <si>
+    <t>www.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>www.adaptivearchitectureframework.org</t>
+  </si>
+  <si>
+    <t>texgen.sourceforge.net</t>
+  </si>
+  <si>
+    <t>cohse.cs.manchester.ac.uk</t>
+  </si>
+  <si>
+    <t>htk.eng.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>utopia.cs.man.ac.uk</t>
+  </si>
+  <si>
+    <t>www.phon.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>kurlin.org</t>
+  </si>
+  <si>
+    <t>doc.gold.ac.uk</t>
+  </si>
+  <si>
+    <t>dynamomd.org</t>
+  </si>
+  <si>
+    <t>tinyurl.com</t>
+  </si>
+  <si>
+    <t>urbanfloodmodel.wordpress.com</t>
+  </si>
+  <si>
+    <t>www.software.ac.uk</t>
+  </si>
+  <si>
+    <t>easy-m.io</t>
+  </si>
+  <si>
+    <t>vallico.new</t>
+  </si>
+  <si>
+    <t>www.coin-or.org</t>
+  </si>
+  <si>
+    <t>easyhg.org</t>
+  </si>
+  <si>
+    <t>www.ccalc.org.uk</t>
+  </si>
+  <si>
+    <t>www.xtl.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>dylan.sf.net</t>
+  </si>
+  <si>
+    <t>shelflife.oxfam.org.uk</t>
+  </si>
+  <si>
+    <t>www.researchperspectives.org</t>
+  </si>
+  <si>
+    <t>www.erg.abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>www.cs.man.ac.uk</t>
+  </si>
+  <si>
+    <t>theory.cm.utexas.edu</t>
+  </si>
+  <si>
+    <t>www.bath.ac.uk</t>
+  </si>
+  <si>
+    <t>orchidproject.github.io</t>
+  </si>
+  <si>
+    <t>dolfin-adjoint.org</t>
+  </si>
+  <si>
+    <t>www.numerical.rl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.smarthomeframework.ecs.soton.ac.uk</t>
+  </si>
+  <si>
+    <t>jmlr.csail.mit.edu</t>
+  </si>
+  <si>
+    <t>creativenet.nottingham.ac.uk</t>
+  </si>
+  <si>
+    <t>emboeditor.herokuapp.com</t>
+  </si>
+  <si>
+    <t>groups.inf.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>watchitmade.org</t>
+  </si>
+  <si>
+    <t>chrome.google.com</t>
+  </si>
+  <si>
+    <t>quantomatic.github.io</t>
+  </si>
+  <si>
+    <t>cshore.cs.rhul.ac.uk</t>
+  </si>
+  <si>
+    <t>homepages.abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>lucmoreau.github.io</t>
+  </si>
+  <si>
+    <t>www.evosuite.org</t>
+  </si>
+  <si>
+    <t>www.tractor-mri.org.uk</t>
+  </si>
+  <si>
+    <t>www.mehrdadya.com</t>
+  </si>
+  <si>
+    <t>prosecco.gforge.inria.fr</t>
+  </si>
+  <si>
+    <t>www.healthymindapp.org</t>
+  </si>
+  <si>
+    <t>datadryad.org</t>
+  </si>
+  <si>
+    <t>switchoff.nus.org.uk</t>
+  </si>
+  <si>
+    <t>hive.chem.ucl.ac.uk:8080</t>
+  </si>
+  <si>
+    <t>www.maths.sussex.ac.uk</t>
+  </si>
+  <si>
+    <t>varoudis.github.io</t>
+  </si>
+  <si>
+    <t>syrris.com</t>
+  </si>
+  <si>
+    <t>workspace.imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>thespace.org</t>
+  </si>
+  <si>
+    <t>llama.leeds.ac.uk</t>
+  </si>
+  <si>
+    <t>www.motorship.com</t>
+  </si>
+  <si>
+    <t>www.biospi.org</t>
+  </si>
+  <si>
+    <t>page.mi.fu-berlin.de</t>
+  </si>
+  <si>
+    <t>gvgai.net</t>
+  </si>
+  <si>
+    <t>www.digitalprosumer.co.uk</t>
+  </si>
+  <si>
+    <t>bimpa.group.shef.ac.uk</t>
+  </si>
+  <si>
+    <t>gadgetron.github.io</t>
+  </si>
+  <si>
+    <t>www.n8equipment.prg.uk</t>
+  </si>
+  <si>
+    <t>jssec.net</t>
+  </si>
+  <si>
+    <t>www.hud.ac.uk</t>
+  </si>
+  <si>
+    <t>safecap.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.seek4science.org</t>
+  </si>
+  <si>
+    <t>www.dune-project.org</t>
+  </si>
+  <si>
+    <t>youtu.be</t>
+  </si>
+  <si>
+    <t>niftysim.sourceforge.net</t>
+  </si>
+  <si>
+    <t>openaccess.city.ac.uk</t>
+  </si>
+  <si>
+    <t>www.bioconductor.org</t>
+  </si>
+  <si>
+    <t>hdrvdp.sourceforge.net</t>
+  </si>
+  <si>
+    <t>opus.bath.ac.uk</t>
+  </si>
+  <si>
+    <t>livemusiclab.eecs.qmul.ac.uk</t>
+  </si>
+  <si>
+    <t>www.cs.bris.ac.uk</t>
+  </si>
+  <si>
+    <t>muxviz.net</t>
+  </si>
+  <si>
+    <t>www.isophonics.net</t>
   </si>
   <si>
     <t>users.rsise.anu.edu.au</t>
   </si>
   <si>
+    <t>www.bristol.ac.uk</t>
+  </si>
+  <si>
+    <t>multicore.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>creators.woodworks.org.uk</t>
+  </si>
+  <si>
+    <t>ova.arg-tech.org</t>
+  </si>
+  <si>
+    <t>ourbigportrait.com</t>
+  </si>
+  <si>
+    <t>www.gridcarbon.uk</t>
+  </si>
+  <si>
+    <t>www.responsible-innovation.org.uk</t>
+  </si>
+  <si>
+    <t>Vgest.net</t>
+  </si>
+  <si>
+    <t>extasy-project.org</t>
+  </si>
+  <si>
+    <t>zoonproject.wordpress.com</t>
+  </si>
+  <si>
+    <t>blog.debroglie.net</t>
+  </si>
+  <si>
+    <t>www.arcc-network.org.uk</t>
+  </si>
+  <si>
+    <t>eprints.soton.ac.uk</t>
+  </si>
+  <si>
+    <t>www.esciencecentral.co.uk</t>
+  </si>
+  <si>
+    <t>mriphysics.github.io</t>
+  </si>
+  <si>
+    <t>www.york.ac.uk</t>
+  </si>
+  <si>
+    <t>reflect-esm-dev.lancs.ac.uk</t>
+  </si>
+  <si>
+    <t>netlab.dcs.gla.ac.uk</t>
+  </si>
+  <si>
+    <t>www.mendeley.com</t>
+  </si>
+  <si>
+    <t>onlinelibrary.wiley.com</t>
+  </si>
+  <si>
+    <t>www.walkingthroughtime.co.uk</t>
+  </si>
+  <si>
+    <t>comp.chem.nottingham.ac.uk</t>
+  </si>
+  <si>
+    <t>myhealthavatar.org</t>
+  </si>
+  <si>
+    <t>www.sadie-project.co.uk</t>
+  </si>
+  <si>
+    <t>fullscaledynamics.com</t>
+  </si>
+  <si>
+    <t>sure-infrastructure.leeds.ac.uk</t>
+  </si>
+  <si>
+    <t>www.doc.gold.ac.uk</t>
+  </si>
+  <si>
+    <t>www.pureintrawise.org</t>
+  </si>
+  <si>
+    <t>fowlercorpora.readthedocs.org</t>
+  </si>
+  <si>
+    <t>www.bluegreencities.ac.uk</t>
+  </si>
+  <si>
+    <t>www.bone-finder.com</t>
+  </si>
+  <si>
+    <t>www.domeproject.org.uk</t>
+  </si>
+  <si>
+    <t>www.labtrove.org</t>
+  </si>
+  <si>
     <t>www.qappsonline.com</t>
   </si>
   <si>
-    <t>www.optados.org</t>
-  </si>
-  <si>
-    <t>theory.cm.utexas.edu</t>
-  </si>
-  <si>
-    <t>netlab.dcs.gla.ac.uk</t>
-  </si>
-  <si>
-    <t>muxviz.net</t>
-  </si>
-  <si>
-    <t>creativenet.nottingham.ac.uk</t>
+    <t>www.brighton.ac.uk</t>
+  </si>
+  <si>
+    <t>crowdcrafting.org</t>
+  </si>
+  <si>
+    <t>www.ncl.ac.uk</t>
+  </si>
+  <si>
+    <t>copperdroid.isg.rhul.ac.uk</t>
+  </si>
+  <si>
+    <t>www.opendesk.cc</t>
+  </si>
+  <si>
+    <t>business.liftshare.com</t>
+  </si>
+  <si>
+    <t>ritweb.cloudapp.net:8080</t>
+  </si>
+  <si>
+    <t>www.oerc.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>www.stats.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>www.gowsb.com</t>
+  </si>
+  <si>
+    <t>www.w3.org</t>
+  </si>
+  <si>
+    <t>researchobject.org</t>
+  </si>
+  <si>
+    <t>epistruct.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.smart-ebikes.com</t>
+  </si>
+  <si>
+    <t>designaday.fairphone-open.com</t>
+  </si>
+  <si>
+    <t>www.k-wave.org</t>
+  </si>
+  <si>
+    <t>www.gaussianprocess.org</t>
+  </si>
+  <si>
+    <t>phpsemantics.org</t>
+  </si>
+  <si>
+    <t>staff.aist.go.jp</t>
+  </si>
+  <si>
+    <t>netwiki.amath.unc.edu</t>
+  </si>
+  <si>
+    <t>www.enrichnet.org</t>
+  </si>
+  <si>
+    <t>web4.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.designingourtomorrow.com</t>
+  </si>
+  <si>
+    <t>www.commnet.ac.uk</t>
+  </si>
+  <si>
+    <t>www.sciencedaily.com</t>
+  </si>
+  <si>
+    <t>www.seniorscycle.co.uk</t>
   </si>
   <si>
     <t>simpleware.com</t>
   </si>
   <si>
-    <t>bugseng.com</t>
-  </si>
-  <si>
-    <t>reflect-esm-dev.lancs.ac.uk</t>
-  </si>
-  <si>
-    <t>researchobject.org</t>
-  </si>
-  <si>
-    <t>www.webasr.org</t>
-  </si>
-  <si>
-    <t>www.designingourtomorrow.com</t>
-  </si>
-  <si>
-    <t>prosecco.gforge.inria.fr</t>
-  </si>
-  <si>
-    <t>www.openbsd.org</t>
-  </si>
-  <si>
-    <t>www.bath.ac.uk</t>
-  </si>
-  <si>
-    <t>emotionsense.org</t>
-  </si>
-  <si>
-    <t>www.coin-or.org</t>
-  </si>
-  <si>
-    <t>dolfin-adjoint.org</t>
-  </si>
-  <si>
-    <t>switchoff.nus.org.uk</t>
-  </si>
-  <si>
-    <t>llama.leeds.ac.uk</t>
+    <t>smtcomp.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.scc.lancs.ac.uk</t>
+  </si>
+  <si>
+    <t>www.hpc-diversity.ac.uk</t>
+  </si>
+  <si>
+    <t>op2.github.io</t>
+  </si>
+  <si>
+    <t>www.tntgo.org</t>
+  </si>
+  <si>
+    <t>wanderanywhere.com</t>
+  </si>
+  <si>
+    <t>www.jstarverifier.org</t>
+  </si>
+  <si>
+    <t>elk.sourceforge.net</t>
   </si>
   <si>
     <t>projectglobalview.blogspot.co.uk</t>
   </si>
   <si>
-    <t>www.oerc.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>ukclimateprojections.metoffice.gov.uk</t>
-  </si>
-  <si>
-    <t>gitlab.dune-project.org</t>
-  </si>
-  <si>
-    <t>reality.cs.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>talesofthings.com</t>
-  </si>
-  <si>
-    <t>www.flame.ac.uk</t>
-  </si>
-  <si>
-    <t>youtu.be</t>
-  </si>
-  <si>
-    <t>www.gaussianprocess.org</t>
-  </si>
-  <si>
-    <t>www.eclipse.org</t>
-  </si>
-  <si>
-    <t>www.researchperspectives.org</t>
-  </si>
-  <si>
-    <t>workcraft.org</t>
-  </si>
-  <si>
-    <t>www.evosuite.org</t>
-  </si>
-  <si>
-    <t>page.mi.fu-berlin.de</t>
-  </si>
-  <si>
-    <t>www.healthymindapp.org</t>
-  </si>
-  <si>
-    <t>www.hud.ac.uk</t>
-  </si>
-  <si>
-    <t>extasy-project.org</t>
-  </si>
-  <si>
-    <t>www.enrichnet.org</t>
-  </si>
-  <si>
-    <t>crowdcrafting.org</t>
-  </si>
-  <si>
-    <t>datadryad.org</t>
-  </si>
-  <si>
-    <t>www.smarthomeframework.ecs.soton.ac.uk</t>
-  </si>
-  <si>
-    <t>www2.eng.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>eavi.goldsmithsdigital.com</t>
-  </si>
-  <si>
-    <t>cp2k.org</t>
-  </si>
-  <si>
-    <t>qub.ac.uk</t>
-  </si>
-  <si>
-    <t>www.dwrc.surrey.ac.uk</t>
-  </si>
-  <si>
-    <t>www.walkingthroughtime.co.uk</t>
-  </si>
-  <si>
-    <t>revizto.com</t>
-  </si>
-  <si>
-    <t>www.spass-prover.org</t>
-  </si>
-  <si>
-    <t>hdrvdp.sourceforge.net</t>
-  </si>
-  <si>
-    <t>www.handyurbansolutions.com</t>
-  </si>
-  <si>
-    <t>www.ngenics.com</t>
-  </si>
-  <si>
-    <t>www.justimed.com</t>
-  </si>
-  <si>
-    <t>myhealthavatar.org</t>
-  </si>
-  <si>
-    <t>lucmoreau.github.io</t>
-  </si>
-  <si>
-    <t>www.mendeley.com</t>
-  </si>
-  <si>
-    <t>www.sadie-project.co.uk</t>
-  </si>
-  <si>
-    <t>www.procksi.org</t>
-  </si>
-  <si>
-    <t>www.lets-explore.com</t>
-  </si>
-  <si>
-    <t>www.bluegreencities.ac.uk</t>
-  </si>
-  <si>
-    <t>www2.tcm.phy.cam.ac.uk</t>
+    <t>www.footmiles.org</t>
   </si>
   <si>
     <t>www.hande.org.uk</t>
   </si>
   <si>
-    <t>www.commnet.ac.uk</t>
-  </si>
-  <si>
-    <t>workspace.imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>www.dune-project.org</t>
-  </si>
-  <si>
-    <t>app-movement.com</t>
-  </si>
-  <si>
-    <t>kurlin.org</t>
-  </si>
-  <si>
-    <t>cs.bham.ac.uk</t>
-  </si>
-  <si>
-    <t>www.sciencedaily.com</t>
-  </si>
-  <si>
-    <t>staff.aist.go.jp</t>
-  </si>
-  <si>
-    <t>elk.sourceforge.net</t>
-  </si>
-  <si>
-    <t>nmag.soton.ac.uk</t>
-  </si>
-  <si>
-    <t>dylan.sf.net</t>
-  </si>
-  <si>
-    <t>copperdroid.isg.rhul.ac.uk</t>
-  </si>
-  <si>
-    <t>www.bioconductor.org</t>
-  </si>
-  <si>
-    <t>www.bone-finder.com</t>
-  </si>
-  <si>
-    <t>www.scolan.eu</t>
-  </si>
-  <si>
-    <t>www.isophonics.net</t>
-  </si>
-  <si>
-    <t>oss.deltares.nl</t>
-  </si>
-  <si>
-    <t>designaday.fairphone-open.com</t>
-  </si>
-  <si>
-    <t>hive.chem.ucl.ac.uk:8080</t>
-  </si>
-  <si>
-    <t>htk.eng.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>utopia.cs.man.ac.uk</t>
-  </si>
-  <si>
-    <t>www.motorship.com</t>
-  </si>
-  <si>
-    <t>dynamomd.org</t>
-  </si>
-  <si>
-    <t>www.brighton.ac.uk</t>
-  </si>
-  <si>
-    <t>www.n8equipment.prg.uk</t>
-  </si>
-  <si>
-    <t>kahlan.eps.surrey.ac.uk</t>
-  </si>
-  <si>
-    <t>www.footmiles.org</t>
-  </si>
-  <si>
-    <t>smtcomp.sourceforge.net</t>
-  </si>
-  <si>
-    <t>livemusiclab.eecs.qmul.ac.uk</t>
-  </si>
-  <si>
-    <t>texgen.sourceforge.net</t>
-  </si>
-  <si>
-    <t>www.esciencecentral.co.uk</t>
-  </si>
-  <si>
-    <t>ritweb.cloudapp.net:8080</t>
-  </si>
-  <si>
-    <t>gvgai.net</t>
-  </si>
-  <si>
-    <t>www.nltg.brighton.ac.uk</t>
-  </si>
-  <si>
-    <t>www.domeproject.org.uk</t>
-  </si>
-  <si>
-    <t>jmlr.csail.mit.edu</t>
-  </si>
-  <si>
-    <t>www.arcc-network.org.uk</t>
-  </si>
-  <si>
-    <t>quantomatic.github.io</t>
-  </si>
-  <si>
-    <t>www.camino.org.uk</t>
-  </si>
-  <si>
-    <t>easy-m.io</t>
-  </si>
-  <si>
-    <t>www.software.ac.uk</t>
-  </si>
-  <si>
-    <t>www.articulateinstruments.com</t>
-  </si>
-  <si>
-    <t>www.xtl.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>www.numerical.rl.ac.uk</t>
-  </si>
-  <si>
-    <t>www.ccalc.org.uk</t>
-  </si>
-  <si>
-    <t>sentinet.abdn.ac.uk</t>
-  </si>
-  <si>
-    <t>www.gridcarbon.uk</t>
-  </si>
-  <si>
-    <t>op2.github.io</t>
-  </si>
-  <si>
-    <t>www.mehrdadya.com</t>
-  </si>
-  <si>
-    <t>business.liftshare.com</t>
-  </si>
-  <si>
-    <t>www.hydraplatform.org</t>
-  </si>
-  <si>
-    <t>tinyurl.com</t>
-  </si>
-  <si>
-    <t>rmox.net</t>
-  </si>
-  <si>
-    <t>www.warwick.ac.uk</t>
-  </si>
-  <si>
-    <t>www.hpc-diversity.ac.uk</t>
-  </si>
-  <si>
-    <t>www.openpipeflow.org</t>
-  </si>
-  <si>
-    <t>www.webcitation.org</t>
-  </si>
-  <si>
-    <t>www.surrey.ac.uk</t>
-  </si>
-  <si>
-    <t>comp.chem.nottingham.ac.uk</t>
-  </si>
-  <si>
-    <t>www.wikilinkify.com</t>
-  </si>
-  <si>
-    <t>www.doc.gold.ac.uk</t>
-  </si>
-  <si>
-    <t>chrome.google.com</t>
-  </si>
-  <si>
-    <t>VGeST.net</t>
-  </si>
-  <si>
-    <t>fullscaledynamics.com</t>
-  </si>
-  <si>
-    <t>www.jstarverifier.org</t>
-  </si>
-  <si>
-    <t>jssec.net</t>
-  </si>
-  <si>
-    <t>tulip.lenhardt.co.uk</t>
-  </si>
-  <si>
-    <t>groups.inf.ed.ac.uk</t>
-  </si>
-  <si>
-    <t>cshore.cs.rhul.ac.uk</t>
-  </si>
-  <si>
-    <t>www.york.ac.uk</t>
-  </si>
-  <si>
-    <t>www.labtrove.org</t>
-  </si>
-  <si>
-    <t>www.erg.abdn.ac.uk</t>
-  </si>
-  <si>
-    <t>www.deft-whois.org</t>
-  </si>
-  <si>
-    <t>thespace.org</t>
-  </si>
-  <si>
-    <t>www.w3.org</t>
-  </si>
-  <si>
-    <t>www.adaptivearchitectureframework.org</t>
-  </si>
-  <si>
-    <t>niftysim.sourceforge.net</t>
-  </si>
-  <si>
-    <t>creators.woodworks.org.uk</t>
-  </si>
-  <si>
-    <t>www.arg-tech.org</t>
-  </si>
-  <si>
-    <t>www.springsustainability.org</t>
-  </si>
-  <si>
-    <t>www.smart-ebikes.com</t>
-  </si>
-  <si>
-    <t>homepages.abdn.ac.uk</t>
-  </si>
-  <si>
-    <t>easyhg.org</t>
-  </si>
-  <si>
-    <t>web4.cs.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>fowlercorpora.readthedocs.org</t>
-  </si>
-  <si>
-    <t>syrris.com</t>
-  </si>
-  <si>
-    <t>netwiki.amath.unc.edu</t>
-  </si>
-  <si>
-    <t>onlinelibrary.wiley.com</t>
-  </si>
-  <si>
-    <t>openaccess.city.ac.uk</t>
-  </si>
-  <si>
-    <t>www.seniorscycle.co.uk</t>
-  </si>
-  <si>
-    <t>www.mad4nrg.org</t>
-  </si>
-  <si>
-    <t>multicore.doc.ic.ac.uk</t>
-  </si>
-  <si>
-    <t>shelflife.oxfam.org.uk</t>
-  </si>
-  <si>
-    <t>www.opendesk.cc</t>
-  </si>
-  <si>
-    <t>www.taxvis.org.uk</t>
-  </si>
-  <si>
-    <t>www.tntgo.org</t>
-  </si>
-  <si>
-    <t>opus.bath.ac.uk</t>
-  </si>
-  <si>
-    <t>www.jqc.org.uk</t>
-  </si>
-  <si>
-    <t>www.bristol.ac.uk</t>
-  </si>
-  <si>
-    <t>www.scc.lancs.ac.uk</t>
-  </si>
-  <si>
-    <t>gadgetron.github.io</t>
-  </si>
-  <si>
-    <t>www.ncl.ac.uk</t>
-  </si>
-  <si>
-    <t>www.cp2k.org</t>
-  </si>
-  <si>
-    <t>www.tractor-mri.org.uk</t>
-  </si>
-  <si>
-    <t>www.urban-futures.org</t>
-  </si>
-  <si>
-    <t>ssmodels.sourceforge.net</t>
-  </si>
-  <si>
-    <t>emboeditor.herokuapp.com</t>
-  </si>
-  <si>
-    <t>biorefinerydesign.webs.com</t>
-  </si>
-  <si>
-    <t>www.digitalprosumer.co.uk</t>
-  </si>
-  <si>
-    <t>www.stats.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>mriphysics.github.io</t>
-  </si>
-  <si>
-    <t>bimpa.group.shef.ac.uk</t>
-  </si>
-  <si>
-    <t>safecap.sourceforge.net</t>
-  </si>
-  <si>
-    <t>theswo.sourceforge.net</t>
-  </si>
-  <si>
-    <t>eecs.qmul.ac.uk</t>
-  </si>
-  <si>
-    <t>www.informatics.sussex.ac.uk</t>
-  </si>
-  <si>
-    <t>www.maths.sussex.ac.uk</t>
-  </si>
-  <si>
-    <t>line-solver.sourceforge.net</t>
-  </si>
-  <si>
-    <t>watchitmade.org</t>
-  </si>
-  <si>
-    <t>www.cs.man.ac.uk</t>
-  </si>
-  <si>
-    <t>keyfort.co.uk</t>
-  </si>
-  <si>
-    <t>www.defensivejs.com</t>
-  </si>
-  <si>
-    <t>www.k-wave.org</t>
-  </si>
-  <si>
-    <t>eprints.soton.ac.uk</t>
-  </si>
-  <si>
-    <t>doc.gold.ac.uk</t>
-  </si>
-  <si>
-    <t>digitalintermediarytoolkit.wordpress.com</t>
-  </si>
-  <si>
-    <t>eis.comp.lancs.ac.uk</t>
-  </si>
-  <si>
-    <t>blog.debroglie.net</t>
-  </si>
-  <si>
-    <t>haselofflab.github.io</t>
-  </si>
-  <si>
-    <t>orchidproject.github.io</t>
-  </si>
-  <si>
-    <t>cpc.cs.qub.ac.uk</t>
-  </si>
-  <si>
-    <t>Vgest.net</t>
-  </si>
-  <si>
-    <t>www.gowsb.com</t>
-  </si>
-  <si>
-    <t>epistruct.sourceforge.net</t>
-  </si>
-  <si>
-    <t>phpsemantics.org</t>
-  </si>
-  <si>
-    <t>cowl.ws</t>
-  </si>
-  <si>
-    <t>r-forge.r-project.org</t>
-  </si>
-  <si>
-    <t>www.well-sorted.org</t>
-  </si>
-  <si>
-    <t>ourbigportrait.com</t>
-  </si>
-  <si>
-    <t>www.ccpbiosim.ac.uk</t>
-  </si>
-  <si>
-    <t>www.responsible-innovation.org.uk</t>
-  </si>
-  <si>
-    <t>www.bgs.ac.uk</t>
-  </si>
-  <si>
-    <t>www.arraymining.net</t>
-  </si>
-  <si>
-    <t>urbanfloodmodel.wordpress.com</t>
-  </si>
-  <si>
-    <t>www.biospi.org</t>
-  </si>
-  <si>
-    <t>ova.arg-tech.org</t>
-  </si>
-  <si>
-    <t>imagination.lancs.ac.uk</t>
-  </si>
-  <si>
-    <t>zoonproject.wordpress.com</t>
-  </si>
-  <si>
-    <t>www.ihs.com</t>
-  </si>
-  <si>
-    <t>smartelectricity.io</t>
-  </si>
-  <si>
-    <t>platform.carbonculture.net</t>
-  </si>
-  <si>
-    <t>cohse.cs.manchester.ac.uk</t>
-  </si>
-  <si>
-    <t>wanderanywhere.com</t>
-  </si>
-  <si>
-    <t>www.doc.ic.ac.uk</t>
-  </si>
-  <si>
-    <t>www.incompact3d.com</t>
-  </si>
-  <si>
-    <t>vallico.new</t>
-  </si>
-  <si>
-    <t>www.cs.bris.ac.uk</t>
-  </si>
-  <si>
-    <t>sure-infrastructure.leeds.ac.uk</t>
-  </si>
-  <si>
-    <t>stchem.bham.ac.uk</t>
-  </si>
-  <si>
-    <t>139.133.232.16</t>
-  </si>
-  <si>
-    <t>www.quantmedia.org</t>
-  </si>
-  <si>
-    <t>dna.physics.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>www.biral.com</t>
-  </si>
-  <si>
-    <t>www.homepages.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>www.macs.hw.ac.uk</t>
-  </si>
-  <si>
-    <t>varoudis.github.io</t>
-  </si>
-  <si>
-    <t>www.agents.cs.nott.ac.uk</t>
-  </si>
-  <si>
-    <t>www.phon.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>www.seek4science.org</t>
-  </si>
-  <si>
-    <t>www.birmingham.ac.uk</t>
-  </si>
-  <si>
-    <t>www.solar.sheffield.ac.uk</t>
-  </si>
-  <si>
-    <t>www.pureintrawise.org</t>
-  </si>
-  <si>
     <t>Year First Provided</t>
   </si>
   <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
     <t>2014</t>
   </si>
   <si>
     <t>2015</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
     <t>2016</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
   </si>
 </sst>
 </file>
@@ -1843,14 +1846,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s"/>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" t="n">
         <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>656</v>
@@ -1858,7 +1863,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>320</v>
@@ -1885,12 +1890,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -1898,7 +1903,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>135</v>
@@ -1906,7 +1911,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>101</v>
@@ -1914,7 +1919,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>77</v>
@@ -1922,7 +1927,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
         <v>76</v>
@@ -1930,7 +1935,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>75</v>
@@ -1938,7 +1943,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>63</v>
@@ -1946,7 +1951,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>60</v>
@@ -1954,7 +1959,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
         <v>60</v>
@@ -1962,7 +1967,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>57</v>
@@ -1970,7 +1975,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>46</v>
@@ -1978,7 +1983,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>43</v>
@@ -1986,7 +1991,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
         <v>42</v>
@@ -1994,7 +1999,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
         <v>39</v>
@@ -2002,7 +2007,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
         <v>38</v>
@@ -2010,7 +2015,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
         <v>38</v>
@@ -2018,7 +2023,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
         <v>37</v>
@@ -2026,7 +2031,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
         <v>26</v>
@@ -2034,7 +2039,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
         <v>23</v>
@@ -2042,7 +2047,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
         <v>23</v>
@@ -2050,7 +2055,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
         <v>22</v>
@@ -2058,7 +2063,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
         <v>22</v>
@@ -2066,7 +2071,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n">
         <v>21</v>
@@ -2074,7 +2079,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n">
         <v>19</v>
@@ -2082,7 +2087,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n">
         <v>19</v>
@@ -2090,7 +2095,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n">
         <v>18</v>
@@ -2098,7 +2103,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n">
         <v>18</v>
@@ -2106,7 +2111,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n">
         <v>17</v>
@@ -2114,7 +2119,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n">
         <v>15</v>
@@ -2122,7 +2127,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>15</v>
@@ -2130,7 +2135,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n">
         <v>14</v>
@@ -2138,7 +2143,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n">
         <v>14</v>
@@ -2146,7 +2151,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n">
         <v>14</v>
@@ -2154,7 +2159,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n">
         <v>13</v>
@@ -2162,7 +2167,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n">
         <v>10</v>
@@ -2170,7 +2175,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n">
         <v>10</v>
@@ -2178,7 +2183,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n">
         <v>9</v>
@@ -2186,7 +2191,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n">
         <v>9</v>
@@ -2194,7 +2199,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n">
         <v>9</v>
@@ -2202,7 +2207,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n">
         <v>8</v>
@@ -2210,7 +2215,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n">
         <v>7</v>
@@ -2218,7 +2223,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n">
         <v>7</v>
@@ -2226,7 +2231,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n">
         <v>7</v>
@@ -2234,7 +2239,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n">
         <v>7</v>
@@ -2242,7 +2247,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n">
         <v>6</v>
@@ -2250,7 +2255,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n">
         <v>6</v>
@@ -2258,7 +2263,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -2266,7 +2271,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n">
         <v>5</v>
@@ -2274,7 +2279,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n">
         <v>5</v>
@@ -2282,7 +2287,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n">
         <v>4</v>
@@ -2290,7 +2295,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n">
         <v>4</v>
@@ -2298,7 +2303,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n">
         <v>4</v>
@@ -2306,7 +2311,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n">
         <v>4</v>
@@ -2314,7 +2319,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n">
         <v>4</v>
@@ -2322,7 +2327,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n">
         <v>3</v>
@@ -2330,7 +2335,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n">
         <v>3</v>
@@ -2338,7 +2343,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n">
         <v>3</v>
@@ -2346,7 +2351,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n">
         <v>3</v>
@@ -2354,7 +2359,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n">
         <v>3</v>
@@ -2362,7 +2367,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n">
         <v>3</v>
@@ -2370,7 +2375,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n">
         <v>3</v>
@@ -2378,7 +2383,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n">
         <v>2</v>
@@ -2386,7 +2391,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n">
         <v>2</v>
@@ -2394,7 +2399,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n">
         <v>2</v>
@@ -2402,7 +2407,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n">
         <v>2</v>
@@ -2410,7 +2415,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n">
         <v>2</v>
@@ -2418,7 +2423,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n">
         <v>2</v>
@@ -2426,7 +2431,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n">
         <v>2</v>
@@ -2434,7 +2439,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n">
         <v>2</v>
@@ -2442,7 +2447,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n">
         <v>2</v>
@@ -2450,7 +2455,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -2458,7 +2463,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -2466,7 +2471,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -2474,7 +2479,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -2482,7 +2487,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -2490,7 +2495,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -2498,7 +2503,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -2506,7 +2511,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -2514,7 +2519,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -2522,7 +2527,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -2530,7 +2535,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -2538,7 +2543,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -2565,12 +2570,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" t="n">
         <v>165</v>
@@ -2578,7 +2583,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" t="n">
         <v>27</v>
@@ -2586,7 +2591,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" t="n">
         <v>25</v>
@@ -2594,7 +2599,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" t="n">
         <v>16</v>
@@ -2602,7 +2607,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" t="n">
         <v>14</v>
@@ -2610,7 +2615,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B7" t="n">
         <v>13</v>
@@ -2618,7 +2623,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="n">
         <v>13</v>
@@ -2626,7 +2631,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" t="n">
         <v>12</v>
@@ -2634,7 +2639,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B10" t="n">
         <v>11</v>
@@ -2642,7 +2647,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" t="n">
         <v>11</v>
@@ -2650,7 +2655,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" t="n">
         <v>11</v>
@@ -2658,7 +2663,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" t="n">
         <v>10</v>
@@ -2666,7 +2671,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" t="n">
         <v>9</v>
@@ -2674,7 +2679,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B15" t="n">
         <v>9</v>
@@ -2682,7 +2687,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" t="n">
         <v>9</v>
@@ -2690,7 +2695,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B17" t="n">
         <v>9</v>
@@ -2698,7 +2703,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B18" t="n">
         <v>9</v>
@@ -2706,7 +2711,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" t="n">
         <v>8</v>
@@ -2714,7 +2719,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B20" t="n">
         <v>8</v>
@@ -2722,7 +2727,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B21" t="n">
         <v>7</v>
@@ -2730,7 +2735,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" t="n">
         <v>7</v>
@@ -2738,7 +2743,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B23" t="n">
         <v>7</v>
@@ -2746,7 +2751,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B24" t="n">
         <v>6</v>
@@ -2754,7 +2759,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B25" t="n">
         <v>6</v>
@@ -2762,7 +2767,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B26" t="n">
         <v>6</v>
@@ -2770,7 +2775,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B27" t="n">
         <v>6</v>
@@ -2778,7 +2783,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B28" t="n">
         <v>6</v>
@@ -2786,7 +2791,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B29" t="n">
         <v>5</v>
@@ -2794,7 +2799,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B30" t="n">
         <v>5</v>
@@ -2802,7 +2807,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B31" t="n">
         <v>5</v>
@@ -2810,7 +2815,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B32" t="n">
         <v>5</v>
@@ -2818,7 +2823,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B33" t="n">
         <v>5</v>
@@ -2826,7 +2831,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B34" t="n">
         <v>5</v>
@@ -2834,7 +2839,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B35" t="n">
         <v>4</v>
@@ -2842,7 +2847,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B36" t="n">
         <v>4</v>
@@ -2850,7 +2855,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B37" t="n">
         <v>4</v>
@@ -2858,7 +2863,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B38" t="n">
         <v>4</v>
@@ -2866,7 +2871,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B39" t="n">
         <v>4</v>
@@ -2874,7 +2879,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B40" t="n">
         <v>4</v>
@@ -2882,7 +2887,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B41" t="n">
         <v>4</v>
@@ -2890,7 +2895,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B42" t="n">
         <v>4</v>
@@ -2898,7 +2903,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B43" t="n">
         <v>4</v>
@@ -2906,7 +2911,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B44" t="n">
         <v>4</v>
@@ -2914,7 +2919,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B45" t="n">
         <v>4</v>
@@ -2922,7 +2927,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B46" t="n">
         <v>4</v>
@@ -2930,7 +2935,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B47" t="n">
         <v>4</v>
@@ -2938,7 +2943,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B48" t="n">
         <v>4</v>
@@ -2946,7 +2951,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B49" t="n">
         <v>4</v>
@@ -2954,7 +2959,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B50" t="n">
         <v>3</v>
@@ -2962,7 +2967,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B51" t="n">
         <v>3</v>
@@ -2970,7 +2975,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B52" t="n">
         <v>3</v>
@@ -2978,7 +2983,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B53" t="n">
         <v>3</v>
@@ -2986,7 +2991,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B54" t="n">
         <v>3</v>
@@ -2994,7 +2999,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B55" t="n">
         <v>3</v>
@@ -3002,7 +3007,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B56" t="n">
         <v>3</v>
@@ -3010,7 +3015,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B57" t="n">
         <v>3</v>
@@ -3018,7 +3023,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B58" t="n">
         <v>3</v>
@@ -3026,7 +3031,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B59" t="n">
         <v>3</v>
@@ -3034,7 +3039,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B60" t="n">
         <v>3</v>
@@ -3042,7 +3047,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B61" t="n">
         <v>3</v>
@@ -3050,7 +3055,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B62" t="n">
         <v>3</v>
@@ -3058,7 +3063,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B63" t="n">
         <v>3</v>
@@ -3066,7 +3071,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B64" t="n">
         <v>3</v>
@@ -3074,7 +3079,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B65" t="n">
         <v>3</v>
@@ -3082,7 +3087,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B66" t="n">
         <v>3</v>
@@ -3090,7 +3095,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B67" t="n">
         <v>3</v>
@@ -3098,7 +3103,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B68" t="n">
         <v>3</v>
@@ -3106,7 +3111,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B69" t="n">
         <v>3</v>
@@ -3114,7 +3119,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B70" t="n">
         <v>3</v>
@@ -3122,7 +3127,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B71" t="n">
         <v>3</v>
@@ -3130,7 +3135,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B72" t="n">
         <v>3</v>
@@ -3138,7 +3143,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B73" t="n">
         <v>3</v>
@@ -3146,7 +3151,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B74" t="n">
         <v>3</v>
@@ -3154,7 +3159,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B75" t="n">
         <v>3</v>
@@ -3162,7 +3167,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B76" t="n">
         <v>2</v>
@@ -3170,7 +3175,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B77" t="n">
         <v>2</v>
@@ -3178,7 +3183,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B78" t="n">
         <v>2</v>
@@ -3186,7 +3191,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B79" t="n">
         <v>2</v>
@@ -3194,7 +3199,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B80" t="n">
         <v>2</v>
@@ -3202,7 +3207,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B81" t="n">
         <v>2</v>
@@ -3210,7 +3215,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B82" t="n">
         <v>2</v>
@@ -3218,7 +3223,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B83" t="n">
         <v>2</v>
@@ -3226,7 +3231,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B84" t="n">
         <v>2</v>
@@ -3234,7 +3239,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B85" t="n">
         <v>2</v>
@@ -3242,7 +3247,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B86" t="n">
         <v>2</v>
@@ -3250,7 +3255,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B87" t="n">
         <v>2</v>
@@ -3258,7 +3263,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B88" t="n">
         <v>2</v>
@@ -3266,7 +3271,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B89" t="n">
         <v>2</v>
@@ -3274,7 +3279,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B90" t="n">
         <v>2</v>
@@ -3282,7 +3287,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B91" t="n">
         <v>2</v>
@@ -3290,7 +3295,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B92" t="n">
         <v>2</v>
@@ -3298,7 +3303,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B93" t="n">
         <v>2</v>
@@ -3306,7 +3311,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B94" t="n">
         <v>2</v>
@@ -3314,7 +3319,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B95" t="n">
         <v>2</v>
@@ -3322,7 +3327,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B96" t="n">
         <v>2</v>
@@ -3330,7 +3335,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B97" t="n">
         <v>2</v>
@@ -3338,7 +3343,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B98" t="n">
         <v>2</v>
@@ -3346,7 +3351,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B99" t="n">
         <v>2</v>
@@ -3354,7 +3359,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B100" t="n">
         <v>2</v>
@@ -3362,7 +3367,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B101" t="n">
         <v>2</v>
@@ -3370,7 +3375,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B102" t="n">
         <v>2</v>
@@ -3378,7 +3383,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B103" t="n">
         <v>2</v>
@@ -3386,7 +3391,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B104" t="n">
         <v>2</v>
@@ -3394,7 +3399,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B105" t="n">
         <v>2</v>
@@ -3402,7 +3407,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B106" t="n">
         <v>2</v>
@@ -3410,7 +3415,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B107" t="n">
         <v>2</v>
@@ -3418,7 +3423,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B108" t="n">
         <v>2</v>
@@ -3426,7 +3431,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B109" t="n">
         <v>2</v>
@@ -3434,7 +3439,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B110" t="n">
         <v>2</v>
@@ -3442,7 +3447,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B111" t="n">
         <v>2</v>
@@ -3450,7 +3455,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B112" t="n">
         <v>2</v>
@@ -3458,7 +3463,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B113" t="n">
         <v>2</v>
@@ -3466,7 +3471,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B114" t="n">
         <v>2</v>
@@ -3474,7 +3479,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B115" t="n">
         <v>2</v>
@@ -3482,7 +3487,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B116" t="n">
         <v>2</v>
@@ -3490,7 +3495,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B117" t="n">
         <v>2</v>
@@ -3498,7 +3503,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B118" t="n">
         <v>2</v>
@@ -3506,7 +3511,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B119" t="n">
         <v>2</v>
@@ -3514,7 +3519,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B120" t="n">
         <v>2</v>
@@ -3522,7 +3527,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B121" t="n">
         <v>2</v>
@@ -3530,7 +3535,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B122" t="n">
         <v>2</v>
@@ -3538,7 +3543,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B123" t="n">
         <v>2</v>
@@ -3546,7 +3551,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B124" t="n">
         <v>2</v>
@@ -3554,7 +3559,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B125" t="n">
         <v>2</v>
@@ -3562,7 +3567,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B126" t="n">
         <v>2</v>
@@ -3570,7 +3575,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B127" t="n">
         <v>2</v>
@@ -3578,7 +3583,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B128" t="n">
         <v>2</v>
@@ -3586,7 +3591,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B129" t="n">
         <v>2</v>
@@ -3594,7 +3599,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B130" t="n">
         <v>2</v>
@@ -3602,7 +3607,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B131" t="n">
         <v>2</v>
@@ -3610,7 +3615,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B132" t="n">
         <v>2</v>
@@ -3618,7 +3623,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B133" t="n">
         <v>2</v>
@@ -3626,7 +3631,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B134" t="n">
         <v>2</v>
@@ -3634,7 +3639,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B135" t="n">
         <v>2</v>
@@ -3642,7 +3647,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B136" t="n">
         <v>2</v>
@@ -3650,7 +3655,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B137" t="n">
         <v>2</v>
@@ -3658,7 +3663,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B138" t="n">
         <v>2</v>
@@ -3666,7 +3671,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B139" t="n">
         <v>2</v>
@@ -3674,7 +3679,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B140" t="n">
         <v>2</v>
@@ -3682,7 +3687,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B141" t="n">
         <v>2</v>
@@ -3690,7 +3695,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B142" t="n">
         <v>2</v>
@@ -3698,7 +3703,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B143" t="n">
         <v>2</v>
@@ -3706,7 +3711,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B144" t="n">
         <v>2</v>
@@ -3714,7 +3719,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B145" t="n">
         <v>2</v>
@@ -3722,7 +3727,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B146" t="n">
         <v>2</v>
@@ -3730,7 +3735,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B147" t="n">
         <v>2</v>
@@ -3738,7 +3743,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B148" t="n">
         <v>2</v>
@@ -3746,7 +3751,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B149" t="n">
         <v>2</v>
@@ -3754,7 +3759,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B150" t="n">
         <v>2</v>
@@ -3762,7 +3767,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B151" t="n">
         <v>2</v>
@@ -3770,7 +3775,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B152" t="n">
         <v>2</v>
@@ -3778,7 +3783,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B153" t="n">
         <v>2</v>
@@ -3786,7 +3791,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B154" t="n">
         <v>2</v>
@@ -3794,7 +3799,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B155" t="n">
         <v>2</v>
@@ -3802,7 +3807,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -3810,7 +3815,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -3818,7 +3823,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -3826,7 +3831,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -3834,7 +3839,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -3842,7 +3847,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
@@ -3850,7 +3855,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -3858,7 +3863,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
@@ -3866,7 +3871,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
@@ -3874,7 +3879,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
@@ -3882,7 +3887,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -3890,7 +3895,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
@@ -3898,7 +3903,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
@@ -3906,7 +3911,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
@@ -3914,7 +3919,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
@@ -3922,7 +3927,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
@@ -3930,7 +3935,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -3938,7 +3943,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
@@ -3946,7 +3951,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
@@ -3954,7 +3959,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
@@ -3962,7 +3967,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -3970,7 +3975,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
@@ -3978,7 +3983,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
@@ -3986,7 +3991,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
@@ -3994,7 +3999,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -4002,7 +4007,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -4010,7 +4015,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -4018,7 +4023,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -4026,7 +4031,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -4034,7 +4039,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -4042,7 +4047,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
@@ -4050,7 +4055,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -4058,7 +4063,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -4066,7 +4071,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
@@ -4074,7 +4079,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
@@ -4082,7 +4087,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
@@ -4090,7 +4095,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -4098,7 +4103,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
@@ -4106,7 +4111,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -4114,7 +4119,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -4122,7 +4127,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -4130,7 +4135,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
@@ -4138,7 +4143,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
@@ -4146,7 +4151,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
@@ -4154,7 +4159,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
@@ -4162,7 +4167,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
@@ -4170,7 +4175,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
@@ -4178,7 +4183,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
@@ -4186,7 +4191,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B204" t="n">
         <v>1</v>
@@ -4194,7 +4199,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
@@ -4202,7 +4207,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
@@ -4210,7 +4215,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
@@ -4218,7 +4223,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
@@ -4226,7 +4231,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
@@ -4234,7 +4239,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -4242,7 +4247,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
@@ -4250,7 +4255,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
@@ -4258,7 +4263,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
@@ -4266,7 +4271,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B214" t="n">
         <v>1</v>
@@ -4274,7 +4279,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
@@ -4282,7 +4287,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
@@ -4290,7 +4295,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
@@ -4298,7 +4303,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -4306,7 +4311,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B219" t="n">
         <v>1</v>
@@ -4314,7 +4319,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B220" t="n">
         <v>1</v>
@@ -4322,7 +4327,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B221" t="n">
         <v>1</v>
@@ -4330,7 +4335,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B222" t="n">
         <v>1</v>
@@ -4338,7 +4343,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B223" t="n">
         <v>1</v>
@@ -4346,7 +4351,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B224" t="n">
         <v>1</v>
@@ -4354,7 +4359,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B225" t="n">
         <v>1</v>
@@ -4362,7 +4367,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B226" t="n">
         <v>1</v>
@@ -4370,7 +4375,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -4378,7 +4383,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B228" t="n">
         <v>1</v>
@@ -4386,7 +4391,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B229" t="n">
         <v>1</v>
@@ -4394,7 +4399,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B230" t="n">
         <v>1</v>
@@ -4402,7 +4407,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B231" t="n">
         <v>1</v>
@@ -4410,7 +4415,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
@@ -4418,7 +4423,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B233" t="n">
         <v>1</v>
@@ -4426,7 +4431,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B234" t="n">
         <v>1</v>
@@ -4434,7 +4439,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B235" t="n">
         <v>1</v>
@@ -4442,7 +4447,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B236" t="n">
         <v>1</v>
@@ -4450,7 +4455,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B237" t="n">
         <v>1</v>
@@ -4458,7 +4463,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B238" t="n">
         <v>1</v>
@@ -4466,7 +4471,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B239" t="n">
         <v>1</v>
@@ -4474,7 +4479,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B240" t="n">
         <v>1</v>
@@ -4482,7 +4487,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B241" t="n">
         <v>1</v>
@@ -4490,7 +4495,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B242" t="n">
         <v>1</v>
@@ -4498,7 +4503,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B243" t="n">
         <v>1</v>
@@ -4506,7 +4511,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B244" t="n">
         <v>1</v>
@@ -4514,7 +4519,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B245" t="n">
         <v>1</v>
@@ -4522,7 +4527,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B246" t="n">
         <v>1</v>
@@ -4530,7 +4535,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B247" t="n">
         <v>1</v>
@@ -4538,7 +4543,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B248" t="n">
         <v>1</v>
@@ -4546,7 +4551,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B249" t="n">
         <v>1</v>
@@ -4554,7 +4559,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B250" t="n">
         <v>1</v>
@@ -4562,7 +4567,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B251" t="n">
         <v>1</v>
@@ -4570,7 +4575,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B252" t="n">
         <v>1</v>
@@ -4578,7 +4583,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B253" t="n">
         <v>1</v>
@@ -4586,7 +4591,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B254" t="n">
         <v>1</v>
@@ -4594,7 +4599,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B255" t="n">
         <v>1</v>
@@ -4602,7 +4607,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B256" t="n">
         <v>1</v>
@@ -4610,7 +4615,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B257" t="n">
         <v>1</v>
@@ -4618,7 +4623,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B258" t="n">
         <v>1</v>
@@ -4626,7 +4631,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B259" t="n">
         <v>1</v>
@@ -4634,7 +4639,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B260" t="n">
         <v>1</v>
@@ -4642,7 +4647,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B261" t="n">
         <v>1</v>
@@ -4650,7 +4655,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B262" t="n">
         <v>1</v>
@@ -4658,7 +4663,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B263" t="n">
         <v>1</v>
@@ -4666,7 +4671,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B264" t="n">
         <v>1</v>
@@ -4674,7 +4679,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B265" t="n">
         <v>1</v>
@@ -4682,7 +4687,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B266" t="n">
         <v>1</v>
@@ -4690,7 +4695,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B267" t="n">
         <v>1</v>
@@ -4698,7 +4703,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B268" t="n">
         <v>1</v>
@@ -4706,7 +4711,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B269" t="n">
         <v>1</v>
@@ -4714,7 +4719,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B270" t="n">
         <v>1</v>
@@ -4722,7 +4727,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B271" t="n">
         <v>1</v>
@@ -4730,7 +4735,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B272" t="n">
         <v>1</v>
@@ -4738,7 +4743,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B273" t="n">
         <v>1</v>
@@ -4746,7 +4751,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B274" t="n">
         <v>1</v>
@@ -4754,7 +4759,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B275" t="n">
         <v>1</v>
@@ -4762,7 +4767,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B276" t="n">
         <v>1</v>
@@ -4770,7 +4775,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B277" t="n">
         <v>1</v>
@@ -4778,7 +4783,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B278" t="n">
         <v>1</v>
@@ -4786,7 +4791,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B279" t="n">
         <v>1</v>
@@ -4794,7 +4799,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B280" t="n">
         <v>1</v>
@@ -4802,7 +4807,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B281" t="n">
         <v>1</v>
@@ -4810,7 +4815,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B282" t="n">
         <v>1</v>
@@ -4818,7 +4823,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B283" t="n">
         <v>1</v>
@@ -4826,7 +4831,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B284" t="n">
         <v>1</v>
@@ -4834,7 +4839,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B285" t="n">
         <v>1</v>
@@ -4842,7 +4847,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B286" t="n">
         <v>1</v>
@@ -4850,7 +4855,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B287" t="n">
         <v>1</v>
@@ -4858,7 +4863,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B288" t="n">
         <v>1</v>
@@ -4866,7 +4871,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B289" t="n">
         <v>1</v>
@@ -4874,7 +4879,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B290" t="n">
         <v>1</v>
@@ -4882,7 +4887,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B291" t="n">
         <v>1</v>
@@ -4890,7 +4895,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B292" t="n">
         <v>1</v>
@@ -4898,7 +4903,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B293" t="n">
         <v>1</v>
@@ -4906,7 +4911,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B294" t="n">
         <v>1</v>
@@ -4914,7 +4919,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B295" t="n">
         <v>1</v>
@@ -4922,7 +4927,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B296" t="n">
         <v>1</v>
@@ -4930,7 +4935,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B297" t="n">
         <v>1</v>
@@ -4938,7 +4943,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B298" t="n">
         <v>1</v>
@@ -4946,7 +4951,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B299" t="n">
         <v>1</v>
@@ -4954,7 +4959,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B300" t="n">
         <v>1</v>
@@ -4962,7 +4967,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B301" t="n">
         <v>1</v>
@@ -4970,7 +4975,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B302" t="n">
         <v>1</v>
@@ -4978,7 +4983,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B303" t="n">
         <v>1</v>
@@ -4986,7 +4991,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B304" t="n">
         <v>1</v>
@@ -4994,7 +4999,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B305" t="n">
         <v>1</v>
@@ -5002,7 +5007,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B306" t="n">
         <v>1</v>
@@ -5010,7 +5015,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B307" t="n">
         <v>1</v>
@@ -5018,7 +5023,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B308" t="n">
         <v>1</v>
@@ -5026,7 +5031,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B309" t="n">
         <v>1</v>
@@ -5034,7 +5039,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B310" t="n">
         <v>1</v>
@@ -5042,7 +5047,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B311" t="n">
         <v>1</v>
@@ -5050,7 +5055,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B312" t="n">
         <v>1</v>
@@ -5058,7 +5063,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B313" t="n">
         <v>1</v>
@@ -5066,7 +5071,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B314" t="n">
         <v>1</v>
@@ -5074,7 +5079,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B315" t="n">
         <v>1</v>
@@ -5082,7 +5087,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B316" t="n">
         <v>1</v>
@@ -5090,7 +5095,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B317" t="n">
         <v>1</v>
@@ -5098,7 +5103,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B318" t="n">
         <v>1</v>
@@ -5106,7 +5111,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B319" t="n">
         <v>1</v>
@@ -5114,7 +5119,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B320" t="n">
         <v>1</v>
@@ -5122,7 +5127,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B321" t="n">
         <v>1</v>
@@ -5130,7 +5135,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B322" t="n">
         <v>1</v>
@@ -5138,7 +5143,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B323" t="n">
         <v>1</v>
@@ -5146,7 +5151,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B324" t="n">
         <v>1</v>
@@ -5154,7 +5159,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B325" t="n">
         <v>1</v>
@@ -5162,7 +5167,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B326" t="n">
         <v>1</v>
@@ -5170,7 +5175,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B327" t="n">
         <v>1</v>
@@ -5178,7 +5183,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B328" t="n">
         <v>1</v>
@@ -5186,7 +5191,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B329" t="n">
         <v>1</v>
@@ -5194,7 +5199,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B330" t="n">
         <v>1</v>
@@ -5202,7 +5207,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B331" t="n">
         <v>1</v>
@@ -5210,7 +5215,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B332" t="n">
         <v>1</v>
@@ -5218,7 +5223,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B333" t="n">
         <v>1</v>
@@ -5226,7 +5231,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B334" t="n">
         <v>1</v>
@@ -5234,7 +5239,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B335" t="n">
         <v>1</v>
@@ -5242,7 +5247,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B336" t="n">
         <v>1</v>
@@ -5250,7 +5255,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B337" t="n">
         <v>1</v>
@@ -5258,7 +5263,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B338" t="n">
         <v>1</v>
@@ -5266,7 +5271,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B339" t="n">
         <v>1</v>
@@ -5274,7 +5279,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B340" t="n">
         <v>1</v>
@@ -5282,7 +5287,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B341" t="n">
         <v>1</v>
@@ -5290,7 +5295,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B342" t="n">
         <v>1</v>
@@ -5298,7 +5303,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B343" t="n">
         <v>1</v>
@@ -5306,7 +5311,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B344" t="n">
         <v>1</v>
@@ -5314,7 +5319,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B345" t="n">
         <v>1</v>
@@ -5322,7 +5327,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B346" t="n">
         <v>1</v>
@@ -5330,7 +5335,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B347" t="n">
         <v>1</v>
@@ -5338,7 +5343,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B348" t="n">
         <v>1</v>
@@ -5346,7 +5351,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B349" t="n">
         <v>1</v>
@@ -5354,7 +5359,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B350" t="n">
         <v>1</v>
@@ -5362,7 +5367,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B351" t="n">
         <v>1</v>
@@ -5370,7 +5375,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B352" t="n">
         <v>1</v>
@@ -5378,7 +5383,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B353" t="n">
         <v>1</v>
@@ -5386,7 +5391,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B354" t="n">
         <v>1</v>
@@ -5394,7 +5399,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B355" t="n">
         <v>1</v>
@@ -5402,7 +5407,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B356" t="n">
         <v>1</v>
@@ -5410,7 +5415,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B357" t="n">
         <v>1</v>
@@ -5418,7 +5423,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B358" t="n">
         <v>1</v>
@@ -5426,7 +5431,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B359" t="n">
         <v>1</v>
@@ -5434,7 +5439,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B360" t="n">
         <v>1</v>
@@ -5442,7 +5447,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B361" t="n">
         <v>1</v>
@@ -5450,7 +5455,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B362" t="n">
         <v>1</v>
@@ -5458,7 +5463,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B363" t="n">
         <v>1</v>
@@ -5466,7 +5471,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B364" t="n">
         <v>1</v>
@@ -5474,7 +5479,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B365" t="n">
         <v>1</v>
@@ -5482,7 +5487,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B366" t="n">
         <v>1</v>
@@ -5490,7 +5495,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B367" t="n">
         <v>1</v>
@@ -5498,7 +5503,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B368" t="n">
         <v>1</v>
@@ -5506,7 +5511,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B369" t="n">
         <v>1</v>
@@ -5514,7 +5519,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B370" t="n">
         <v>1</v>
@@ -5522,7 +5527,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B371" t="n">
         <v>1</v>
@@ -5530,7 +5535,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B372" t="n">
         <v>1</v>
@@ -5538,7 +5543,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B373" t="n">
         <v>1</v>
@@ -5546,7 +5551,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B374" t="n">
         <v>1</v>
@@ -5554,7 +5559,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B375" t="n">
         <v>1</v>
@@ -5562,7 +5567,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B376" t="n">
         <v>1</v>
@@ -5570,7 +5575,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B377" t="n">
         <v>1</v>
@@ -5578,7 +5583,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B378" t="n">
         <v>1</v>
@@ -5586,7 +5591,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B379" t="n">
         <v>1</v>
@@ -5594,7 +5599,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B380" t="n">
         <v>1</v>
@@ -5602,7 +5607,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B381" t="n">
         <v>1</v>
@@ -5610,7 +5615,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B382" t="n">
         <v>1</v>
@@ -5618,7 +5623,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B383" t="n">
         <v>1</v>
@@ -5626,7 +5631,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B384" t="n">
         <v>1</v>
@@ -5634,7 +5639,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B385" t="n">
         <v>1</v>
@@ -5642,7 +5647,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B386" t="n">
         <v>1</v>
@@ -5650,7 +5655,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B387" t="n">
         <v>1</v>
@@ -5658,7 +5663,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B388" t="n">
         <v>1</v>
@@ -5666,7 +5671,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B389" t="n">
         <v>1</v>
@@ -5674,7 +5679,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B390" t="n">
         <v>1</v>
@@ -5701,95 +5706,95 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B2" t="n">
-        <v>345</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B3" t="n">
-        <v>320</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B4" t="n">
-        <v>245</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B5" t="n">
-        <v>181</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B6" t="n">
-        <v>151</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B7" t="n">
-        <v>104</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B8" t="n">
-        <v>98</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B11" t="n">
-        <v>27</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/researchfish_results.xlsx
+++ b/data/researchfish_results.xlsx
@@ -9,7 +9,8 @@
     <sheet name="opensource" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="universities" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="rootdomain" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="returnyear" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="rootdomain2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="returnyear" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -103,36 +104,36 @@
     <t>Durham University</t>
   </si>
   <si>
+    <t>University of St Andrews</t>
+  </si>
+  <si>
     <t>Queen's University of Belfast</t>
   </si>
   <si>
-    <t>University of St Andrews</t>
+    <t>Heriot-Watt University</t>
   </si>
   <si>
     <t>Brunel University</t>
   </si>
   <si>
-    <t>Heriot-Watt University</t>
-  </si>
-  <si>
     <t>King's College London (KCL)</t>
   </si>
   <si>
+    <t>Swansea University</t>
+  </si>
+  <si>
     <t>Cranfield University</t>
   </si>
   <si>
-    <t>Swansea University</t>
-  </si>
-  <si>
     <t>University of Glasgow</t>
   </si>
   <si>
+    <t>University of Bath</t>
+  </si>
+  <si>
     <t>University of Liverpool</t>
   </si>
   <si>
-    <t>University of Bath</t>
-  </si>
-  <si>
     <t>University of Dundee</t>
   </si>
   <si>
@@ -142,15 +143,15 @@
     <t>University of Leicester</t>
   </si>
   <si>
+    <t>University of Plymouth</t>
+  </si>
+  <si>
+    <t>University of Huddersfield</t>
+  </si>
+  <si>
     <t>University of Sussex</t>
   </si>
   <si>
-    <t>University of Huddersfield</t>
-  </si>
-  <si>
-    <t>University of Plymouth</t>
-  </si>
-  <si>
     <t>University of Strathclyde</t>
   </si>
   <si>
@@ -160,25 +161,28 @@
     <t>City University London</t>
   </si>
   <si>
+    <t>De Montfort University</t>
+  </si>
+  <si>
     <t>University of Kent</t>
   </si>
   <si>
-    <t>De Montfort University</t>
+    <t>University of Essex</t>
   </si>
   <si>
     <t>School of Pharmacy</t>
   </si>
   <si>
-    <t>University of Essex</t>
-  </si>
-  <si>
     <t>University of Exeter</t>
   </si>
   <si>
+    <t>University of Central Lancashire</t>
+  </si>
+  <si>
     <t>Open University</t>
   </si>
   <si>
-    <t>University of Central Lancashire</t>
+    <t>University of Portsmouth</t>
   </si>
   <si>
     <t>University of Brighton</t>
@@ -193,93 +197,90 @@
     <t>London School of Economics and Political Science (University of London)</t>
   </si>
   <si>
-    <t>University of Portsmouth</t>
+    <t>Coventry University</t>
+  </si>
+  <si>
+    <t>Institute of Education</t>
+  </si>
+  <si>
+    <t>Edinburgh College of Art (ECA)</t>
+  </si>
+  <si>
+    <t>University of Lincoln</t>
+  </si>
+  <si>
+    <t>Goldsmiths, University of London</t>
+  </si>
+  <si>
+    <t>University of Ulster</t>
   </si>
   <si>
     <t>University of Greenwich</t>
   </si>
   <si>
-    <t>Goldsmiths, University of London</t>
-  </si>
-  <si>
-    <t>University of Lincoln</t>
-  </si>
-  <si>
-    <t>Edinburgh College of Art (ECA)</t>
-  </si>
-  <si>
-    <t>Coventry University</t>
-  </si>
-  <si>
-    <t>University of Ulster</t>
-  </si>
-  <si>
-    <t>Institute of Education</t>
+    <t>University of Hull</t>
+  </si>
+  <si>
+    <t>University of East Anglia</t>
+  </si>
+  <si>
+    <t>University of Northumbria</t>
+  </si>
+  <si>
+    <t>University of Reading</t>
+  </si>
+  <si>
+    <t>Institute of Cancer Research UK (ICR)</t>
+  </si>
+  <si>
+    <t>Birkbeck College</t>
   </si>
   <si>
     <t>Royal College of Art</t>
   </si>
   <si>
-    <t>Institute of Cancer Research UK (ICR)</t>
-  </si>
-  <si>
-    <t>University of Northumbria</t>
+    <t>University of the West of Scotland</t>
   </si>
   <si>
     <t>Sheffield Hallam University</t>
   </si>
   <si>
-    <t>University of the West of Scotland</t>
-  </si>
-  <si>
-    <t>Birkbeck College</t>
-  </si>
-  <si>
-    <t>University of Reading</t>
-  </si>
-  <si>
-    <t>University of Hull</t>
-  </si>
-  <si>
-    <t>University of East Anglia</t>
+    <t>University of the Arts London</t>
+  </si>
+  <si>
+    <t>University of Bedfordshire</t>
+  </si>
+  <si>
+    <t>Nottingham Trent University</t>
+  </si>
+  <si>
+    <t>University of Glamorgan</t>
+  </si>
+  <si>
+    <t>Bangor University</t>
+  </si>
+  <si>
+    <t>Birmingham City University</t>
+  </si>
+  <si>
+    <t>University of Stirling</t>
+  </si>
+  <si>
+    <t>Oxford Brookes University</t>
+  </si>
+  <si>
+    <t>DIAMOND Light Source Ltd</t>
   </si>
   <si>
     <t>University of the West of England</t>
   </si>
   <si>
-    <t>Nottingham Trent University</t>
-  </si>
-  <si>
-    <t>Birmingham City University</t>
-  </si>
-  <si>
-    <t>Oxford Brookes University</t>
-  </si>
-  <si>
-    <t>University of Stirling</t>
-  </si>
-  <si>
-    <t>Bangor University</t>
-  </si>
-  <si>
-    <t>University of Glamorgan</t>
+    <t>University of Westminster</t>
   </si>
   <si>
     <t>Teesside University</t>
   </si>
   <si>
-    <t>DIAMOND Light Source Ltd</t>
-  </si>
-  <si>
-    <t>University of Bedfordshire</t>
-  </si>
-  <si>
-    <t>University of Westminster</t>
-  </si>
-  <si>
-    <t>University of the Arts London</t>
-  </si>
-  <si>
     <t>rootdomains</t>
   </si>
   <si>
@@ -298,24 +299,24 @@
     <t>ccpforge.cse.rl.ac.uk</t>
   </si>
   <si>
+    <t>ico2s.org</t>
+  </si>
+  <si>
     <t>bitbucket.org</t>
   </si>
   <si>
-    <t>ico2s.org</t>
-  </si>
-  <si>
     <t>code.google.com</t>
   </si>
   <si>
+    <t>www.hecbiosim.ac.uk</t>
+  </si>
+  <si>
+    <t>www.castep.org</t>
+  </si>
+  <si>
     <t>sourceforge.net</t>
   </si>
   <si>
-    <t>www.castep.org</t>
-  </si>
-  <si>
-    <t>www.hecbiosim.ac.uk</t>
-  </si>
-  <si>
     <t>www.tech.dmu.ac.uk</t>
   </si>
   <si>
@@ -325,21 +326,21 @@
     <t>www.hsl.rl.ac.uk</t>
   </si>
   <si>
+    <t>depic.eecs.qmul.ac.uk</t>
+  </si>
+  <si>
+    <t>itunes.apple.com</t>
+  </si>
+  <si>
     <t>www.cs.ox.ac.uk</t>
   </si>
   <si>
-    <t>depic.eecs.qmul.ac.uk</t>
-  </si>
-  <si>
-    <t>itunes.apple.com</t>
+    <t>www.nektar.info</t>
   </si>
   <si>
     <t>www.loxhamprecision.com</t>
   </si>
   <si>
-    <t>www.nektar.info</t>
-  </si>
-  <si>
     <t>staff.computing.dundee.ac.uk</t>
   </si>
   <si>
@@ -352,1102 +353,1102 @@
     <t>www.dnald.org</t>
   </si>
   <si>
+    <t>sites.google.com</t>
+  </si>
+  <si>
+    <t>srg.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>www.youtube.com</t>
+  </si>
+  <si>
     <t>www2.warwick.ac.uk</t>
   </si>
   <si>
-    <t>sites.google.com</t>
-  </si>
-  <si>
-    <t>www.youtube.com</t>
-  </si>
-  <si>
-    <t>srg.doc.ic.ac.uk</t>
+    <t>www.sixthsensetransport.com</t>
+  </si>
+  <si>
+    <t>mi.eng.cam.ac.uk</t>
   </si>
   <si>
     <t>play.google.com</t>
   </si>
   <si>
-    <t>mi.eng.cam.ac.uk</t>
+    <t>gate.ac.uk</t>
+  </si>
+  <si>
+    <t>www.taverna.org.uk</t>
   </si>
   <si>
     <t>code.soundsoftware.ac.uk</t>
   </si>
   <si>
-    <t>www.taverna.org.uk</t>
-  </si>
-  <si>
-    <t>www.sixthsensetransport.com</t>
-  </si>
-  <si>
-    <t>gate.ac.uk</t>
+    <t>www.cposs.org.uk</t>
+  </si>
+  <si>
+    <t>spindynamics.org</t>
+  </si>
+  <si>
+    <t>www.prismmodelchecker.org</t>
+  </si>
+  <si>
+    <t>www.cl.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>www.acousticsensing.co.uk</t>
+  </si>
+  <si>
+    <t>greendoors.cs.bris.ac.uk</t>
   </si>
   <si>
     <t>hridigital.shef.ac.uk</t>
   </si>
   <si>
+    <t>www.robots.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>vallico.net</t>
+  </si>
+  <si>
+    <t>www.bruker.com</t>
+  </si>
+  <si>
+    <t>constraintmodelling.org</t>
+  </si>
+  <si>
+    <t>homepages.cs.ncl.ac.uk</t>
+  </si>
+  <si>
+    <t>langsrv.astro.cf.ac.uk</t>
+  </si>
+  <si>
     <t>pypi.python.org</t>
   </si>
   <si>
-    <t>constraintmodelling.org</t>
-  </si>
-  <si>
-    <t>www.acousticsensing.co.uk</t>
-  </si>
-  <si>
-    <t>www.prismmodelchecker.org</t>
-  </si>
-  <si>
-    <t>langsrv.astro.cf.ac.uk</t>
-  </si>
-  <si>
-    <t>www.cl.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>www.robots.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>vallico.net</t>
-  </si>
-  <si>
-    <t>greendoors.cs.bris.ac.uk</t>
-  </si>
-  <si>
-    <t>spindynamics.org</t>
-  </si>
-  <si>
-    <t>www.cposs.org.uk</t>
-  </si>
-  <si>
-    <t>homepages.cs.ncl.ac.uk</t>
-  </si>
-  <si>
-    <t>www.bruker.com</t>
-  </si>
-  <si>
     <t>www.siremol.org</t>
   </si>
   <si>
+    <t>www.cardiff.ac.uk</t>
+  </si>
+  <si>
+    <t>www.imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>www.firedrakeproject.org</t>
+  </si>
+  <si>
+    <t>www.tom-ridge.com</t>
+  </si>
+  <si>
+    <t>pele-python.github.io</t>
+  </si>
+  <si>
+    <t>visual.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>hermit-reasoner.com</t>
+  </si>
+  <si>
+    <t>www0.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.cstr.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>cmic.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.csrf.ac.uk</t>
+  </si>
+  <si>
+    <t>www.eecs.qmul.ac.uk</t>
+  </si>
+  <si>
+    <t>mloss.org</t>
+  </si>
+  <si>
+    <t>www.gap-system.org</t>
+  </si>
+  <si>
+    <t>pure.abdn.ac.uk:8080</t>
+  </si>
+  <si>
+    <t>www.abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>staff.cs.manchester.ac.uk</t>
+  </si>
+  <si>
+    <t>www-smartinfrastructure.eng.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>www.github.com</t>
+  </si>
+  <si>
+    <t>users.ox.ac.uk</t>
+  </si>
+  <si>
     <t>maptraits.wordpress.com</t>
   </si>
   <si>
-    <t>www.github.com</t>
-  </si>
-  <si>
-    <t>hermit-reasoner.com</t>
-  </si>
-  <si>
-    <t>www.firedrakeproject.org</t>
-  </si>
-  <si>
-    <t>www-smartinfrastructure.eng.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>www.imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>www.csrf.ac.uk</t>
-  </si>
-  <si>
     <t>myexperiment.org</t>
   </si>
   <si>
+    <t>statechum.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www-edc.eng.cam.ac.uk</t>
+  </si>
+  <si>
     <t>goo.gl</t>
   </si>
   <si>
-    <t>www.eecs.qmul.ac.uk</t>
-  </si>
-  <si>
-    <t>www.tom-ridge.com</t>
-  </si>
-  <si>
-    <t>cmic.cs.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>statechum.sourceforge.net</t>
-  </si>
-  <si>
-    <t>pure.abdn.ac.uk:8080</t>
-  </si>
-  <si>
-    <t>www-edc.eng.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>pele-python.github.io</t>
-  </si>
-  <si>
-    <t>www.cardiff.ac.uk</t>
-  </si>
-  <si>
-    <t>visual.cs.ucl.ac.uk</t>
-  </si>
-  <si>
     <t>www.shef.ac.uk</t>
   </si>
   <si>
-    <t>users.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>mloss.org</t>
-  </si>
-  <si>
-    <t>www0.cs.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>www.cstr.ed.ac.uk</t>
-  </si>
-  <si>
-    <t>staff.cs.manchester.ac.uk</t>
-  </si>
-  <si>
-    <t>www.abdn.ac.uk</t>
-  </si>
-  <si>
-    <t>www.gap-system.org</t>
+    <t>users.ecs.soton.ac.uk</t>
+  </si>
+  <si>
+    <t>www.essexgroup.soton.ac.uk</t>
+  </si>
+  <si>
+    <t>www.sheffield.ac.uk</t>
+  </si>
+  <si>
+    <t>groups.physics.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>www.maths.dur.ac.uk</t>
+  </si>
+  <si>
+    <t>www.epcc.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>qtfm.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.ndtatbristol.com</t>
+  </si>
+  <si>
+    <t>vprover.org</t>
+  </si>
+  <si>
+    <t>www.lifemirror.org</t>
+  </si>
+  <si>
+    <t>www.ee.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>link.springer.com</t>
+  </si>
+  <si>
+    <t>www.ccpsas.org</t>
+  </si>
+  <si>
+    <t>www.onetep.org</t>
+  </si>
+  <si>
+    <t>www.cs.swan.ac.uk</t>
+  </si>
+  <si>
+    <t>gui-hdmr.de</t>
+  </si>
+  <si>
+    <t>eiis.co.uk</t>
+  </si>
+  <si>
+    <t>savilerow.cs.st-andrews.ac.uk</t>
+  </si>
+  <si>
+    <t>lqstfm.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.lboro.ac.uk</t>
+  </si>
+  <si>
+    <t>www.aiai.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>www.click2go.umip.com</t>
   </si>
   <si>
     <t>www.limitstate.com</t>
   </si>
   <si>
-    <t>eiis.co.uk</t>
+    <t>hts.sp.nitech.ac.jp</t>
+  </si>
+  <si>
+    <t>www.cs.bham.ac.uk</t>
+  </si>
+  <si>
+    <t>www.mathworks.com</t>
+  </si>
+  <si>
+    <t>www.csc.liv.ac.uk</t>
+  </si>
+  <si>
+    <t>www.galahad.rl.ac.uk</t>
+  </si>
+  <si>
+    <t>gitlab.com</t>
+  </si>
+  <si>
+    <t>catalystproject.co.uk</t>
+  </si>
+  <si>
+    <t>empslocal.ex.ac.uk</t>
+  </si>
+  <si>
+    <t>lat.inf.tu-dresden.de</t>
+  </si>
+  <si>
+    <t>www.scd.stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>eprints.hud.ac.uk</t>
+  </si>
+  <si>
+    <t>powkist.abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>www.cs.kent.ac.uk</t>
+  </si>
+  <si>
+    <t>crcns.org</t>
+  </si>
+  <si>
+    <t>www.mettel-prover.org</t>
+  </si>
+  <si>
+    <t>journals.plos.org</t>
+  </si>
+  <si>
+    <t>reaction-networks.net</t>
+  </si>
+  <si>
+    <t>cmictig.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>homepages.warwick.ac.uk</t>
+  </si>
+  <si>
+    <t>ssi-amrmmhd.epcc.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>www.dnvgl.com</t>
+  </si>
+  <si>
+    <t>directtrace.org</t>
+  </si>
+  <si>
+    <t>cruncher.ncl.ac.uk</t>
+  </si>
+  <si>
+    <t>bela.io</t>
+  </si>
+  <si>
+    <t>cgi.csc.liv.ac.uk</t>
+  </si>
+  <si>
+    <t>vas.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>www2.gre.ac.uk</t>
+  </si>
+  <si>
+    <t>thesharcproject.wordpress.com</t>
+  </si>
+  <si>
+    <t>stir.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.ccpnc.ac.uk</t>
+  </si>
+  <si>
+    <t>www.biopepa.org</t>
+  </si>
+  <si>
+    <t>soft-dev.org</t>
+  </si>
+  <si>
+    <t>www.menpo.org</t>
+  </si>
+  <si>
+    <t>chaste.cs.ox.ac.uk</t>
   </si>
   <si>
     <t>www.manageplaces.com</t>
   </si>
   <si>
-    <t>vprover.org</t>
-  </si>
-  <si>
-    <t>cmictig.cs.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>gitlab.com</t>
-  </si>
-  <si>
-    <t>www.cs.swan.ac.uk</t>
-  </si>
-  <si>
-    <t>empslocal.ex.ac.uk</t>
+    <t>www.louisaslett.com</t>
+  </si>
+  <si>
+    <t>www.confichair.org</t>
+  </si>
+  <si>
+    <t>sleepful.me</t>
+  </si>
+  <si>
+    <t>www.adsenv.com</t>
+  </si>
+  <si>
+    <t>www.ccp5.ac.uk</t>
+  </si>
+  <si>
+    <t>lsds.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>hackage.haskell.org</t>
+  </si>
+  <si>
+    <t>hannahfry.co.uk</t>
+  </si>
+  <si>
+    <t>utopiadocs.com</t>
+  </si>
+  <si>
+    <t>www.comob.org.uk</t>
+  </si>
+  <si>
+    <t>kidney.optimalmatching.com</t>
   </si>
   <si>
     <t>www.veritygos.org</t>
   </si>
   <si>
-    <t>cgi.csc.liv.ac.uk</t>
-  </si>
-  <si>
-    <t>qtfm.sourceforge.net</t>
+    <t>astro-informatics.github.io</t>
+  </si>
+  <si>
+    <t>193.61.148.237</t>
+  </si>
+  <si>
+    <t>www.openpermis.info</t>
+  </si>
+  <si>
+    <t>www.esru.strath.ac.uk</t>
+  </si>
+  <si>
+    <t>www.dual.sphysics.org</t>
+  </si>
+  <si>
+    <t>browseraudit.com</t>
+  </si>
+  <si>
+    <t>www.comp.lancs.ac.uk</t>
   </si>
   <si>
     <t>www.bempp.org</t>
   </si>
   <si>
-    <t>www.maths.dur.ac.uk</t>
-  </si>
-  <si>
-    <t>soft-dev.org</t>
-  </si>
-  <si>
-    <t>users.ecs.soton.ac.uk</t>
-  </si>
-  <si>
-    <t>link.springer.com</t>
-  </si>
-  <si>
-    <t>eprints.hud.ac.uk</t>
-  </si>
-  <si>
-    <t>www.onetep.org</t>
-  </si>
-  <si>
-    <t>www.ee.ic.ac.uk</t>
-  </si>
-  <si>
-    <t>crcns.org</t>
-  </si>
-  <si>
-    <t>cruncher.ncl.ac.uk</t>
-  </si>
-  <si>
-    <t>www2.gre.ac.uk</t>
-  </si>
-  <si>
-    <t>homepages.warwick.ac.uk</t>
-  </si>
-  <si>
-    <t>www.esru.strath.ac.uk</t>
-  </si>
-  <si>
-    <t>www.menpo.org</t>
-  </si>
-  <si>
-    <t>bela.io</t>
-  </si>
-  <si>
-    <t>groups.physics.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>stir.sourceforge.net</t>
-  </si>
-  <si>
-    <t>powkist.abdn.ac.uk</t>
-  </si>
-  <si>
-    <t>www.epcc.ed.ac.uk</t>
-  </si>
-  <si>
-    <t>www.ccp5.ac.uk</t>
-  </si>
-  <si>
-    <t>hannahfry.co.uk</t>
-  </si>
-  <si>
-    <t>hts.sp.nitech.ac.jp</t>
-  </si>
-  <si>
-    <t>lat.inf.tu-dresden.de</t>
-  </si>
-  <si>
-    <t>www.essexgroup.soton.ac.uk</t>
-  </si>
-  <si>
-    <t>www.adsenv.com</t>
-  </si>
-  <si>
-    <t>www.ccpsas.org</t>
-  </si>
-  <si>
-    <t>lqstfm.sourceforge.net</t>
-  </si>
-  <si>
-    <t>www.galahad.rl.ac.uk</t>
-  </si>
-  <si>
-    <t>chaste.cs.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>193.61.148.237</t>
-  </si>
-  <si>
-    <t>vas.doc.ic.ac.uk</t>
-  </si>
-  <si>
-    <t>kidney.optimalmatching.com</t>
-  </si>
-  <si>
-    <t>browseraudit.com</t>
-  </si>
-  <si>
-    <t>www.cs.kent.ac.uk</t>
-  </si>
-  <si>
     <t>www.edx.org</t>
   </si>
   <si>
-    <t>thesharcproject.wordpress.com</t>
-  </si>
-  <si>
-    <t>www.lboro.ac.uk</t>
-  </si>
-  <si>
-    <t>www.mettel-prover.org</t>
-  </si>
-  <si>
-    <t>journals.plos.org</t>
-  </si>
-  <si>
-    <t>gui-hdmr.de</t>
-  </si>
-  <si>
-    <t>www.scd.stfc.ac.uk</t>
-  </si>
-  <si>
-    <t>www.csc.liv.ac.uk</t>
-  </si>
-  <si>
-    <t>www.click2go.umip.com</t>
-  </si>
-  <si>
-    <t>www.biopepa.org</t>
-  </si>
-  <si>
-    <t>www.louisaslett.com</t>
-  </si>
-  <si>
-    <t>hackage.haskell.org</t>
-  </si>
-  <si>
-    <t>www.openpermis.info</t>
-  </si>
-  <si>
-    <t>reaction-networks.net</t>
-  </si>
-  <si>
     <t>www.cam.ac.uk</t>
   </si>
   <si>
-    <t>www.sheffield.ac.uk</t>
-  </si>
-  <si>
-    <t>lsds.doc.ic.ac.uk</t>
-  </si>
-  <si>
-    <t>sleepful.me</t>
-  </si>
-  <si>
-    <t>www.ccpnc.ac.uk</t>
-  </si>
-  <si>
-    <t>savilerow.cs.st-andrews.ac.uk</t>
-  </si>
-  <si>
-    <t>www.confichair.org</t>
-  </si>
-  <si>
-    <t>www.lifemirror.org</t>
-  </si>
-  <si>
-    <t>www.dual.sphysics.org</t>
-  </si>
-  <si>
-    <t>directtrace.org</t>
-  </si>
-  <si>
-    <t>ssi-amrmmhd.epcc.ed.ac.uk</t>
-  </si>
-  <si>
-    <t>www.mathworks.com</t>
-  </si>
-  <si>
-    <t>www.cs.bham.ac.uk</t>
-  </si>
-  <si>
-    <t>astro-informatics.github.io</t>
-  </si>
-  <si>
-    <t>www.dnvgl.com</t>
-  </si>
-  <si>
-    <t>www.ndtatbristol.com</t>
-  </si>
-  <si>
-    <t>www.comp.lancs.ac.uk</t>
-  </si>
-  <si>
-    <t>utopiadocs.com</t>
-  </si>
-  <si>
-    <t>catalystproject.co.uk</t>
-  </si>
-  <si>
-    <t>www.aiai.ed.ac.uk</t>
-  </si>
-  <si>
-    <t>www.comob.org.uk</t>
+    <t>netwiki.amath.unc.edu</t>
+  </si>
+  <si>
+    <t>www.incompact3d.com</t>
+  </si>
+  <si>
+    <t>www.pureintrawise.org</t>
+  </si>
+  <si>
+    <t>groups.inf.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>theswo.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.hud.ac.uk</t>
+  </si>
+  <si>
+    <t>extasy-project.org</t>
+  </si>
+  <si>
+    <t>shelflife.oxfam.org.uk</t>
+  </si>
+  <si>
+    <t>app-movement.com</t>
+  </si>
+  <si>
+    <t>fullscaledynamics.com</t>
+  </si>
+  <si>
+    <t>www.spass-prover.org</t>
+  </si>
+  <si>
+    <t>cowl.ws</t>
+  </si>
+  <si>
+    <t>dolfin-adjoint.org</t>
+  </si>
+  <si>
+    <t>urbanfloodmodel.wordpress.com</t>
+  </si>
+  <si>
+    <t>chrome.google.com</t>
+  </si>
+  <si>
+    <t>onlinelibrary.wiley.com</t>
+  </si>
+  <si>
+    <t>ritweb.cloudapp.net:8080</t>
+  </si>
+  <si>
+    <t>qub.ac.uk</t>
+  </si>
+  <si>
+    <t>eis.comp.lancs.ac.uk</t>
+  </si>
+  <si>
+    <t>dylan.sf.net</t>
+  </si>
+  <si>
+    <t>hive.chem.ucl.ac.uk:8080</t>
+  </si>
+  <si>
+    <t>blog.debroglie.net</t>
+  </si>
+  <si>
+    <t>www.springsustainability.org</t>
+  </si>
+  <si>
+    <t>varoudis.github.io</t>
+  </si>
+  <si>
+    <t>www.stats.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>VGeST.net</t>
+  </si>
+  <si>
+    <t>projectglobalview.blogspot.co.uk</t>
+  </si>
+  <si>
+    <t>dynamomd.org</t>
+  </si>
+  <si>
+    <t>www.cp2k.org</t>
+  </si>
+  <si>
+    <t>www.tntgo.org</t>
+  </si>
+  <si>
+    <t>utopia.cs.man.ac.uk</t>
+  </si>
+  <si>
+    <t>page.mi.fu-berlin.de</t>
+  </si>
+  <si>
+    <t>haselofflab.github.io</t>
+  </si>
+  <si>
+    <t>emboeditor.herokuapp.com</t>
+  </si>
+  <si>
+    <t>sure-infrastructure.leeds.ac.uk</t>
+  </si>
+  <si>
+    <t>sentinet.abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>stchem.bham.ac.uk</t>
+  </si>
+  <si>
+    <t>www.designingourtomorrow.com</t>
+  </si>
+  <si>
+    <t>ssmodels.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.bone-finder.com</t>
+  </si>
+  <si>
+    <t>www.gridcarbon.uk</t>
+  </si>
+  <si>
+    <t>www.taxvis.org.uk</t>
+  </si>
+  <si>
+    <t>htk.eng.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>staff.aist.go.jp</t>
+  </si>
+  <si>
+    <t>dna.physics.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>opus.bath.ac.uk</t>
+  </si>
+  <si>
+    <t>www.flame.ac.uk</t>
+  </si>
+  <si>
+    <t>www.digitalprosumer.co.uk</t>
+  </si>
+  <si>
+    <t>www.procksi.org</t>
+  </si>
+  <si>
+    <t>www.brighton.ac.uk</t>
+  </si>
+  <si>
+    <t>ova.arg-tech.org</t>
+  </si>
+  <si>
+    <t>www.gaussianprocess.org</t>
+  </si>
+  <si>
+    <t>cpc.cs.qub.ac.uk</t>
+  </si>
+  <si>
+    <t>talesofthings.com</t>
+  </si>
+  <si>
+    <t>www.openbsd.org</t>
+  </si>
+  <si>
+    <t>www.agents.cs.nott.ac.uk</t>
+  </si>
+  <si>
+    <t>livemusiclab.eecs.qmul.ac.uk</t>
+  </si>
+  <si>
+    <t>www.bristol.ac.uk</t>
+  </si>
+  <si>
+    <t>www.ngenics.com</t>
+  </si>
+  <si>
+    <t>www.seek4science.org</t>
+  </si>
+  <si>
+    <t>easyhg.org</t>
+  </si>
+  <si>
+    <t>www.defensivejs.com</t>
+  </si>
+  <si>
+    <t>www.ccalc.org.uk</t>
+  </si>
+  <si>
+    <t>hdrvdp.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.bath.ac.uk</t>
+  </si>
+  <si>
+    <t>zoonproject.wordpress.com</t>
+  </si>
+  <si>
+    <t>www.n8equipment.prg.uk</t>
+  </si>
+  <si>
+    <t>www.cs.bris.ac.uk</t>
+  </si>
+  <si>
+    <t>www.enrichnet.org</t>
+  </si>
+  <si>
+    <t>phpsemantics.org</t>
+  </si>
+  <si>
+    <t>kahlan.eps.surrey.ac.uk</t>
+  </si>
+  <si>
+    <t>www.maths.sussex.ac.uk</t>
+  </si>
+  <si>
+    <t>www.scolan.eu</t>
+  </si>
+  <si>
+    <t>myhealthavatar.org</t>
+  </si>
+  <si>
+    <t>ourbigportrait.com</t>
+  </si>
+  <si>
+    <t>www.k-wave.org</t>
+  </si>
+  <si>
+    <t>jssec.net</t>
+  </si>
+  <si>
+    <t>tinyurl.com</t>
+  </si>
+  <si>
+    <t>netlab.dcs.gla.ac.uk</t>
+  </si>
+  <si>
+    <t>niftysim.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.arraymining.net</t>
+  </si>
+  <si>
+    <t>doc.gold.ac.uk</t>
+  </si>
+  <si>
+    <t>www.lets-explore.com</t>
+  </si>
+  <si>
+    <t>www.sciencedaily.com</t>
+  </si>
+  <si>
+    <t>www.software.ac.uk</t>
+  </si>
+  <si>
+    <t>jmlr.csail.mit.edu</t>
+  </si>
+  <si>
+    <t>easy-m.io</t>
+  </si>
+  <si>
+    <t>www.birmingham.ac.uk</t>
+  </si>
+  <si>
+    <t>lucmoreau.github.io</t>
+  </si>
+  <si>
+    <t>comp.chem.nottingham.ac.uk</t>
+  </si>
+  <si>
+    <t>www.optados.org</t>
+  </si>
+  <si>
+    <t>multicore.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>www.phon.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.ncl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.sadie-project.co.uk</t>
+  </si>
+  <si>
+    <t>www.solar.sheffield.ac.uk</t>
+  </si>
+  <si>
+    <t>www.ihs.com</t>
+  </si>
+  <si>
+    <t>cohse.cs.manchester.ac.uk</t>
+  </si>
+  <si>
+    <t>www.esciencecentral.co.uk</t>
+  </si>
+  <si>
+    <t>www.domeproject.org.uk</t>
+  </si>
+  <si>
+    <t>www.dune-project.org</t>
+  </si>
+  <si>
+    <t>r-forge.r-project.org</t>
+  </si>
+  <si>
+    <t>creativenet.nottingham.ac.uk</t>
+  </si>
+  <si>
+    <t>gvgai.net</t>
+  </si>
+  <si>
+    <t>www.ccpbiosim.ac.uk</t>
+  </si>
+  <si>
+    <t>www.opendesk.cc</t>
+  </si>
+  <si>
+    <t>www2.eng.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>www.evosuite.org</t>
+  </si>
+  <si>
+    <t>llama.leeds.ac.uk</t>
+  </si>
+  <si>
+    <t>www.smarthomeframework.ecs.soton.ac.uk</t>
+  </si>
+  <si>
+    <t>eprints.soton.ac.uk</t>
+  </si>
+  <si>
+    <t>www.adaptivearchitectureframework.org</t>
+  </si>
+  <si>
+    <t>gitlab.dune-project.org</t>
+  </si>
+  <si>
+    <t>www.well-sorted.org</t>
+  </si>
+  <si>
+    <t>www.footmiles.org</t>
+  </si>
+  <si>
+    <t>prosecco.gforge.inria.fr</t>
+  </si>
+  <si>
+    <t>www.quantmedia.org</t>
+  </si>
+  <si>
+    <t>www.gowsb.com</t>
+  </si>
+  <si>
+    <t>cshore.cs.rhul.ac.uk</t>
+  </si>
+  <si>
+    <t>quantomatic.github.io</t>
+  </si>
+  <si>
+    <t>ukclimateprojections.metoffice.gov.uk</t>
+  </si>
+  <si>
+    <t>eavi.goldsmithsdigital.com</t>
+  </si>
+  <si>
+    <t>www.urban-futures.org</t>
+  </si>
+  <si>
+    <t>www.jqc.org.uk</t>
+  </si>
+  <si>
+    <t>www.seniorscycle.co.uk</t>
+  </si>
+  <si>
+    <t>www.cs.man.ac.uk</t>
+  </si>
+  <si>
+    <t>www.nltg.brighton.ac.uk</t>
+  </si>
+  <si>
+    <t>kurlin.org</t>
+  </si>
+  <si>
+    <t>www.warwick.ac.uk</t>
+  </si>
+  <si>
+    <t>watchitmade.org</t>
+  </si>
+  <si>
+    <t>Vgest.net</t>
+  </si>
+  <si>
+    <t>emotionsense.org</t>
+  </si>
+  <si>
+    <t>www.w3.org</t>
+  </si>
+  <si>
+    <t>www.healthymindapp.org</t>
+  </si>
+  <si>
+    <t>texgen.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.motorship.com</t>
+  </si>
+  <si>
+    <t>thespace.org</t>
+  </si>
+  <si>
+    <t>www.smart-ebikes.com</t>
+  </si>
+  <si>
+    <t>openaccess.city.ac.uk</t>
+  </si>
+  <si>
+    <t>www.deft-whois.org</t>
+  </si>
+  <si>
+    <t>www.numerical.rl.ac.uk</t>
+  </si>
+  <si>
+    <t>workcraft.org</t>
+  </si>
+  <si>
+    <t>www.coin-or.org</t>
+  </si>
+  <si>
+    <t>www.researchperspectives.org</t>
+  </si>
+  <si>
+    <t>www.biral.com</t>
+  </si>
+  <si>
+    <t>www.webasr.org</t>
+  </si>
+  <si>
+    <t>www.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>www.arg-tech.org</t>
+  </si>
+  <si>
+    <t>vallico.new</t>
+  </si>
+  <si>
+    <t>creators.woodworks.org.uk</t>
+  </si>
+  <si>
+    <t>tulip.lenhardt.co.uk</t>
+  </si>
+  <si>
+    <t>cs.bham.ac.uk</t>
+  </si>
+  <si>
+    <t>users.rsise.anu.edu.au</t>
+  </si>
+  <si>
+    <t>www.oerc.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>www.commnet.ac.uk</t>
+  </si>
+  <si>
+    <t>www.hande.org.uk</t>
+  </si>
+  <si>
+    <t>fowlercorpora.readthedocs.org</t>
+  </si>
+  <si>
+    <t>safecap.sourceforge.net</t>
+  </si>
+  <si>
+    <t>bugseng.com</t>
+  </si>
+  <si>
+    <t>www.jstarverifier.org</t>
+  </si>
+  <si>
+    <t>www.biospi.org</t>
+  </si>
+  <si>
+    <t>www.tractor-mri.org.uk</t>
+  </si>
+  <si>
+    <t>copperdroid.isg.rhul.ac.uk</t>
+  </si>
+  <si>
+    <t>www.justimed.com</t>
+  </si>
+  <si>
+    <t>nmag.soton.ac.uk</t>
+  </si>
+  <si>
+    <t>www.erg.abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>smtcomp.sourceforge.net</t>
+  </si>
+  <si>
+    <t>gadgetron.github.io</t>
+  </si>
+  <si>
+    <t>www2.tcm.phy.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>www.informatics.sussex.ac.uk</t>
+  </si>
+  <si>
+    <t>www.xtl.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>www.doc.gold.ac.uk</t>
+  </si>
+  <si>
+    <t>www.hydraplatform.org</t>
+  </si>
+  <si>
+    <t>simpleware.com</t>
+  </si>
+  <si>
+    <t>youtu.be</t>
+  </si>
+  <si>
+    <t>eecs.qmul.ac.uk</t>
+  </si>
+  <si>
+    <t>oss.deltares.nl</t>
+  </si>
+  <si>
+    <t>www.mad4nrg.org</t>
+  </si>
+  <si>
+    <t>imagination.lancs.ac.uk</t>
+  </si>
+  <si>
+    <t>switchoff.nus.org.uk</t>
+  </si>
+  <si>
+    <t>bimpa.group.shef.ac.uk</t>
+  </si>
+  <si>
+    <t>homepages.abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>crowdcrafting.org</t>
+  </si>
+  <si>
+    <t>www.walkingthroughtime.co.uk</t>
+  </si>
+  <si>
+    <t>platform.carbonculture.net</t>
+  </si>
+  <si>
+    <t>workspace.imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>www.mehrdadya.com</t>
+  </si>
+  <si>
+    <t>digitalintermediarytoolkit.wordpress.com</t>
+  </si>
+  <si>
+    <t>www.isophonics.net</t>
+  </si>
+  <si>
+    <t>www.homepages.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>theory.cm.utexas.edu</t>
+  </si>
+  <si>
+    <t>www.eclipse.org</t>
+  </si>
+  <si>
+    <t>business.liftshare.com</t>
+  </si>
+  <si>
+    <t>revizto.com</t>
+  </si>
+  <si>
+    <t>muxviz.net</t>
+  </si>
+  <si>
+    <t>line-solver.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.bgs.ac.uk</t>
+  </si>
+  <si>
+    <t>epistruct.sourceforge.net</t>
+  </si>
+  <si>
+    <t>designaday.fairphone-open.com</t>
+  </si>
+  <si>
+    <t>biorefinerydesign.webs.com</t>
+  </si>
+  <si>
+    <t>www.camino.org.uk</t>
+  </si>
+  <si>
+    <t>rmox.net</t>
+  </si>
+  <si>
+    <t>www.responsible-innovation.org.uk</t>
+  </si>
+  <si>
+    <t>www.macs.hw.ac.uk</t>
+  </si>
+  <si>
+    <t>reflect-esm-dev.lancs.ac.uk</t>
+  </si>
+  <si>
+    <t>mriphysics.github.io</t>
+  </si>
+  <si>
+    <t>www.dwrc.surrey.ac.uk</t>
+  </si>
+  <si>
+    <t>cp2k.org</t>
+  </si>
+  <si>
+    <t>elk.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.arcc-network.org.uk</t>
+  </si>
+  <si>
+    <t>smartelectricity.io</t>
+  </si>
+  <si>
+    <t>www.bluegreencities.ac.uk</t>
+  </si>
+  <si>
+    <t>www.labtrove.org</t>
+  </si>
+  <si>
+    <t>orchidproject.github.io</t>
+  </si>
+  <si>
+    <t>op2.github.io</t>
+  </si>
+  <si>
+    <t>www.handyurbansolutions.com</t>
+  </si>
+  <si>
+    <t>datadryad.org</t>
+  </si>
+  <si>
+    <t>syrris.com</t>
+  </si>
+  <si>
+    <t>www.surrey.ac.uk</t>
+  </si>
+  <si>
+    <t>www.york.ac.uk</t>
+  </si>
+  <si>
+    <t>www.webcitation.org</t>
+  </si>
+  <si>
+    <t>www.wikilinkify.com</t>
+  </si>
+  <si>
+    <t>www.hpc-diversity.ac.uk</t>
   </si>
   <si>
     <t>reality.cs.ucl.ac.uk</t>
   </si>
   <si>
-    <t>www2.eng.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>www.birmingham.ac.uk</t>
-  </si>
-  <si>
-    <t>www.deft-whois.org</t>
+    <t>web4.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>keyfort.co.uk</t>
   </si>
   <si>
     <t>www.openpipeflow.org</t>
   </si>
   <si>
-    <t>cp2k.org</t>
-  </si>
-  <si>
-    <t>www.nltg.brighton.ac.uk</t>
-  </si>
-  <si>
-    <t>www.biral.com</t>
-  </si>
-  <si>
-    <t>www.arraymining.net</t>
-  </si>
-  <si>
-    <t>www.arg-tech.org</t>
-  </si>
-  <si>
-    <t>tulip.lenhardt.co.uk</t>
-  </si>
-  <si>
-    <t>theswo.sourceforge.net</t>
-  </si>
-  <si>
-    <t>www.cp2k.org</t>
-  </si>
-  <si>
-    <t>www.defensivejs.com</t>
-  </si>
-  <si>
-    <t>sentinet.abdn.ac.uk</t>
-  </si>
-  <si>
-    <t>www.ccpbiosim.ac.uk</t>
-  </si>
-  <si>
-    <t>www.wikilinkify.com</t>
-  </si>
-  <si>
-    <t>www.warwick.ac.uk</t>
-  </si>
-  <si>
-    <t>www.bgs.ac.uk</t>
-  </si>
-  <si>
-    <t>haselofflab.github.io</t>
-  </si>
-  <si>
-    <t>bugseng.com</t>
-  </si>
-  <si>
-    <t>www2.tcm.phy.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>eavi.goldsmithsdigital.com</t>
-  </si>
-  <si>
-    <t>www.incompact3d.com</t>
-  </si>
-  <si>
-    <t>kahlan.eps.surrey.ac.uk</t>
-  </si>
-  <si>
-    <t>www.spass-prover.org</t>
+    <t>www.mendeley.com</t>
+  </si>
+  <si>
+    <t>researchobject.org</t>
+  </si>
+  <si>
+    <t>www.bioconductor.org</t>
   </si>
   <si>
     <t>www.articulateinstruments.com</t>
   </si>
   <si>
-    <t>imagination.lancs.ac.uk</t>
-  </si>
-  <si>
-    <t>www.webcitation.org</t>
-  </si>
-  <si>
-    <t>app-movement.com</t>
-  </si>
-  <si>
-    <t>keyfort.co.uk</t>
-  </si>
-  <si>
-    <t>stchem.bham.ac.uk</t>
-  </si>
-  <si>
-    <t>www.agents.cs.nott.ac.uk</t>
-  </si>
-  <si>
-    <t>www.handyurbansolutions.com</t>
-  </si>
-  <si>
-    <t>line-solver.sourceforge.net</t>
-  </si>
-  <si>
-    <t>www.eclipse.org</t>
-  </si>
-  <si>
-    <t>eis.comp.lancs.ac.uk</t>
-  </si>
-  <si>
-    <t>www.procksi.org</t>
-  </si>
-  <si>
-    <t>talesofthings.com</t>
-  </si>
-  <si>
-    <t>www.solar.sheffield.ac.uk</t>
-  </si>
-  <si>
-    <t>www.hydraplatform.org</t>
-  </si>
-  <si>
-    <t>www.mad4nrg.org</t>
-  </si>
-  <si>
-    <t>www.lets-explore.com</t>
-  </si>
-  <si>
-    <t>emotionsense.org</t>
-  </si>
-  <si>
-    <t>r-forge.r-project.org</t>
-  </si>
-  <si>
-    <t>eecs.qmul.ac.uk</t>
-  </si>
-  <si>
-    <t>www.optados.org</t>
-  </si>
-  <si>
-    <t>workcraft.org</t>
-  </si>
-  <si>
-    <t>www.surrey.ac.uk</t>
-  </si>
-  <si>
-    <t>revizto.com</t>
-  </si>
-  <si>
-    <t>www.webasr.org</t>
-  </si>
-  <si>
-    <t>www.quantmedia.org</t>
-  </si>
-  <si>
-    <t>www.springsustainability.org</t>
-  </si>
-  <si>
-    <t>www.camino.org.uk</t>
-  </si>
-  <si>
-    <t>platform.carbonculture.net</t>
-  </si>
-  <si>
-    <t>www.homepages.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>biorefinerydesign.webs.com</t>
-  </si>
-  <si>
-    <t>www.ngenics.com</t>
-  </si>
-  <si>
-    <t>www.jqc.org.uk</t>
-  </si>
-  <si>
-    <t>www.flame.ac.uk</t>
-  </si>
-  <si>
-    <t>www.informatics.sussex.ac.uk</t>
-  </si>
-  <si>
-    <t>www.dwrc.surrey.ac.uk</t>
-  </si>
-  <si>
-    <t>www.scolan.eu</t>
-  </si>
-  <si>
-    <t>qub.ac.uk</t>
-  </si>
-  <si>
-    <t>www.justimed.com</t>
-  </si>
-  <si>
-    <t>www.ihs.com</t>
-  </si>
-  <si>
-    <t>ssmodels.sourceforge.net</t>
-  </si>
-  <si>
-    <t>VGeST.net</t>
-  </si>
-  <si>
-    <t>www.urban-futures.org</t>
-  </si>
-  <si>
-    <t>www.well-sorted.org</t>
-  </si>
-  <si>
-    <t>www.taxvis.org.uk</t>
-  </si>
-  <si>
-    <t>cowl.ws</t>
-  </si>
-  <si>
-    <t>ukclimateprojections.metoffice.gov.uk</t>
-  </si>
-  <si>
-    <t>cs.bham.ac.uk</t>
-  </si>
-  <si>
-    <t>gitlab.dune-project.org</t>
-  </si>
-  <si>
-    <t>digitalintermediarytoolkit.wordpress.com</t>
-  </si>
-  <si>
-    <t>www.macs.hw.ac.uk</t>
-  </si>
-  <si>
-    <t>oss.deltares.nl</t>
-  </si>
-  <si>
-    <t>cpc.cs.qub.ac.uk</t>
-  </si>
-  <si>
-    <t>nmag.soton.ac.uk</t>
-  </si>
-  <si>
-    <t>dna.physics.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>smartelectricity.io</t>
-  </si>
-  <si>
-    <t>rmox.net</t>
-  </si>
-  <si>
-    <t>www.openbsd.org</t>
+    <t>www.scc.lancs.ac.uk</t>
+  </si>
+  <si>
+    <t>www.qappsonline.com</t>
+  </si>
+  <si>
+    <t>wanderanywhere.com</t>
   </si>
   <si>
     <t>139.133.232.16</t>
-  </si>
-  <si>
-    <t>www.doc.ic.ac.uk</t>
-  </si>
-  <si>
-    <t>www.adaptivearchitectureframework.org</t>
-  </si>
-  <si>
-    <t>texgen.sourceforge.net</t>
-  </si>
-  <si>
-    <t>cohse.cs.manchester.ac.uk</t>
-  </si>
-  <si>
-    <t>htk.eng.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>utopia.cs.man.ac.uk</t>
-  </si>
-  <si>
-    <t>www.phon.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>kurlin.org</t>
-  </si>
-  <si>
-    <t>doc.gold.ac.uk</t>
-  </si>
-  <si>
-    <t>dynamomd.org</t>
-  </si>
-  <si>
-    <t>tinyurl.com</t>
-  </si>
-  <si>
-    <t>urbanfloodmodel.wordpress.com</t>
-  </si>
-  <si>
-    <t>www.software.ac.uk</t>
-  </si>
-  <si>
-    <t>easy-m.io</t>
-  </si>
-  <si>
-    <t>vallico.new</t>
-  </si>
-  <si>
-    <t>www.coin-or.org</t>
-  </si>
-  <si>
-    <t>easyhg.org</t>
-  </si>
-  <si>
-    <t>www.ccalc.org.uk</t>
-  </si>
-  <si>
-    <t>www.xtl.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>dylan.sf.net</t>
-  </si>
-  <si>
-    <t>shelflife.oxfam.org.uk</t>
-  </si>
-  <si>
-    <t>www.researchperspectives.org</t>
-  </si>
-  <si>
-    <t>www.erg.abdn.ac.uk</t>
-  </si>
-  <si>
-    <t>www.cs.man.ac.uk</t>
-  </si>
-  <si>
-    <t>theory.cm.utexas.edu</t>
-  </si>
-  <si>
-    <t>www.bath.ac.uk</t>
-  </si>
-  <si>
-    <t>orchidproject.github.io</t>
-  </si>
-  <si>
-    <t>dolfin-adjoint.org</t>
-  </si>
-  <si>
-    <t>www.numerical.rl.ac.uk</t>
-  </si>
-  <si>
-    <t>www.smarthomeframework.ecs.soton.ac.uk</t>
-  </si>
-  <si>
-    <t>jmlr.csail.mit.edu</t>
-  </si>
-  <si>
-    <t>creativenet.nottingham.ac.uk</t>
-  </si>
-  <si>
-    <t>emboeditor.herokuapp.com</t>
-  </si>
-  <si>
-    <t>groups.inf.ed.ac.uk</t>
-  </si>
-  <si>
-    <t>watchitmade.org</t>
-  </si>
-  <si>
-    <t>chrome.google.com</t>
-  </si>
-  <si>
-    <t>quantomatic.github.io</t>
-  </si>
-  <si>
-    <t>cshore.cs.rhul.ac.uk</t>
-  </si>
-  <si>
-    <t>homepages.abdn.ac.uk</t>
-  </si>
-  <si>
-    <t>lucmoreau.github.io</t>
-  </si>
-  <si>
-    <t>www.evosuite.org</t>
-  </si>
-  <si>
-    <t>www.tractor-mri.org.uk</t>
-  </si>
-  <si>
-    <t>www.mehrdadya.com</t>
-  </si>
-  <si>
-    <t>prosecco.gforge.inria.fr</t>
-  </si>
-  <si>
-    <t>www.healthymindapp.org</t>
-  </si>
-  <si>
-    <t>datadryad.org</t>
-  </si>
-  <si>
-    <t>switchoff.nus.org.uk</t>
-  </si>
-  <si>
-    <t>hive.chem.ucl.ac.uk:8080</t>
-  </si>
-  <si>
-    <t>www.maths.sussex.ac.uk</t>
-  </si>
-  <si>
-    <t>varoudis.github.io</t>
-  </si>
-  <si>
-    <t>syrris.com</t>
-  </si>
-  <si>
-    <t>workspace.imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>thespace.org</t>
-  </si>
-  <si>
-    <t>llama.leeds.ac.uk</t>
-  </si>
-  <si>
-    <t>www.motorship.com</t>
-  </si>
-  <si>
-    <t>www.biospi.org</t>
-  </si>
-  <si>
-    <t>page.mi.fu-berlin.de</t>
-  </si>
-  <si>
-    <t>gvgai.net</t>
-  </si>
-  <si>
-    <t>www.digitalprosumer.co.uk</t>
-  </si>
-  <si>
-    <t>bimpa.group.shef.ac.uk</t>
-  </si>
-  <si>
-    <t>gadgetron.github.io</t>
-  </si>
-  <si>
-    <t>www.n8equipment.prg.uk</t>
-  </si>
-  <si>
-    <t>jssec.net</t>
-  </si>
-  <si>
-    <t>www.hud.ac.uk</t>
-  </si>
-  <si>
-    <t>safecap.sourceforge.net</t>
-  </si>
-  <si>
-    <t>www.seek4science.org</t>
-  </si>
-  <si>
-    <t>www.dune-project.org</t>
-  </si>
-  <si>
-    <t>youtu.be</t>
-  </si>
-  <si>
-    <t>niftysim.sourceforge.net</t>
-  </si>
-  <si>
-    <t>openaccess.city.ac.uk</t>
-  </si>
-  <si>
-    <t>www.bioconductor.org</t>
-  </si>
-  <si>
-    <t>hdrvdp.sourceforge.net</t>
-  </si>
-  <si>
-    <t>opus.bath.ac.uk</t>
-  </si>
-  <si>
-    <t>livemusiclab.eecs.qmul.ac.uk</t>
-  </si>
-  <si>
-    <t>www.cs.bris.ac.uk</t>
-  </si>
-  <si>
-    <t>muxviz.net</t>
-  </si>
-  <si>
-    <t>www.isophonics.net</t>
-  </si>
-  <si>
-    <t>users.rsise.anu.edu.au</t>
-  </si>
-  <si>
-    <t>www.bristol.ac.uk</t>
-  </si>
-  <si>
-    <t>multicore.doc.ic.ac.uk</t>
-  </si>
-  <si>
-    <t>creators.woodworks.org.uk</t>
-  </si>
-  <si>
-    <t>ova.arg-tech.org</t>
-  </si>
-  <si>
-    <t>ourbigportrait.com</t>
-  </si>
-  <si>
-    <t>www.gridcarbon.uk</t>
-  </si>
-  <si>
-    <t>www.responsible-innovation.org.uk</t>
-  </si>
-  <si>
-    <t>Vgest.net</t>
-  </si>
-  <si>
-    <t>extasy-project.org</t>
-  </si>
-  <si>
-    <t>zoonproject.wordpress.com</t>
-  </si>
-  <si>
-    <t>blog.debroglie.net</t>
-  </si>
-  <si>
-    <t>www.arcc-network.org.uk</t>
-  </si>
-  <si>
-    <t>eprints.soton.ac.uk</t>
-  </si>
-  <si>
-    <t>www.esciencecentral.co.uk</t>
-  </si>
-  <si>
-    <t>mriphysics.github.io</t>
-  </si>
-  <si>
-    <t>www.york.ac.uk</t>
-  </si>
-  <si>
-    <t>reflect-esm-dev.lancs.ac.uk</t>
-  </si>
-  <si>
-    <t>netlab.dcs.gla.ac.uk</t>
-  </si>
-  <si>
-    <t>www.mendeley.com</t>
-  </si>
-  <si>
-    <t>onlinelibrary.wiley.com</t>
-  </si>
-  <si>
-    <t>www.walkingthroughtime.co.uk</t>
-  </si>
-  <si>
-    <t>comp.chem.nottingham.ac.uk</t>
-  </si>
-  <si>
-    <t>myhealthavatar.org</t>
-  </si>
-  <si>
-    <t>www.sadie-project.co.uk</t>
-  </si>
-  <si>
-    <t>fullscaledynamics.com</t>
-  </si>
-  <si>
-    <t>sure-infrastructure.leeds.ac.uk</t>
-  </si>
-  <si>
-    <t>www.doc.gold.ac.uk</t>
-  </si>
-  <si>
-    <t>www.pureintrawise.org</t>
-  </si>
-  <si>
-    <t>fowlercorpora.readthedocs.org</t>
-  </si>
-  <si>
-    <t>www.bluegreencities.ac.uk</t>
-  </si>
-  <si>
-    <t>www.bone-finder.com</t>
-  </si>
-  <si>
-    <t>www.domeproject.org.uk</t>
-  </si>
-  <si>
-    <t>www.labtrove.org</t>
-  </si>
-  <si>
-    <t>www.qappsonline.com</t>
-  </si>
-  <si>
-    <t>www.brighton.ac.uk</t>
-  </si>
-  <si>
-    <t>crowdcrafting.org</t>
-  </si>
-  <si>
-    <t>www.ncl.ac.uk</t>
-  </si>
-  <si>
-    <t>copperdroid.isg.rhul.ac.uk</t>
-  </si>
-  <si>
-    <t>www.opendesk.cc</t>
-  </si>
-  <si>
-    <t>business.liftshare.com</t>
-  </si>
-  <si>
-    <t>ritweb.cloudapp.net:8080</t>
-  </si>
-  <si>
-    <t>www.oerc.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>www.stats.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>www.gowsb.com</t>
-  </si>
-  <si>
-    <t>www.w3.org</t>
-  </si>
-  <si>
-    <t>researchobject.org</t>
-  </si>
-  <si>
-    <t>epistruct.sourceforge.net</t>
-  </si>
-  <si>
-    <t>www.smart-ebikes.com</t>
-  </si>
-  <si>
-    <t>designaday.fairphone-open.com</t>
-  </si>
-  <si>
-    <t>www.k-wave.org</t>
-  </si>
-  <si>
-    <t>www.gaussianprocess.org</t>
-  </si>
-  <si>
-    <t>phpsemantics.org</t>
-  </si>
-  <si>
-    <t>staff.aist.go.jp</t>
-  </si>
-  <si>
-    <t>netwiki.amath.unc.edu</t>
-  </si>
-  <si>
-    <t>www.enrichnet.org</t>
-  </si>
-  <si>
-    <t>web4.cs.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>www.designingourtomorrow.com</t>
-  </si>
-  <si>
-    <t>www.commnet.ac.uk</t>
-  </si>
-  <si>
-    <t>www.sciencedaily.com</t>
-  </si>
-  <si>
-    <t>www.seniorscycle.co.uk</t>
-  </si>
-  <si>
-    <t>simpleware.com</t>
-  </si>
-  <si>
-    <t>smtcomp.sourceforge.net</t>
-  </si>
-  <si>
-    <t>www.scc.lancs.ac.uk</t>
-  </si>
-  <si>
-    <t>www.hpc-diversity.ac.uk</t>
-  </si>
-  <si>
-    <t>op2.github.io</t>
-  </si>
-  <si>
-    <t>www.tntgo.org</t>
-  </si>
-  <si>
-    <t>wanderanywhere.com</t>
-  </si>
-  <si>
-    <t>www.jstarverifier.org</t>
-  </si>
-  <si>
-    <t>elk.sourceforge.net</t>
-  </si>
-  <si>
-    <t>projectglobalview.blogspot.co.uk</t>
-  </si>
-  <si>
-    <t>www.footmiles.org</t>
-  </si>
-  <si>
-    <t>www.hande.org.uk</t>
   </si>
   <si>
     <t>Year First Provided</t>
@@ -5696,6 +5697,3142 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B390"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/researchfish_results.xlsx
+++ b/data/researchfish_results.xlsx
@@ -17,357 +17,1026 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
   <si>
     <t>Open Source?</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No response</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>RO</t>
   </si>
   <si>
     <t>Imperial College London (ICL)</t>
   </si>
   <si>
+    <t>University College London (UCL)</t>
+  </si>
+  <si>
+    <t>University of Aberdeen</t>
+  </si>
+  <si>
+    <t>University of Nottingham</t>
+  </si>
+  <si>
+    <t>University of Oxford</t>
+  </si>
+  <si>
+    <t>University of Bristol</t>
+  </si>
+  <si>
+    <t>University of Warwick</t>
+  </si>
+  <si>
+    <t>University of Cambridge</t>
+  </si>
+  <si>
+    <t>University of Southampton</t>
+  </si>
+  <si>
+    <t>Queen Mary University of London (QMUL)</t>
+  </si>
+  <si>
+    <t>Loughborough University</t>
+  </si>
+  <si>
+    <t>University of Manchester</t>
+  </si>
+  <si>
+    <t>University of Sheffield</t>
+  </si>
+  <si>
+    <t>University of Edinburgh</t>
+  </si>
+  <si>
+    <t>Lancaster University</t>
+  </si>
+  <si>
+    <t>Brunel University</t>
+  </si>
+  <si>
+    <t>STFC Laboratories</t>
+  </si>
+  <si>
+    <t>University of Birmingham</t>
+  </si>
+  <si>
+    <t>University of St Andrews</t>
+  </si>
+  <si>
     <t>University of Leeds</t>
   </si>
   <si>
-    <t>University of Cambridge</t>
-  </si>
-  <si>
-    <t>University of Birmingham</t>
-  </si>
-  <si>
     <t>University of Surrey</t>
   </si>
   <si>
-    <t>University College London (UCL)</t>
-  </si>
-  <si>
-    <t>University of Sheffield</t>
+    <t>Heriot-Watt University</t>
+  </si>
+  <si>
+    <t>University of York</t>
+  </si>
+  <si>
+    <t>University of Bath</t>
+  </si>
+  <si>
+    <t>Queen's University of Belfast</t>
+  </si>
+  <si>
+    <t>University of Dundee</t>
+  </si>
+  <si>
+    <t>King's College London (KCL)</t>
+  </si>
+  <si>
+    <t>University of Glasgow</t>
+  </si>
+  <si>
+    <t>University of Salford</t>
+  </si>
+  <si>
+    <t>Swansea University</t>
+  </si>
+  <si>
+    <t>Newcastle University</t>
+  </si>
+  <si>
+    <t>University of Plymouth</t>
+  </si>
+  <si>
+    <t>De Montfort University</t>
+  </si>
+  <si>
+    <t>Royal Holloway, University of London</t>
+  </si>
+  <si>
+    <t>University of Huddersfield</t>
+  </si>
+  <si>
+    <t>Durham University</t>
+  </si>
+  <si>
+    <t>University of Liverpool</t>
+  </si>
+  <si>
+    <t>City University London</t>
+  </si>
+  <si>
+    <t>University of Strathclyde</t>
+  </si>
+  <si>
+    <t>London School of Economics and Political Science (University of London)</t>
   </si>
   <si>
     <t>Cranfield University</t>
   </si>
   <si>
-    <t>University of Nottingham</t>
-  </si>
-  <si>
-    <t>Loughborough University</t>
+    <t>University of Exeter</t>
+  </si>
+  <si>
+    <t>Coventry University</t>
+  </si>
+  <si>
+    <t>University of Leicester</t>
+  </si>
+  <si>
+    <t>University of Ulster</t>
+  </si>
+  <si>
+    <t>University of Brighton</t>
+  </si>
+  <si>
+    <t>Open University</t>
+  </si>
+  <si>
+    <t>Edinburgh Napier University</t>
+  </si>
+  <si>
+    <t>University of Sussex</t>
+  </si>
+  <si>
+    <t>University of Lincoln</t>
+  </si>
+  <si>
+    <t>University of Kent</t>
+  </si>
+  <si>
+    <t>Edinburgh College of Art (ECA)</t>
+  </si>
+  <si>
+    <t>University of Portsmouth</t>
+  </si>
+  <si>
+    <t>Birkbeck College</t>
+  </si>
+  <si>
+    <t>University of Bradford</t>
+  </si>
+  <si>
+    <t>University of Northumbria</t>
   </si>
   <si>
     <t>Cardiff University</t>
   </si>
   <si>
-    <t>Durham University</t>
-  </si>
-  <si>
-    <t>University of Bristol</t>
-  </si>
-  <si>
-    <t>Lancaster University</t>
-  </si>
-  <si>
-    <t>University of Oxford</t>
-  </si>
-  <si>
-    <t>University of Southampton</t>
-  </si>
-  <si>
-    <t>University of Manchester</t>
-  </si>
-  <si>
-    <t>Queen's University of Belfast</t>
-  </si>
-  <si>
-    <t>University of York</t>
-  </si>
-  <si>
-    <t>School of Pharmacy</t>
-  </si>
-  <si>
-    <t>University of Salford</t>
-  </si>
-  <si>
-    <t>Heriot-Watt University</t>
-  </si>
-  <si>
-    <t>University of Aberdeen</t>
-  </si>
-  <si>
-    <t>King's College London (KCL)</t>
-  </si>
-  <si>
-    <t>University of Strathclyde</t>
-  </si>
-  <si>
-    <t>University of Liverpool</t>
+    <t>University of Bedfordshire</t>
+  </si>
+  <si>
+    <t>University of Hull</t>
+  </si>
+  <si>
+    <t>Goldsmiths, University of London</t>
   </si>
   <si>
     <t>University of Central Lancashire</t>
   </si>
   <si>
-    <t>Queen Mary University of London (QMUL)</t>
-  </si>
-  <si>
-    <t>City University London</t>
+    <t>University of Greenwich</t>
   </si>
   <si>
     <t>Institute of Education</t>
   </si>
   <si>
-    <t>University of Warwick</t>
-  </si>
-  <si>
-    <t>Institute of Cancer Research UK (ICR)</t>
-  </si>
-  <si>
-    <t>University of Reading</t>
-  </si>
-  <si>
-    <t>University of the West of Scotland</t>
-  </si>
-  <si>
-    <t>Newcastle University</t>
-  </si>
-  <si>
-    <t>University of Portsmouth</t>
-  </si>
-  <si>
-    <t>University of Bath</t>
-  </si>
-  <si>
-    <t>University of Bradford</t>
-  </si>
-  <si>
-    <t>University of Glasgow</t>
-  </si>
-  <si>
-    <t>University of Dundee</t>
-  </si>
-  <si>
-    <t>University of Glamorgan</t>
-  </si>
-  <si>
-    <t>Nottingham Trent University</t>
-  </si>
-  <si>
-    <t>University of Exeter</t>
-  </si>
-  <si>
-    <t>University of the West of England</t>
-  </si>
-  <si>
-    <t>University of Kent</t>
-  </si>
-  <si>
-    <t>University of Edinburgh</t>
-  </si>
-  <si>
-    <t>Brunel University</t>
-  </si>
-  <si>
-    <t>University of Westminster</t>
-  </si>
-  <si>
-    <t>University of Plymouth</t>
-  </si>
-  <si>
-    <t>DIAMOND Light Source Ltd</t>
-  </si>
-  <si>
-    <t>University of St Andrews</t>
+    <t>University of the Arts London</t>
   </si>
   <si>
     <t>University of Essex</t>
   </si>
   <si>
-    <t>Goldsmiths, University of London</t>
-  </si>
-  <si>
-    <t>Royal College of Art</t>
+    <t>University of Stirling</t>
   </si>
   <si>
     <t>rootdomains</t>
   </si>
   <si>
-    <t>www.loxhamprecision.com</t>
-  </si>
-  <si>
-    <t>www.inclusivedesigntoolkit.com</t>
-  </si>
-  <si>
-    <t>www.bruker.com</t>
-  </si>
-  <si>
-    <t>www-smartinfrastructure.eng.cam.ac.uk</t>
+    <t>github.com</t>
+  </si>
+  <si>
+    <t>cran.r-project.org</t>
+  </si>
+  <si>
+    <t>bitbucket.org</t>
+  </si>
+  <si>
+    <t>www.pyfr.org</t>
+  </si>
+  <si>
+    <t>www.hecbiosim.ac.uk</t>
+  </si>
+  <si>
+    <t>itunes.apple.com</t>
+  </si>
+  <si>
+    <t>depic.eecs.qmul.ac.uk</t>
+  </si>
+  <si>
+    <t>dx.doi.org</t>
+  </si>
+  <si>
+    <t>www.hsl.rl.ac.uk</t>
+  </si>
+  <si>
+    <t>ccpforge.cse.rl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.cs.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>www.youtube.com</t>
+  </si>
+  <si>
+    <t>srg.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>gate.ac.uk</t>
+  </si>
+  <si>
+    <t>www.sixthsensetransport.com</t>
+  </si>
+  <si>
+    <t>staff.computing.dundee.ac.uk</t>
+  </si>
+  <si>
+    <t>sites.google.com</t>
+  </si>
+  <si>
+    <t>sourceforge.net</t>
+  </si>
+  <si>
+    <t>code.soundsoftware.ac.uk</t>
+  </si>
+  <si>
+    <t>www2.warwick.ac.uk</t>
+  </si>
+  <si>
+    <t>play.google.com</t>
+  </si>
+  <si>
+    <t>greendoors.cs.bris.ac.uk</t>
+  </si>
+  <si>
+    <t>www.tech.dmu.ac.uk</t>
+  </si>
+  <si>
+    <t>www.tom-ridge.com</t>
+  </si>
+  <si>
+    <t>www.gap-system.org</t>
+  </si>
+  <si>
+    <t>pure.abdn.ac.uk:8080</t>
+  </si>
+  <si>
+    <t>www.eecs.qmul.ac.uk</t>
+  </si>
+  <si>
+    <t>www.robots.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>ico2s.org</t>
+  </si>
+  <si>
+    <t>goo.gl</t>
+  </si>
+  <si>
+    <t>www.github.com</t>
+  </si>
+  <si>
+    <t>staff.cs.manchester.ac.uk</t>
+  </si>
+  <si>
+    <t>www.firedrakeproject.org</t>
+  </si>
+  <si>
+    <t>users.ecs.soton.ac.uk</t>
+  </si>
+  <si>
+    <t>eiis.co.uk</t>
+  </si>
+  <si>
+    <t>www.lifemirror.org</t>
+  </si>
+  <si>
+    <t>ssi-amrmmhd.epcc.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>users.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>vas.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>astro-informatics.github.io</t>
+  </si>
+  <si>
+    <t>www.scd.stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>www.bempp.org</t>
+  </si>
+  <si>
+    <t>193.61.148.237</t>
+  </si>
+  <si>
+    <t>www-wales.ch.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>www.aiai.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>pypi.python.org</t>
+  </si>
+  <si>
+    <t>stir.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.castep.org</t>
+  </si>
+  <si>
+    <t>gitlab.com</t>
+  </si>
+  <si>
+    <t>www.dual.sphysics.org</t>
+  </si>
+  <si>
+    <t>www.ccpsas.org</t>
+  </si>
+  <si>
+    <t>www.louisaslett.com</t>
+  </si>
+  <si>
+    <t>www.menpo.org</t>
+  </si>
+  <si>
+    <t>www.cs.bham.ac.uk</t>
+  </si>
+  <si>
+    <t>www.cs.kent.ac.uk</t>
+  </si>
+  <si>
+    <t>cmictig.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>powkist.abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>sleepful.me</t>
+  </si>
+  <si>
+    <t>www.imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>www.onetep.org</t>
+  </si>
+  <si>
+    <t>mloss.org</t>
+  </si>
+  <si>
+    <t>soft-dev.org</t>
+  </si>
+  <si>
+    <t>www.maths.dur.ac.uk</t>
+  </si>
+  <si>
+    <t>reaction-networks.net</t>
+  </si>
+  <si>
+    <t>www0.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>code.google.com</t>
+  </si>
+  <si>
+    <t>chaste.cs.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>mi.eng.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>www.dnald.org</t>
+  </si>
+  <si>
+    <t>eprints.hud.ac.uk</t>
+  </si>
+  <si>
+    <t>www.smarthomeframework.ecs.soton.ac.uk</t>
+  </si>
+  <si>
+    <t>link.springer.com</t>
+  </si>
+  <si>
+    <t>www.acousticsensing.co.uk</t>
+  </si>
+  <si>
+    <t>www.manageplaces.com</t>
+  </si>
+  <si>
+    <t>safecap.sourceforge.net</t>
+  </si>
+  <si>
+    <t>qub.ac.uk</t>
+  </si>
+  <si>
+    <t>cp2k.org</t>
+  </si>
+  <si>
+    <t>cowl.ws</t>
+  </si>
+  <si>
+    <t>www.adaptivearchitectureframework.org</t>
+  </si>
+  <si>
+    <t>www.tntgo.org</t>
+  </si>
+  <si>
+    <t>groups.inf.ed.ac.uk</t>
   </si>
   <si>
     <t>langsrv.astro.cf.ac.uk</t>
   </si>
   <si>
-    <t>www.cardiff.ac.uk</t>
-  </si>
-  <si>
-    <t>catalystproject.co.uk</t>
-  </si>
-  <si>
-    <t>www.esru.strath.ac.uk</t>
-  </si>
-  <si>
-    <t>www.click2go.umip.com</t>
+    <t>wanderanywhere.com</t>
+  </si>
+  <si>
+    <t>designaday.fairphone-open.com</t>
+  </si>
+  <si>
+    <t>www.ccpbiosim.ac.uk</t>
+  </si>
+  <si>
+    <t>dolfin-adjoint.org</t>
+  </si>
+  <si>
+    <t>www.ccpnc.ac.uk</t>
+  </si>
+  <si>
+    <t>www.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>constraintmodelling.org</t>
+  </si>
+  <si>
+    <t>cmic.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.informatics.sussex.ac.uk</t>
+  </si>
+  <si>
+    <t>www.incompact3d.com</t>
+  </si>
+  <si>
+    <t>cs.bham.ac.uk</t>
+  </si>
+  <si>
+    <t>smtcomp.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.cstr.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>varoudis.github.io</t>
+  </si>
+  <si>
+    <t>www.footmiles.org</t>
+  </si>
+  <si>
+    <t>www2.tcm.phy.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>dylan.sf.net</t>
+  </si>
+  <si>
+    <t>www.ihs.com</t>
+  </si>
+  <si>
+    <t>www.evosuite.org</t>
+  </si>
+  <si>
+    <t>www.lets-explore.com</t>
+  </si>
+  <si>
+    <t>ourbigportrait.com</t>
+  </si>
+  <si>
+    <t>www.oerc.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>www.webasr.org</t>
+  </si>
+  <si>
+    <t>www.epcc.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>epistruct.sourceforge.net</t>
+  </si>
+  <si>
+    <t>pele-python.github.io</t>
+  </si>
+  <si>
+    <t>creators.woodworks.org.uk</t>
+  </si>
+  <si>
+    <t>www.phon.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>homepages.abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>keyfort.co.uk</t>
+  </si>
+  <si>
+    <t>www.sciencedaily.com</t>
+  </si>
+  <si>
+    <t>www.essexgroup.soton.ac.uk</t>
+  </si>
+  <si>
+    <t>www.bgs.ac.uk</t>
+  </si>
+  <si>
+    <t>www.hande.org.uk</t>
+  </si>
+  <si>
+    <t>op2.github.io</t>
+  </si>
+  <si>
+    <t>tulip.lenhardt.co.uk</t>
+  </si>
+  <si>
+    <t>www.numerical.rl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.dune-project.org</t>
+  </si>
+  <si>
+    <t>thespace.org</t>
+  </si>
+  <si>
+    <t>www.hud.ac.uk</t>
+  </si>
+  <si>
+    <t>www.hpc-diversity.ac.uk</t>
+  </si>
+  <si>
+    <t>simpleware.com</t>
+  </si>
+  <si>
+    <t>www.lboro.ac.uk</t>
+  </si>
+  <si>
+    <t>lat.inf.tu-dresden.de</t>
+  </si>
+  <si>
+    <t>www.siremol.org</t>
+  </si>
+  <si>
+    <t>www.seniorscycle.co.uk</t>
+  </si>
+  <si>
+    <t>opus.bath.ac.uk</t>
+  </si>
+  <si>
+    <t>datadryad.org</t>
+  </si>
+  <si>
+    <t>www.mendeley.com</t>
+  </si>
+  <si>
+    <t>www.openbsd.org</t>
+  </si>
+  <si>
+    <t>dna.physics.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>homepages.warwick.ac.uk</t>
+  </si>
+  <si>
+    <t>r-forge.r-project.org</t>
+  </si>
+  <si>
+    <t>gitlab.dune-project.org</t>
+  </si>
+  <si>
+    <t>www.optados.org</t>
+  </si>
+  <si>
+    <t>www.brighton.ac.uk</t>
+  </si>
+  <si>
+    <t>platform.carbonculture.net</t>
+  </si>
+  <si>
+    <t>hackage.haskell.org</t>
+  </si>
+  <si>
+    <t>sentinet.abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>llama.leeds.ac.uk</t>
+  </si>
+  <si>
+    <t>www.comob.org.uk</t>
+  </si>
+  <si>
+    <t>imagination.lancs.ac.uk</t>
+  </si>
+  <si>
+    <t>reality.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.mad4nrg.org</t>
+  </si>
+  <si>
+    <t>copperdroid.isg.rhul.ac.uk</t>
+  </si>
+  <si>
+    <t>www.gridcarbon.uk</t>
+  </si>
+  <si>
+    <t>emboeditor.herokuapp.com</t>
+  </si>
+  <si>
+    <t>www.cs.swan.ac.uk</t>
+  </si>
+  <si>
+    <t>projectglobalview.blogspot.co.uk</t>
+  </si>
+  <si>
+    <t>www.justimed.com</t>
+  </si>
+  <si>
+    <t>business.liftshare.com</t>
+  </si>
+  <si>
+    <t>htk.eng.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>hts.sp.nitech.ac.jp</t>
+  </si>
+  <si>
+    <t>www.tractor-mri.org.uk</t>
+  </si>
+  <si>
+    <t>extasy-project.org</t>
+  </si>
+  <si>
+    <t>kidney.optimalmatching.com</t>
+  </si>
+  <si>
+    <t>www.dwrc.surrey.ac.uk</t>
+  </si>
+  <si>
+    <t>www.responsible-innovation.org.uk</t>
+  </si>
+  <si>
+    <t>www.walkingthroughtime.co.uk</t>
+  </si>
+  <si>
+    <t>switchoff.nus.org.uk</t>
+  </si>
+  <si>
+    <t>thesharcproject.wordpress.com</t>
+  </si>
+  <si>
+    <t>cshore.cs.rhul.ac.uk</t>
+  </si>
+  <si>
+    <t>www.bluegreencities.ac.uk</t>
+  </si>
+  <si>
+    <t>vprover.org</t>
+  </si>
+  <si>
+    <t>hive.chem.ucl.ac.uk:8080</t>
+  </si>
+  <si>
+    <t>fowlercorpora.readthedocs.org</t>
+  </si>
+  <si>
+    <t>www.defensivejs.com</t>
+  </si>
+  <si>
+    <t>myhealthavatar.org</t>
+  </si>
+  <si>
+    <t>shelflife.oxfam.org.uk</t>
+  </si>
+  <si>
+    <t>www.urban-futures.org</t>
+  </si>
+  <si>
+    <t>prosecco.gforge.inria.fr</t>
+  </si>
+  <si>
+    <t>crowdcrafting.org</t>
+  </si>
+  <si>
+    <t>www.quantmedia.org</t>
+  </si>
+  <si>
+    <t>oss.deltares.nl</t>
+  </si>
+  <si>
+    <t>spindynamics.org</t>
+  </si>
+  <si>
+    <t>web4.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.healthymindapp.org</t>
+  </si>
+  <si>
+    <t>www.ccp5.ac.uk</t>
+  </si>
+  <si>
+    <t>zoonproject.wordpress.com</t>
+  </si>
+  <si>
+    <t>browseraudit.com</t>
+  </si>
+  <si>
+    <t>www2.eng.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>www.xtl.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>www.ngenics.com</t>
+  </si>
+  <si>
+    <t>www.prismmodelchecker.org</t>
+  </si>
+  <si>
+    <t>www.digitalprosumer.co.uk</t>
+  </si>
+  <si>
+    <t>hannahfry.co.uk</t>
+  </si>
+  <si>
+    <t>www.warwick.ac.uk</t>
+  </si>
+  <si>
+    <t>www.hydraplatform.org</t>
+  </si>
+  <si>
+    <t>www.webcitation.org</t>
+  </si>
+  <si>
+    <t>cruncher.ncl.ac.uk</t>
+  </si>
+  <si>
+    <t>reflect-esm-dev.lancs.ac.uk</t>
+  </si>
+  <si>
+    <t>elk.sourceforge.net</t>
+  </si>
+  <si>
+    <t>workspace.imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>mriphysics.github.io</t>
+  </si>
+  <si>
+    <t>line-solver.sourceforge.net</t>
+  </si>
+  <si>
+    <t>visual.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>savilerow.cs.st-andrews.ac.uk</t>
+  </si>
+  <si>
+    <t>lucmoreau.github.io</t>
+  </si>
+  <si>
+    <t>www.qappsonline.com</t>
+  </si>
+  <si>
+    <t>www.stats.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>chrome.google.com</t>
+  </si>
+  <si>
+    <t>stchem.bham.ac.uk</t>
   </si>
   <si>
     <t>www.csrf.ac.uk</t>
   </si>
   <si>
-    <t>www.adsenv.com</t>
-  </si>
-  <si>
-    <t>www.acousticsensing.co.uk</t>
+    <t>journals.plos.org</t>
+  </si>
+  <si>
+    <t>www.gowsb.com</t>
+  </si>
+  <si>
+    <t>www.n8equipment.prg.uk</t>
+  </si>
+  <si>
+    <t>www.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>eecs.qmul.ac.uk</t>
+  </si>
+  <si>
+    <t>www.mettel-prover.org</t>
+  </si>
+  <si>
+    <t>www.coin-or.org</t>
+  </si>
+  <si>
+    <t>www.commnet.ac.uk</t>
+  </si>
+  <si>
+    <t>sure-infrastructure.leeds.ac.uk</t>
+  </si>
+  <si>
+    <t>bimpa.group.shef.ac.uk</t>
   </si>
   <si>
     <t>maptraits.wordpress.com</t>
   </si>
   <si>
-    <t>crcns.org</t>
-  </si>
-  <si>
-    <t>watchitmade.org</t>
-  </si>
-  <si>
-    <t>thesharcproject.wordpress.com</t>
-  </si>
-  <si>
-    <t>www.scc.lancs.ac.uk</t>
-  </si>
-  <si>
-    <t>jmlr.csail.mit.edu</t>
-  </si>
-  <si>
-    <t>eavi.goldsmithsdigital.com</t>
-  </si>
-  <si>
-    <t>orchidproject.github.io</t>
-  </si>
-  <si>
-    <t>play.google.com</t>
-  </si>
-  <si>
-    <t>eis.comp.lancs.ac.uk</t>
-  </si>
-  <si>
-    <t>onlinelibrary.wiley.com</t>
-  </si>
-  <si>
-    <t>www.epcc.ed.ac.uk</t>
-  </si>
-  <si>
-    <t>researchobject.org</t>
-  </si>
-  <si>
-    <t>www.designingourtomorrow.com</t>
+    <t>vallico.new</t>
+  </si>
+  <si>
+    <t>www.enrichnet.org</t>
+  </si>
+  <si>
+    <t>smartelectricity.io</t>
+  </si>
+  <si>
+    <t>theswo.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.deft-whois.org</t>
+  </si>
+  <si>
+    <t>VGeST.net</t>
+  </si>
+  <si>
+    <t>app-movement.com</t>
+  </si>
+  <si>
+    <t>www.taverna.org.uk</t>
+  </si>
+  <si>
+    <t>www.software.ac.uk</t>
+  </si>
+  <si>
+    <t>groups.physics.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>youtu.be</t>
+  </si>
+  <si>
+    <t>kurlin.org</t>
+  </si>
+  <si>
+    <t>www.k-wave.org</t>
+  </si>
+  <si>
+    <t>139.133.232.16</t>
+  </si>
+  <si>
+    <t>netlab.dcs.gla.ac.uk</t>
+  </si>
+  <si>
+    <t>phpsemantics.org</t>
+  </si>
+  <si>
+    <t>www.edx.org</t>
+  </si>
+  <si>
+    <t>www.homepages.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>netwiki.amath.unc.edu</t>
+  </si>
+  <si>
+    <t>Vgest.net</t>
+  </si>
+  <si>
+    <t>empslocal.ex.ac.uk</t>
+  </si>
+  <si>
+    <t>www.bioconductor.org</t>
+  </si>
+  <si>
+    <t>www.cp2k.org</t>
+  </si>
+  <si>
+    <t>www.well-sorted.org</t>
+  </si>
+  <si>
+    <t>ova.arg-tech.org</t>
+  </si>
+  <si>
+    <t>easy-m.io</t>
+  </si>
+  <si>
+    <t>blog.debroglie.net</t>
+  </si>
+  <si>
+    <t>www.bone-finder.com</t>
+  </si>
+  <si>
+    <t>www.biospi.org</t>
+  </si>
+  <si>
+    <t>emotionsense.org</t>
+  </si>
+  <si>
+    <t>www.dnvgl.com</t>
+  </si>
+  <si>
+    <t>www.handyurbansolutions.com</t>
+  </si>
+  <si>
+    <t>homepages.cs.ncl.ac.uk</t>
+  </si>
+  <si>
+    <t>vallico.net</t>
+  </si>
+  <si>
+    <t>www.nektar.info</t>
+  </si>
+  <si>
+    <t>www.sadie-project.co.uk</t>
   </si>
   <si>
     <t>www.cl.cam.ac.uk</t>
   </si>
   <si>
-    <t>eprints.soton.ac.uk</t>
-  </si>
-  <si>
-    <t>tinyurl.com</t>
-  </si>
-  <si>
-    <t>www.biral.com</t>
-  </si>
-  <si>
-    <t>www.erg.abdn.ac.uk</t>
-  </si>
-  <si>
-    <t>www.openpipeflow.org</t>
-  </si>
-  <si>
-    <t>biorefinerydesign.webs.com</t>
-  </si>
-  <si>
-    <t>www.cs.bris.ac.uk</t>
-  </si>
-  <si>
-    <t>www.comp.lancs.ac.uk</t>
-  </si>
-  <si>
-    <t>openaccess.city.ac.uk</t>
-  </si>
-  <si>
-    <t>www.opendesk.cc</t>
-  </si>
-  <si>
-    <t>www.bristol.ac.uk</t>
-  </si>
-  <si>
-    <t>revizto.com</t>
-  </si>
-  <si>
-    <t>digitalintermediarytoolkit.wordpress.com</t>
-  </si>
-  <si>
-    <t>www.w3.org</t>
-  </si>
-  <si>
-    <t>syrris.com</t>
-  </si>
-  <si>
-    <t>www.scolan.eu</t>
-  </si>
-  <si>
-    <t>dx.doi.org</t>
-  </si>
-  <si>
-    <t>www.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>github.com</t>
-  </si>
-  <si>
-    <t>www.mehrdadya.com</t>
-  </si>
-  <si>
-    <t>urbanfloodmodel.wordpress.com</t>
-  </si>
-  <si>
-    <t>www.birmingham.ac.uk</t>
-  </si>
-  <si>
-    <t>www.imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>www.york.ac.uk</t>
-  </si>
-  <si>
-    <t>www.motorship.com</t>
+    <t>lsds.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>www.solar.sheffield.ac.uk</t>
+  </si>
+  <si>
+    <t>www.macs.hw.ac.uk</t>
+  </si>
+  <si>
+    <t>bela.io</t>
+  </si>
+  <si>
+    <t>www.smart-ebikes.com</t>
+  </si>
+  <si>
+    <t>www.isophonics.net</t>
+  </si>
+  <si>
+    <t>gvgai.net</t>
+  </si>
+  <si>
+    <t>muxviz.net</t>
+  </si>
+  <si>
+    <t>multicore.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>www.bath.ac.uk</t>
+  </si>
+  <si>
+    <t>ritweb.cloudapp.net:8080</t>
+  </si>
+  <si>
+    <t>www.jqc.org.uk</t>
+  </si>
+  <si>
+    <t>bugseng.com</t>
+  </si>
+  <si>
+    <t>www.doc.gold.ac.uk</t>
   </si>
   <si>
     <t>Year First Provided</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
   </si>
   <si>
     <t>2012</t>
@@ -731,7 +1400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,7 +1418,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>388</v>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +1448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,438 +1458,534 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>58</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1219,7 +2000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1229,422 +2010,2142 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1659,7 +4160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1669,95 +4170,47 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>340</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>341</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>342</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>343</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>344</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/researchfish_results.xlsx
+++ b/data/researchfish_results.xlsx
@@ -17,20 +17,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
   <si>
     <t>Open Source?</t>
   </si>
   <si>
+    <t>percentage</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>No response</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>RO</t>
   </si>
   <si>
@@ -79,15 +82,15 @@
     <t>Lancaster University</t>
   </si>
   <si>
+    <t>STFC Laboratories</t>
+  </si>
+  <si>
+    <t>University of Birmingham</t>
+  </si>
+  <si>
     <t>Brunel University</t>
   </si>
   <si>
-    <t>STFC Laboratories</t>
-  </si>
-  <si>
-    <t>University of Birmingham</t>
-  </si>
-  <si>
     <t>University of St Andrews</t>
   </si>
   <si>
@@ -103,135 +106,135 @@
     <t>University of York</t>
   </si>
   <si>
+    <t>King's College London (KCL)</t>
+  </si>
+  <si>
+    <t>Queen's University of Belfast</t>
+  </si>
+  <si>
+    <t>University of Dundee</t>
+  </si>
+  <si>
     <t>University of Bath</t>
   </si>
   <si>
-    <t>Queen's University of Belfast</t>
-  </si>
-  <si>
-    <t>University of Dundee</t>
-  </si>
-  <si>
-    <t>King's College London (KCL)</t>
+    <t>University of Salford</t>
   </si>
   <si>
     <t>University of Glasgow</t>
   </si>
   <si>
-    <t>University of Salford</t>
-  </si>
-  <si>
     <t>Swansea University</t>
   </si>
   <si>
     <t>Newcastle University</t>
   </si>
   <si>
+    <t>De Montfort University</t>
+  </si>
+  <si>
+    <t>University of Huddersfield</t>
+  </si>
+  <si>
     <t>University of Plymouth</t>
   </si>
   <si>
-    <t>De Montfort University</t>
-  </si>
-  <si>
     <t>Royal Holloway, University of London</t>
   </si>
   <si>
-    <t>University of Huddersfield</t>
+    <t>University of Liverpool</t>
   </si>
   <si>
     <t>Durham University</t>
   </si>
   <si>
-    <t>University of Liverpool</t>
+    <t>University of Strathclyde</t>
   </si>
   <si>
     <t>City University London</t>
   </si>
   <si>
-    <t>University of Strathclyde</t>
-  </si>
-  <si>
     <t>London School of Economics and Political Science (University of London)</t>
   </si>
   <si>
+    <t>University of Exeter</t>
+  </si>
+  <si>
     <t>Cranfield University</t>
   </si>
   <si>
-    <t>University of Exeter</t>
+    <t>University of Brighton</t>
   </si>
   <si>
     <t>Coventry University</t>
   </si>
   <si>
+    <t>University of Sussex</t>
+  </si>
+  <si>
+    <t>University of Ulster</t>
+  </si>
+  <si>
     <t>University of Leicester</t>
   </si>
   <si>
-    <t>University of Ulster</t>
-  </si>
-  <si>
-    <t>University of Brighton</t>
+    <t>Edinburgh Napier University</t>
+  </si>
+  <si>
+    <t>University of Lincoln</t>
+  </si>
+  <si>
+    <t>University of Kent</t>
   </si>
   <si>
     <t>Open University</t>
   </si>
   <si>
-    <t>Edinburgh Napier University</t>
-  </si>
-  <si>
-    <t>University of Sussex</t>
-  </si>
-  <si>
-    <t>University of Lincoln</t>
-  </si>
-  <si>
-    <t>University of Kent</t>
+    <t>University of Northumbria</t>
   </si>
   <si>
     <t>Edinburgh College of Art (ECA)</t>
   </si>
   <si>
+    <t>Birkbeck College</t>
+  </si>
+  <si>
     <t>University of Portsmouth</t>
   </si>
   <si>
-    <t>Birkbeck College</t>
-  </si>
-  <si>
     <t>University of Bradford</t>
   </si>
   <si>
-    <t>University of Northumbria</t>
+    <t>University of Hull</t>
+  </si>
+  <si>
+    <t>Goldsmiths, University of London</t>
+  </si>
+  <si>
+    <t>University of the Arts London</t>
   </si>
   <si>
     <t>Cardiff University</t>
   </si>
   <si>
+    <t>University of Central Lancashire</t>
+  </si>
+  <si>
+    <t>University of Greenwich</t>
+  </si>
+  <si>
+    <t>Institute of Education</t>
+  </si>
+  <si>
+    <t>University of Stirling</t>
+  </si>
+  <si>
+    <t>University of Essex</t>
+  </si>
+  <si>
     <t>University of Bedfordshire</t>
   </si>
   <si>
-    <t>University of Hull</t>
-  </si>
-  <si>
-    <t>Goldsmiths, University of London</t>
-  </si>
-  <si>
-    <t>University of Central Lancashire</t>
-  </si>
-  <si>
-    <t>University of Greenwich</t>
-  </si>
-  <si>
-    <t>Institute of Education</t>
-  </si>
-  <si>
-    <t>University of the Arts London</t>
-  </si>
-  <si>
-    <t>University of Essex</t>
-  </si>
-  <si>
-    <t>University of Stirling</t>
-  </si>
-  <si>
     <t>rootdomains</t>
   </si>
   <si>
@@ -259,781 +262,781 @@
     <t>dx.doi.org</t>
   </si>
   <si>
+    <t>ccpforge.cse.rl.ac.uk</t>
+  </si>
+  <si>
     <t>www.hsl.rl.ac.uk</t>
   </si>
   <si>
-    <t>ccpforge.cse.rl.ac.uk</t>
+    <t>www.youtube.com</t>
   </si>
   <si>
     <t>www.cs.ox.ac.uk</t>
   </si>
   <si>
-    <t>www.youtube.com</t>
+    <t>sourceforge.net</t>
+  </si>
+  <si>
+    <t>gate.ac.uk</t>
   </si>
   <si>
     <t>srg.doc.ic.ac.uk</t>
   </si>
   <si>
-    <t>gate.ac.uk</t>
-  </si>
-  <si>
     <t>www.sixthsensetransport.com</t>
   </si>
   <si>
+    <t>sites.google.com</t>
+  </si>
+  <si>
     <t>staff.computing.dundee.ac.uk</t>
   </si>
   <si>
-    <t>sites.google.com</t>
-  </si>
-  <si>
-    <t>sourceforge.net</t>
+    <t>greendoors.cs.bris.ac.uk</t>
+  </si>
+  <si>
+    <t>play.google.com</t>
+  </si>
+  <si>
+    <t>www2.warwick.ac.uk</t>
   </si>
   <si>
     <t>code.soundsoftware.ac.uk</t>
   </si>
   <si>
-    <t>www2.warwick.ac.uk</t>
-  </si>
-  <si>
-    <t>play.google.com</t>
-  </si>
-  <si>
-    <t>greendoors.cs.bris.ac.uk</t>
-  </si>
-  <si>
     <t>www.tech.dmu.ac.uk</t>
   </si>
   <si>
+    <t>www.gap-system.org</t>
+  </si>
+  <si>
+    <t>www.robots.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>staff.cs.manchester.ac.uk</t>
+  </si>
+  <si>
+    <t>pure.abdn.ac.uk:8080</t>
+  </si>
+  <si>
+    <t>ico2s.org</t>
+  </si>
+  <si>
+    <t>www.firedrakeproject.org</t>
+  </si>
+  <si>
+    <t>goo.gl</t>
+  </si>
+  <si>
+    <t>www.eecs.qmul.ac.uk</t>
+  </si>
+  <si>
     <t>www.tom-ridge.com</t>
   </si>
   <si>
-    <t>www.gap-system.org</t>
-  </si>
-  <si>
-    <t>pure.abdn.ac.uk:8080</t>
-  </si>
-  <si>
-    <t>www.eecs.qmul.ac.uk</t>
-  </si>
-  <si>
-    <t>www.robots.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>ico2s.org</t>
-  </si>
-  <si>
-    <t>goo.gl</t>
-  </si>
-  <si>
     <t>www.github.com</t>
   </si>
   <si>
-    <t>staff.cs.manchester.ac.uk</t>
-  </si>
-  <si>
-    <t>www.firedrakeproject.org</t>
+    <t>www.menpo.org</t>
+  </si>
+  <si>
+    <t>www.ccpsas.org</t>
+  </si>
+  <si>
+    <t>www.louisaslett.com</t>
+  </si>
+  <si>
+    <t>eprints.hud.ac.uk</t>
+  </si>
+  <si>
+    <t>cmictig.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.cs.bham.ac.uk</t>
+  </si>
+  <si>
+    <t>mi.eng.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>www.cs.kent.ac.uk</t>
+  </si>
+  <si>
+    <t>www.lifemirror.org</t>
+  </si>
+  <si>
+    <t>gitlab.com</t>
+  </si>
+  <si>
+    <t>stir.sourceforge.net</t>
+  </si>
+  <si>
+    <t>www.imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>www.aiai.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>193.61.148.237</t>
+  </si>
+  <si>
+    <t>code.google.com</t>
+  </si>
+  <si>
+    <t>www.bempp.org</t>
+  </si>
+  <si>
+    <t>powkist.abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>www.castep.org</t>
+  </si>
+  <si>
+    <t>www0.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.dnald.org</t>
+  </si>
+  <si>
+    <t>www.maths.dur.ac.uk</t>
+  </si>
+  <si>
+    <t>eiis.co.uk</t>
+  </si>
+  <si>
+    <t>pypi.python.org</t>
+  </si>
+  <si>
+    <t>reaction-networks.net</t>
+  </si>
+  <si>
+    <t>www.onetep.org</t>
+  </si>
+  <si>
+    <t>astro-informatics.github.io</t>
+  </si>
+  <si>
+    <t>www-wales.ch.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>mloss.org</t>
+  </si>
+  <si>
+    <t>www.scd.stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>users.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>ssi-amrmmhd.epcc.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>vas.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>chaste.cs.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>sleepful.me</t>
   </si>
   <si>
     <t>users.ecs.soton.ac.uk</t>
   </si>
   <si>
-    <t>eiis.co.uk</t>
-  </si>
-  <si>
-    <t>www.lifemirror.org</t>
-  </si>
-  <si>
-    <t>ssi-amrmmhd.epcc.ed.ac.uk</t>
-  </si>
-  <si>
-    <t>users.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>vas.doc.ic.ac.uk</t>
-  </si>
-  <si>
-    <t>astro-informatics.github.io</t>
-  </si>
-  <si>
-    <t>www.scd.stfc.ac.uk</t>
-  </si>
-  <si>
-    <t>www.bempp.org</t>
-  </si>
-  <si>
-    <t>193.61.148.237</t>
-  </si>
-  <si>
-    <t>www-wales.ch.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>www.aiai.ed.ac.uk</t>
-  </si>
-  <si>
-    <t>pypi.python.org</t>
-  </si>
-  <si>
-    <t>stir.sourceforge.net</t>
-  </si>
-  <si>
-    <t>www.castep.org</t>
-  </si>
-  <si>
-    <t>gitlab.com</t>
+    <t>soft-dev.org</t>
   </si>
   <si>
     <t>www.dual.sphysics.org</t>
   </si>
   <si>
-    <t>www.ccpsas.org</t>
-  </si>
-  <si>
-    <t>www.louisaslett.com</t>
-  </si>
-  <si>
-    <t>www.menpo.org</t>
-  </si>
-  <si>
-    <t>www.cs.bham.ac.uk</t>
-  </si>
-  <si>
-    <t>www.cs.kent.ac.uk</t>
-  </si>
-  <si>
-    <t>cmictig.cs.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>powkist.abdn.ac.uk</t>
-  </si>
-  <si>
-    <t>sleepful.me</t>
-  </si>
-  <si>
-    <t>www.imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>www.onetep.org</t>
-  </si>
-  <si>
-    <t>mloss.org</t>
-  </si>
-  <si>
-    <t>soft-dev.org</t>
-  </si>
-  <si>
-    <t>www.maths.dur.ac.uk</t>
-  </si>
-  <si>
-    <t>reaction-networks.net</t>
-  </si>
-  <si>
-    <t>www0.cs.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>code.google.com</t>
-  </si>
-  <si>
-    <t>chaste.cs.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>mi.eng.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>www.dnald.org</t>
-  </si>
-  <si>
-    <t>eprints.hud.ac.uk</t>
+    <t>myhealthavatar.org</t>
+  </si>
+  <si>
+    <t>www.enrichnet.org</t>
+  </si>
+  <si>
+    <t>www.solar.sheffield.ac.uk</t>
+  </si>
+  <si>
+    <t>www.macs.hw.ac.uk</t>
+  </si>
+  <si>
+    <t>gvgai.net</t>
+  </si>
+  <si>
+    <t>youtu.be</t>
+  </si>
+  <si>
+    <t>copperdroid.isg.rhul.ac.uk</t>
+  </si>
+  <si>
+    <t>homepages.cs.ncl.ac.uk</t>
+  </si>
+  <si>
+    <t>maptraits.wordpress.com</t>
+  </si>
+  <si>
+    <t>epistruct.sourceforge.net</t>
+  </si>
+  <si>
+    <t>spindynamics.org</t>
+  </si>
+  <si>
+    <t>op2.github.io</t>
+  </si>
+  <si>
+    <t>www.bioconductor.org</t>
+  </si>
+  <si>
+    <t>theswo.sourceforge.net</t>
+  </si>
+  <si>
+    <t>htk.eng.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>ova.arg-tech.org</t>
+  </si>
+  <si>
+    <t>workspace.imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>langsrv.astro.cf.ac.uk</t>
+  </si>
+  <si>
+    <t>designaday.fairphone-open.com</t>
+  </si>
+  <si>
+    <t>varoudis.github.io</t>
+  </si>
+  <si>
+    <t>phpsemantics.org</t>
   </si>
   <si>
     <t>www.smarthomeframework.ecs.soton.ac.uk</t>
   </si>
   <si>
+    <t>www.bgs.ac.uk</t>
+  </si>
+  <si>
+    <t>cp2k.org</t>
+  </si>
+  <si>
+    <t>switchoff.nus.org.uk</t>
+  </si>
+  <si>
+    <t>www.epcc.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>www.handyurbansolutions.com</t>
+  </si>
+  <si>
+    <t>thesharcproject.wordpress.com</t>
+  </si>
+  <si>
+    <t>homepages.warwick.ac.uk</t>
+  </si>
+  <si>
+    <t>simpleware.com</t>
+  </si>
+  <si>
+    <t>www.acousticsensing.co.uk</t>
+  </si>
+  <si>
+    <t>oss.deltares.nl</t>
+  </si>
+  <si>
+    <t>www.optados.org</t>
+  </si>
+  <si>
+    <t>www.healthymindapp.org</t>
+  </si>
+  <si>
+    <t>keyfort.co.uk</t>
+  </si>
+  <si>
+    <t>hive.chem.ucl.ac.uk:8080</t>
+  </si>
+  <si>
+    <t>www.phon.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.ccpbiosim.ac.uk</t>
+  </si>
+  <si>
+    <t>www.dnvgl.com</t>
+  </si>
+  <si>
+    <t>dolfin-adjoint.org</t>
+  </si>
+  <si>
+    <t>www.dune-project.org</t>
+  </si>
+  <si>
+    <t>journals.plos.org</t>
+  </si>
+  <si>
+    <t>kurlin.org</t>
+  </si>
+  <si>
+    <t>savilerow.cs.st-andrews.ac.uk</t>
+  </si>
+  <si>
+    <t>vallico.net</t>
+  </si>
+  <si>
+    <t>emboeditor.herokuapp.com</t>
+  </si>
+  <si>
+    <t>www2.tcm.phy.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>cowl.ws</t>
+  </si>
+  <si>
+    <t>chrome.google.com</t>
+  </si>
+  <si>
+    <t>www.comob.org.uk</t>
+  </si>
+  <si>
+    <t>www.cstr.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>www.hud.ac.uk</t>
+  </si>
+  <si>
+    <t>www.deft-whois.org</t>
+  </si>
+  <si>
+    <t>cruncher.ncl.ac.uk</t>
+  </si>
+  <si>
+    <t>crowdcrafting.org</t>
+  </si>
+  <si>
     <t>link.springer.com</t>
   </si>
   <si>
-    <t>www.acousticsensing.co.uk</t>
+    <t>smtcomp.sourceforge.net</t>
+  </si>
+  <si>
+    <t>kidney.optimalmatching.com</t>
+  </si>
+  <si>
+    <t>www.lboro.ac.uk</t>
+  </si>
+  <si>
+    <t>www.urban-futures.org</t>
+  </si>
+  <si>
+    <t>llama.leeds.ac.uk</t>
+  </si>
+  <si>
+    <t>pele-python.github.io</t>
   </si>
   <si>
     <t>www.manageplaces.com</t>
   </si>
   <si>
+    <t>www.walkingthroughtime.co.uk</t>
+  </si>
+  <si>
+    <t>lucmoreau.github.io</t>
+  </si>
+  <si>
+    <t>www.digitalprosumer.co.uk</t>
+  </si>
+  <si>
+    <t>groups.physics.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>www.incompact3d.com</t>
+  </si>
+  <si>
+    <t>multicore.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>www.ccpnc.ac.uk</t>
+  </si>
+  <si>
+    <t>ourbigportrait.com</t>
+  </si>
+  <si>
+    <t>www.software.ac.uk</t>
+  </si>
+  <si>
+    <t>extasy-project.org</t>
+  </si>
+  <si>
+    <t>web4.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.footmiles.org</t>
+  </si>
+  <si>
+    <t>www.prismmodelchecker.org</t>
+  </si>
+  <si>
+    <t>bimpa.group.shef.ac.uk</t>
+  </si>
+  <si>
+    <t>sure-infrastructure.leeds.ac.uk</t>
+  </si>
+  <si>
+    <t>www.homepages.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>muxviz.net</t>
+  </si>
+  <si>
+    <t>www.tractor-mri.org.uk</t>
+  </si>
+  <si>
+    <t>Vgest.net</t>
+  </si>
+  <si>
+    <t>www.biospi.org</t>
+  </si>
+  <si>
+    <t>emotionsense.org</t>
+  </si>
+  <si>
+    <t>www.k-wave.org</t>
+  </si>
+  <si>
+    <t>zoonproject.wordpress.com</t>
+  </si>
+  <si>
+    <t>139.133.232.16</t>
+  </si>
+  <si>
+    <t>cshore.cs.rhul.ac.uk</t>
+  </si>
+  <si>
+    <t>app-movement.com</t>
+  </si>
+  <si>
+    <t>www.seniorscycle.co.uk</t>
+  </si>
+  <si>
+    <t>www.defensivejs.com</t>
+  </si>
+  <si>
+    <t>www.jqc.org.uk</t>
+  </si>
+  <si>
+    <t>prosecco.gforge.inria.fr</t>
+  </si>
+  <si>
+    <t>www.bath.ac.uk</t>
+  </si>
+  <si>
+    <t>lat.inf.tu-dresden.de</t>
+  </si>
+  <si>
+    <t>www.justimed.com</t>
+  </si>
+  <si>
+    <t>browseraudit.com</t>
+  </si>
+  <si>
+    <t>www.edx.org</t>
+  </si>
+  <si>
+    <t>mriphysics.github.io</t>
+  </si>
+  <si>
+    <t>www.hpc-diversity.ac.uk</t>
+  </si>
+  <si>
+    <t>www.bone-finder.com</t>
+  </si>
+  <si>
     <t>safecap.sourceforge.net</t>
   </si>
   <si>
+    <t>www.quantmedia.org</t>
+  </si>
+  <si>
+    <t>vprover.org</t>
+  </si>
+  <si>
+    <t>fowlercorpora.readthedocs.org</t>
+  </si>
+  <si>
+    <t>easy-m.io</t>
+  </si>
+  <si>
+    <t>www.smart-ebikes.com</t>
+  </si>
+  <si>
+    <t>www.informatics.sussex.ac.uk</t>
+  </si>
+  <si>
+    <t>reality.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.csrf.ac.uk</t>
+  </si>
+  <si>
+    <t>www.qappsonline.com</t>
+  </si>
+  <si>
+    <t>visual.cs.ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.sadie-project.co.uk</t>
+  </si>
+  <si>
+    <t>www.stats.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>www.siremol.org</t>
+  </si>
+  <si>
+    <t>line-solver.sourceforge.net</t>
+  </si>
+  <si>
+    <t>hannahfry.co.uk</t>
+  </si>
+  <si>
+    <t>www.essexgroup.soton.ac.uk</t>
+  </si>
+  <si>
+    <t>www.responsible-innovation.org.uk</t>
+  </si>
+  <si>
+    <t>dna.physics.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>www.isophonics.net</t>
+  </si>
+  <si>
+    <t>www.gridcarbon.uk</t>
+  </si>
+  <si>
+    <t>elk.sourceforge.net</t>
+  </si>
+  <si>
+    <t>projectglobalview.blogspot.co.uk</t>
+  </si>
+  <si>
+    <t>eecs.qmul.ac.uk</t>
+  </si>
+  <si>
+    <t>www.ngenics.com</t>
+  </si>
+  <si>
+    <t>www.doc.gold.ac.uk</t>
+  </si>
+  <si>
+    <t>www.mettel-prover.org</t>
+  </si>
+  <si>
+    <t>www.hande.org.uk</t>
+  </si>
+  <si>
+    <t>smartelectricity.io</t>
+  </si>
+  <si>
+    <t>www.warwick.ac.uk</t>
+  </si>
+  <si>
+    <t>www.evosuite.org</t>
+  </si>
+  <si>
+    <t>imagination.lancs.ac.uk</t>
+  </si>
+  <si>
+    <t>www.adaptivearchitectureframework.org</t>
+  </si>
+  <si>
+    <t>www.ccp5.ac.uk</t>
+  </si>
+  <si>
+    <t>www.gowsb.com</t>
+  </si>
+  <si>
+    <t>hackage.haskell.org</t>
+  </si>
+  <si>
+    <t>shelflife.oxfam.org.uk</t>
+  </si>
+  <si>
+    <t>www.well-sorted.org</t>
+  </si>
+  <si>
+    <t>reflect-esm-dev.lancs.ac.uk</t>
+  </si>
+  <si>
+    <t>www.hydraplatform.org</t>
+  </si>
+  <si>
+    <t>lsds.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>www.xtl.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>www.bluegreencities.ac.uk</t>
+  </si>
+  <si>
+    <t>www.numerical.rl.ac.uk</t>
+  </si>
+  <si>
+    <t>www.nektar.info</t>
+  </si>
+  <si>
+    <t>groups.inf.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>empslocal.ex.ac.uk</t>
+  </si>
+  <si>
+    <t>cs.bham.ac.uk</t>
+  </si>
+  <si>
+    <t>www.webasr.org</t>
+  </si>
+  <si>
     <t>qub.ac.uk</t>
   </si>
   <si>
-    <t>cp2k.org</t>
-  </si>
-  <si>
-    <t>cowl.ws</t>
-  </si>
-  <si>
-    <t>www.adaptivearchitectureframework.org</t>
+    <t>bela.io</t>
+  </si>
+  <si>
+    <t>www.mendeley.com</t>
+  </si>
+  <si>
+    <t>www.mad4nrg.org</t>
+  </si>
+  <si>
+    <t>ritweb.cloudapp.net:8080</t>
+  </si>
+  <si>
+    <t>business.liftshare.com</t>
+  </si>
+  <si>
+    <t>www.doc.ic.ac.uk</t>
+  </si>
+  <si>
+    <t>www.coin-or.org</t>
+  </si>
+  <si>
+    <t>homepages.abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>hts.sp.nitech.ac.jp</t>
+  </si>
+  <si>
+    <t>bugseng.com</t>
+  </si>
+  <si>
+    <t>creators.woodworks.org.uk</t>
+  </si>
+  <si>
+    <t>www.cp2k.org</t>
+  </si>
+  <si>
+    <t>www.brighton.ac.uk</t>
+  </si>
+  <si>
+    <t>sentinet.abdn.ac.uk</t>
+  </si>
+  <si>
+    <t>www.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>www.lets-explore.com</t>
+  </si>
+  <si>
+    <t>www.commnet.ac.uk</t>
+  </si>
+  <si>
+    <t>VGeST.net</t>
+  </si>
+  <si>
+    <t>netwiki.amath.unc.edu</t>
+  </si>
+  <si>
+    <t>www.sciencedaily.com</t>
+  </si>
+  <si>
+    <t>www.ihs.com</t>
+  </si>
+  <si>
+    <t>stchem.bham.ac.uk</t>
+  </si>
+  <si>
+    <t>www.cs.swan.ac.uk</t>
+  </si>
+  <si>
+    <t>www.n8equipment.prg.uk</t>
+  </si>
+  <si>
+    <t>datadryad.org</t>
+  </si>
+  <si>
+    <t>www.oerc.ox.ac.uk</t>
   </si>
   <si>
     <t>www.tntgo.org</t>
   </si>
   <si>
-    <t>groups.inf.ed.ac.uk</t>
-  </si>
-  <si>
-    <t>langsrv.astro.cf.ac.uk</t>
+    <t>www.taverna.org.uk</t>
+  </si>
+  <si>
+    <t>www2.eng.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>netlab.dcs.gla.ac.uk</t>
+  </si>
+  <si>
+    <t>thespace.org</t>
+  </si>
+  <si>
+    <t>constraintmodelling.org</t>
+  </si>
+  <si>
+    <t>vallico.new</t>
+  </si>
+  <si>
+    <t>www.openbsd.org</t>
+  </si>
+  <si>
+    <t>tulip.lenhardt.co.uk</t>
+  </si>
+  <si>
+    <t>blog.debroglie.net</t>
+  </si>
+  <si>
+    <t>platform.carbonculture.net</t>
+  </si>
+  <si>
+    <t>opus.bath.ac.uk</t>
+  </si>
+  <si>
+    <t>www.cl.cam.ac.uk</t>
   </si>
   <si>
     <t>wanderanywhere.com</t>
   </si>
   <si>
-    <t>designaday.fairphone-open.com</t>
-  </si>
-  <si>
-    <t>www.ccpbiosim.ac.uk</t>
-  </si>
-  <si>
-    <t>dolfin-adjoint.org</t>
-  </si>
-  <si>
-    <t>www.ccpnc.ac.uk</t>
-  </si>
-  <si>
-    <t>www.doc.ic.ac.uk</t>
-  </si>
-  <si>
-    <t>constraintmodelling.org</t>
+    <t>dylan.sf.net</t>
+  </si>
+  <si>
+    <t>r-forge.r-project.org</t>
+  </si>
+  <si>
+    <t>www.dwrc.surrey.ac.uk</t>
+  </si>
+  <si>
+    <t>www.webcitation.org</t>
+  </si>
+  <si>
+    <t>gitlab.dune-project.org</t>
   </si>
   <si>
     <t>cmic.cs.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>www.informatics.sussex.ac.uk</t>
-  </si>
-  <si>
-    <t>www.incompact3d.com</t>
-  </si>
-  <si>
-    <t>cs.bham.ac.uk</t>
-  </si>
-  <si>
-    <t>smtcomp.sourceforge.net</t>
-  </si>
-  <si>
-    <t>www.cstr.ed.ac.uk</t>
-  </si>
-  <si>
-    <t>varoudis.github.io</t>
-  </si>
-  <si>
-    <t>www.footmiles.org</t>
-  </si>
-  <si>
-    <t>www2.tcm.phy.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>dylan.sf.net</t>
-  </si>
-  <si>
-    <t>www.ihs.com</t>
-  </si>
-  <si>
-    <t>www.evosuite.org</t>
-  </si>
-  <si>
-    <t>www.lets-explore.com</t>
-  </si>
-  <si>
-    <t>ourbigportrait.com</t>
-  </si>
-  <si>
-    <t>www.oerc.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>www.webasr.org</t>
-  </si>
-  <si>
-    <t>www.epcc.ed.ac.uk</t>
-  </si>
-  <si>
-    <t>epistruct.sourceforge.net</t>
-  </si>
-  <si>
-    <t>pele-python.github.io</t>
-  </si>
-  <si>
-    <t>creators.woodworks.org.uk</t>
-  </si>
-  <si>
-    <t>www.phon.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>homepages.abdn.ac.uk</t>
-  </si>
-  <si>
-    <t>keyfort.co.uk</t>
-  </si>
-  <si>
-    <t>www.sciencedaily.com</t>
-  </si>
-  <si>
-    <t>www.essexgroup.soton.ac.uk</t>
-  </si>
-  <si>
-    <t>www.bgs.ac.uk</t>
-  </si>
-  <si>
-    <t>www.hande.org.uk</t>
-  </si>
-  <si>
-    <t>op2.github.io</t>
-  </si>
-  <si>
-    <t>tulip.lenhardt.co.uk</t>
-  </si>
-  <si>
-    <t>www.numerical.rl.ac.uk</t>
-  </si>
-  <si>
-    <t>www.dune-project.org</t>
-  </si>
-  <si>
-    <t>thespace.org</t>
-  </si>
-  <si>
-    <t>www.hud.ac.uk</t>
-  </si>
-  <si>
-    <t>www.hpc-diversity.ac.uk</t>
-  </si>
-  <si>
-    <t>simpleware.com</t>
-  </si>
-  <si>
-    <t>www.lboro.ac.uk</t>
-  </si>
-  <si>
-    <t>lat.inf.tu-dresden.de</t>
-  </si>
-  <si>
-    <t>www.siremol.org</t>
-  </si>
-  <si>
-    <t>www.seniorscycle.co.uk</t>
-  </si>
-  <si>
-    <t>opus.bath.ac.uk</t>
-  </si>
-  <si>
-    <t>datadryad.org</t>
-  </si>
-  <si>
-    <t>www.mendeley.com</t>
-  </si>
-  <si>
-    <t>www.openbsd.org</t>
-  </si>
-  <si>
-    <t>dna.physics.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>homepages.warwick.ac.uk</t>
-  </si>
-  <si>
-    <t>r-forge.r-project.org</t>
-  </si>
-  <si>
-    <t>gitlab.dune-project.org</t>
-  </si>
-  <si>
-    <t>www.optados.org</t>
-  </si>
-  <si>
-    <t>www.brighton.ac.uk</t>
-  </si>
-  <si>
-    <t>platform.carbonculture.net</t>
-  </si>
-  <si>
-    <t>hackage.haskell.org</t>
-  </si>
-  <si>
-    <t>sentinet.abdn.ac.uk</t>
-  </si>
-  <si>
-    <t>llama.leeds.ac.uk</t>
-  </si>
-  <si>
-    <t>www.comob.org.uk</t>
-  </si>
-  <si>
-    <t>imagination.lancs.ac.uk</t>
-  </si>
-  <si>
-    <t>reality.cs.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>www.mad4nrg.org</t>
-  </si>
-  <si>
-    <t>copperdroid.isg.rhul.ac.uk</t>
-  </si>
-  <si>
-    <t>www.gridcarbon.uk</t>
-  </si>
-  <si>
-    <t>emboeditor.herokuapp.com</t>
-  </si>
-  <si>
-    <t>www.cs.swan.ac.uk</t>
-  </si>
-  <si>
-    <t>projectglobalview.blogspot.co.uk</t>
-  </si>
-  <si>
-    <t>www.justimed.com</t>
-  </si>
-  <si>
-    <t>business.liftshare.com</t>
-  </si>
-  <si>
-    <t>htk.eng.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>hts.sp.nitech.ac.jp</t>
-  </si>
-  <si>
-    <t>www.tractor-mri.org.uk</t>
-  </si>
-  <si>
-    <t>extasy-project.org</t>
-  </si>
-  <si>
-    <t>kidney.optimalmatching.com</t>
-  </si>
-  <si>
-    <t>www.dwrc.surrey.ac.uk</t>
-  </si>
-  <si>
-    <t>www.responsible-innovation.org.uk</t>
-  </si>
-  <si>
-    <t>www.walkingthroughtime.co.uk</t>
-  </si>
-  <si>
-    <t>switchoff.nus.org.uk</t>
-  </si>
-  <si>
-    <t>thesharcproject.wordpress.com</t>
-  </si>
-  <si>
-    <t>cshore.cs.rhul.ac.uk</t>
-  </si>
-  <si>
-    <t>www.bluegreencities.ac.uk</t>
-  </si>
-  <si>
-    <t>vprover.org</t>
-  </si>
-  <si>
-    <t>hive.chem.ucl.ac.uk:8080</t>
-  </si>
-  <si>
-    <t>fowlercorpora.readthedocs.org</t>
-  </si>
-  <si>
-    <t>www.defensivejs.com</t>
-  </si>
-  <si>
-    <t>myhealthavatar.org</t>
-  </si>
-  <si>
-    <t>shelflife.oxfam.org.uk</t>
-  </si>
-  <si>
-    <t>www.urban-futures.org</t>
-  </si>
-  <si>
-    <t>prosecco.gforge.inria.fr</t>
-  </si>
-  <si>
-    <t>crowdcrafting.org</t>
-  </si>
-  <si>
-    <t>www.quantmedia.org</t>
-  </si>
-  <si>
-    <t>oss.deltares.nl</t>
-  </si>
-  <si>
-    <t>spindynamics.org</t>
-  </si>
-  <si>
-    <t>web4.cs.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>www.healthymindapp.org</t>
-  </si>
-  <si>
-    <t>www.ccp5.ac.uk</t>
-  </si>
-  <si>
-    <t>zoonproject.wordpress.com</t>
-  </si>
-  <si>
-    <t>browseraudit.com</t>
-  </si>
-  <si>
-    <t>www2.eng.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>www.xtl.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>www.ngenics.com</t>
-  </si>
-  <si>
-    <t>www.prismmodelchecker.org</t>
-  </si>
-  <si>
-    <t>www.digitalprosumer.co.uk</t>
-  </si>
-  <si>
-    <t>hannahfry.co.uk</t>
-  </si>
-  <si>
-    <t>www.warwick.ac.uk</t>
-  </si>
-  <si>
-    <t>www.hydraplatform.org</t>
-  </si>
-  <si>
-    <t>www.webcitation.org</t>
-  </si>
-  <si>
-    <t>cruncher.ncl.ac.uk</t>
-  </si>
-  <si>
-    <t>reflect-esm-dev.lancs.ac.uk</t>
-  </si>
-  <si>
-    <t>elk.sourceforge.net</t>
-  </si>
-  <si>
-    <t>workspace.imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>mriphysics.github.io</t>
-  </si>
-  <si>
-    <t>line-solver.sourceforge.net</t>
-  </si>
-  <si>
-    <t>visual.cs.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>savilerow.cs.st-andrews.ac.uk</t>
-  </si>
-  <si>
-    <t>lucmoreau.github.io</t>
-  </si>
-  <si>
-    <t>www.qappsonline.com</t>
-  </si>
-  <si>
-    <t>www.stats.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>chrome.google.com</t>
-  </si>
-  <si>
-    <t>stchem.bham.ac.uk</t>
-  </si>
-  <si>
-    <t>www.csrf.ac.uk</t>
-  </si>
-  <si>
-    <t>journals.plos.org</t>
-  </si>
-  <si>
-    <t>www.gowsb.com</t>
-  </si>
-  <si>
-    <t>www.n8equipment.prg.uk</t>
-  </si>
-  <si>
-    <t>www.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>eecs.qmul.ac.uk</t>
-  </si>
-  <si>
-    <t>www.mettel-prover.org</t>
-  </si>
-  <si>
-    <t>www.coin-or.org</t>
-  </si>
-  <si>
-    <t>www.commnet.ac.uk</t>
-  </si>
-  <si>
-    <t>sure-infrastructure.leeds.ac.uk</t>
-  </si>
-  <si>
-    <t>bimpa.group.shef.ac.uk</t>
-  </si>
-  <si>
-    <t>maptraits.wordpress.com</t>
-  </si>
-  <si>
-    <t>vallico.new</t>
-  </si>
-  <si>
-    <t>www.enrichnet.org</t>
-  </si>
-  <si>
-    <t>smartelectricity.io</t>
-  </si>
-  <si>
-    <t>theswo.sourceforge.net</t>
-  </si>
-  <si>
-    <t>www.deft-whois.org</t>
-  </si>
-  <si>
-    <t>VGeST.net</t>
-  </si>
-  <si>
-    <t>app-movement.com</t>
-  </si>
-  <si>
-    <t>www.taverna.org.uk</t>
-  </si>
-  <si>
-    <t>www.software.ac.uk</t>
-  </si>
-  <si>
-    <t>groups.physics.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>youtu.be</t>
-  </si>
-  <si>
-    <t>kurlin.org</t>
-  </si>
-  <si>
-    <t>www.k-wave.org</t>
-  </si>
-  <si>
-    <t>139.133.232.16</t>
-  </si>
-  <si>
-    <t>netlab.dcs.gla.ac.uk</t>
-  </si>
-  <si>
-    <t>phpsemantics.org</t>
-  </si>
-  <si>
-    <t>www.edx.org</t>
-  </si>
-  <si>
-    <t>www.homepages.ucl.ac.uk</t>
-  </si>
-  <si>
-    <t>netwiki.amath.unc.edu</t>
-  </si>
-  <si>
-    <t>Vgest.net</t>
-  </si>
-  <si>
-    <t>empslocal.ex.ac.uk</t>
-  </si>
-  <si>
-    <t>www.bioconductor.org</t>
-  </si>
-  <si>
-    <t>www.cp2k.org</t>
-  </si>
-  <si>
-    <t>www.well-sorted.org</t>
-  </si>
-  <si>
-    <t>ova.arg-tech.org</t>
-  </si>
-  <si>
-    <t>easy-m.io</t>
-  </si>
-  <si>
-    <t>blog.debroglie.net</t>
-  </si>
-  <si>
-    <t>www.bone-finder.com</t>
-  </si>
-  <si>
-    <t>www.biospi.org</t>
-  </si>
-  <si>
-    <t>emotionsense.org</t>
-  </si>
-  <si>
-    <t>www.dnvgl.com</t>
-  </si>
-  <si>
-    <t>www.handyurbansolutions.com</t>
-  </si>
-  <si>
-    <t>homepages.cs.ncl.ac.uk</t>
-  </si>
-  <si>
-    <t>vallico.net</t>
-  </si>
-  <si>
-    <t>www.nektar.info</t>
-  </si>
-  <si>
-    <t>www.sadie-project.co.uk</t>
-  </si>
-  <si>
-    <t>www.cl.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>lsds.doc.ic.ac.uk</t>
-  </si>
-  <si>
-    <t>www.solar.sheffield.ac.uk</t>
-  </si>
-  <si>
-    <t>www.macs.hw.ac.uk</t>
-  </si>
-  <si>
-    <t>bela.io</t>
-  </si>
-  <si>
-    <t>www.smart-ebikes.com</t>
-  </si>
-  <si>
-    <t>www.isophonics.net</t>
-  </si>
-  <si>
-    <t>gvgai.net</t>
-  </si>
-  <si>
-    <t>muxviz.net</t>
-  </si>
-  <si>
-    <t>multicore.doc.ic.ac.uk</t>
-  </si>
-  <si>
-    <t>www.bath.ac.uk</t>
-  </si>
-  <si>
-    <t>ritweb.cloudapp.net:8080</t>
-  </si>
-  <si>
-    <t>www.jqc.org.uk</t>
-  </si>
-  <si>
-    <t>bugseng.com</t>
-  </si>
-  <si>
-    <t>www.doc.gold.ac.uk</t>
   </si>
   <si>
     <t>Year First Provided</t>
@@ -1400,7 +1403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1408,33 +1411,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>440</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="n">
+        <v>0.6102635228848821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>198</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2746185852981969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>198</v>
+        <v>83</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1151178918169209</v>
       </c>
     </row>
   </sheetData>
@@ -1448,7 +1463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1456,537 +1471,738 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="n">
+        <v>0.110981308411215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="n">
+        <v>0.07009345794392523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="n">
+        <v>0.0630841121495327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="n">
+        <v>0.05023364485981308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="n">
+        <v>0.04906542056074766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="n">
+        <v>0.04439252336448598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="n">
+        <v>0.0397196261682243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="n">
+        <v>0.0397196261682243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="n">
+        <v>0.03621495327102803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="n">
+        <v>0.03154205607476635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="n">
+        <v>0.03037383177570093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="n">
+        <v>0.02920560747663551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="n">
+        <v>0.02803738317757009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="n">
+        <v>0.02686915887850467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="n">
+        <v>0.01752336448598131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="n">
+        <v>0.01635514018691589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="n">
+        <v>0.01635514018691589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="n">
+        <v>0.01635514018691589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="n">
+        <v>0.01518691588785047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="n">
+        <v>0.01401869158878505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="n">
+        <v>0.01401869158878505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="n">
+        <v>0.01285046728971963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="n">
+        <v>0.01285046728971963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="n">
+        <v>0.01168224299065421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="n">
+        <v>0.01168224299065421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="n">
+        <v>0.01168224299065421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="n">
+        <v>0.01168224299065421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="n">
+        <v>0.01051401869158878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="n">
+        <v>0.01051401869158878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="n">
+        <v>0.01051401869158878</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="n">
+        <v>0.009345794392523364</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="n">
+        <v>0.008177570093457943</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="n">
+        <v>0.008177570093457943</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="n">
+        <v>0.008177570093457943</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="n">
+        <v>0.008177570093457943</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="n">
+        <v>0.007009345794392523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="n">
+        <v>0.007009345794392523</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="n">
+        <v>0.005841121495327103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="n">
+        <v>0.005841121495327103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="n">
+        <v>0.004672897196261682</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="n">
+        <v>0.004672897196261682</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="n">
+        <v>0.004672897196261682</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="n">
+        <v>0.003504672897196262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="n">
+        <v>0.003504672897196262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="n">
+        <v>0.003504672897196262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="n">
+        <v>0.003504672897196262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="n">
+        <v>0.003504672897196262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="n">
+        <v>0.003504672897196262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="n">
+        <v>0.003504672897196262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="n">
+        <v>0.003504672897196262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" t="n">
+        <v>0.003504672897196262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" t="n">
+        <v>0.002336448598130841</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" t="n">
+        <v>0.002336448598130841</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" t="n">
+        <v>0.002336448598130841</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" t="n">
+        <v>0.002336448598130841</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" t="n">
+        <v>0.002336448598130841</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" t="n">
+        <v>0.00116822429906542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" t="n">
+        <v>0.00116822429906542</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" t="n">
+        <v>0.00116822429906542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" t="n">
+        <v>0.00116822429906542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" t="n">
+        <v>0.00116822429906542</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" t="n">
+        <v>0.00116822429906542</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" t="n">
+        <v>0.00116822429906542</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" t="n">
+        <v>0.00116822429906542</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" t="n">
+        <v>0.00116822429906542</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.00116822429906542</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +2216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B268"/>
+  <dimension ref="A1:C268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,2145 +2224,2949 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" t="n">
         <v>137</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="n">
+        <v>0.2275747508305648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="n">
+        <v>0.04152823920265781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="n">
+        <v>0.02159468438538206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="n">
+        <v>0.02159468438538206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="n">
+        <v>0.01827242524916944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="n">
+        <v>0.01495016611295681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="n">
+        <v>0.01495016611295681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="n">
+        <v>0.0132890365448505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="n">
+        <v>0.01162790697674419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="n">
+        <v>0.01162790697674419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="n">
+        <v>0.009966777408637873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="n">
+        <v>0.009966777408637873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="n">
+        <v>0.008305647840531562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="n">
+        <v>0.008305647840531562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="n">
+        <v>0.008305647840531562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="n">
+        <v>0.008305647840531562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="n">
+        <v>0.008305647840531562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="n">
+        <v>0.008305647840531562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="n">
+        <v>0.006644518272425249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="n">
+        <v>0.006644518272425249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B22" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="n">
+        <v>0.006644518272425249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B23" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="n">
+        <v>0.006644518272425249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B24" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="n">
+        <v>0.006644518272425249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B25" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="n">
+        <v>0.004983388704318937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B26" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="n">
+        <v>0.004983388704318937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="n">
+        <v>0.004983388704318937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B28" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="n">
+        <v>0.004983388704318937</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="n">
+        <v>0.004983388704318937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="n">
+        <v>0.004983388704318937</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="n">
+        <v>0.004983388704318937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B32" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="n">
+        <v>0.004983388704318937</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="n">
+        <v>0.004983388704318937</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B34" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="n">
+        <v>0.004983388704318937</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B35" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B37" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B38" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B39" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B40" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B41" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B42" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B43" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B44" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B45" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B46" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B47" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B48" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B49" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B50" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B51" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B52" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B53" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B54" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B55" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B56" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B57" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B58" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B59" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B60" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B61" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B62" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B63" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B64" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B65" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B66" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B67" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B68" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B69" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B70" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B71" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" t="n">
+        <v>0.003322259136212625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="C116" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="C117" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="C130" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="C131" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="C132" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="C133" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="C134" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="C135" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="C136" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="C137" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="C138" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="C139" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="C140" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="C141" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="C142" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="C143" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="C144" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="C145" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="C146" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="C147" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="C148" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="C149" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="C150" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="C151" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="C152" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="C153" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="C154" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="C155" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="C156" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="C157" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="C158" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="C159" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="C160" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="C161" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="C162" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
+      <c r="C163" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
+      <c r="C164" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
+      <c r="C165" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
+      <c r="C166" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="C167" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
+      <c r="C168" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
+      <c r="C169" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
+      <c r="C170" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
+      <c r="C171" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="C172" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
+      <c r="C173" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
+      <c r="C174" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
+      <c r="C175" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
+      <c r="C176" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
+      <c r="C177" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
+      <c r="C178" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
+      <c r="C179" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
+      <c r="C180" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
+      <c r="C181" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
+      <c r="C182" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
+      <c r="C183" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
+      <c r="C184" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
+      <c r="C185" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
+      <c r="C186" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
+      <c r="C187" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
+      <c r="C188" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
+      <c r="C189" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
+      <c r="C190" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
+      <c r="C191" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
+      <c r="C192" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
+      <c r="C193" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
+      <c r="C194" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
+      <c r="C195" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
+      <c r="C196" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
+      <c r="C197" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
+      <c r="C198" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
+      <c r="C199" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
+      <c r="C200" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
+      <c r="C201" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
+      <c r="C202" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:2">
+      <c r="C203" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B204" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:2">
+      <c r="C204" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:2">
+      <c r="C205" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:2">
+      <c r="C206" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:2">
+      <c r="C207" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
+      <c r="C208" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
+      <c r="C209" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:2">
+      <c r="C210" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:2">
+      <c r="C211" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:2">
+      <c r="C212" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:2">
+      <c r="C213" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B214" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:2">
+      <c r="C214" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:2">
+      <c r="C215" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:2">
+      <c r="C216" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:2">
+      <c r="C217" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:2">
+      <c r="C218" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B219" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:2">
+      <c r="C219" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B220" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:2">
+      <c r="C220" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B221" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:2">
+      <c r="C221" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B222" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:2">
+      <c r="C222" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B223" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:2">
+      <c r="C223" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B224" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:2">
+      <c r="C224" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B225" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:2">
+      <c r="C225" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B226" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:2">
+      <c r="C226" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:2">
+      <c r="C227" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B228" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:2">
+      <c r="C228" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B229" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:2">
+      <c r="C229" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B230" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:2">
+      <c r="C230" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B231" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:2">
+      <c r="C231" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:2">
+      <c r="C232" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B233" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:2">
+      <c r="C233" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B234" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:2">
+      <c r="C234" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B235" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:2">
+      <c r="C235" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B236" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:2">
+      <c r="C236" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B237" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:2">
+      <c r="C237" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B238" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:2">
+      <c r="C238" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B239" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:2">
+      <c r="C239" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B240" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:2">
+      <c r="C240" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B241" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:2">
+      <c r="C241" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B242" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:2">
+      <c r="C242" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B243" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:2">
+      <c r="C243" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B244" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:2">
+      <c r="C244" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B245" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:2">
+      <c r="C245" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B246" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:2">
+      <c r="C246" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B247" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:2">
+      <c r="C247" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B248" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:2">
+      <c r="C248" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B249" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:2">
+      <c r="C249" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B250" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:2">
+      <c r="C250" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B251" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:2">
+      <c r="C251" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B252" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:2">
+      <c r="C252" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B253" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:2">
+      <c r="C253" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B254" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:2">
+      <c r="C254" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B255" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:2">
+      <c r="C255" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B256" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:2">
+      <c r="C256" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B257" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:2">
+      <c r="C257" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B258" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:2">
+      <c r="C258" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B259" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:2">
+      <c r="C259" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B260" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:2">
+      <c r="C260" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B261" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:2">
+      <c r="C261" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B262" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:2">
+      <c r="C262" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B263" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:2">
+      <c r="C263" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B264" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:2">
+      <c r="C264" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B265" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:2">
+      <c r="C265" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B266" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:2">
+      <c r="C266" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B267" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:2">
+      <c r="C267" t="n">
+        <v>0.001661129568106312</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B268" t="n">
         <v>1</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.001661129568106312</v>
       </c>
     </row>
   </sheetData>
@@ -4160,7 +5180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4168,49 +5188,67 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>340</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" t="n">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="n">
+        <v>0.1577102803738318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B3" t="n">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="n">
+        <v>0.1857476635514019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B4" t="n">
         <v>242</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="n">
+        <v>0.2827102803738318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B5" t="n">
         <v>239</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="n">
+        <v>0.2792056074766355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B6" t="n">
         <v>81</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.09462616822429906</v>
       </c>
     </row>
   </sheetData>
